--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{721773D7-A6A1-4A56-8FF1-AE9ED364AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2490B-1AC4-43F8-BA46-1DA9B0CE4E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -93,6 +93,78 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Absicht haben</t>
+  </si>
+  <si>
+    <t>to have the intention</t>
+  </si>
+  <si>
+    <t>Angst haben</t>
+  </si>
+  <si>
+    <t>to be afraid</t>
+  </si>
+  <si>
+    <t>einen Vogel haben</t>
+  </si>
+  <si>
+    <t>Erfolg haben</t>
+  </si>
+  <si>
+    <t>to be successful</t>
+  </si>
+  <si>
+    <t>Glück haben</t>
+  </si>
+  <si>
+    <t>to be lucky</t>
+  </si>
+  <si>
+    <t>Hunger haben</t>
+  </si>
+  <si>
+    <t>to be hungry</t>
+  </si>
+  <si>
+    <t>im Auge haben</t>
+  </si>
+  <si>
+    <t>to have in mind</t>
+  </si>
+  <si>
+    <t>im Griff haben</t>
+  </si>
+  <si>
+    <t>to have under control</t>
+  </si>
+  <si>
+    <t>Pech haben</t>
+  </si>
+  <si>
+    <t>to be unlucky</t>
+  </si>
+  <si>
+    <t>Probleme haben</t>
+  </si>
+  <si>
+    <t>to have problems</t>
+  </si>
+  <si>
+    <t>recht haben</t>
+  </si>
+  <si>
+    <t>to be right</t>
+  </si>
+  <si>
+    <t>to be crazy (literally to have a bird)</t>
+  </si>
+  <si>
+    <t>German Stub</t>
+  </si>
+  <si>
+    <t>English Stub</t>
   </si>
 </sst>
 </file>
@@ -1115,15 +1187,45 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="10">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CF0BFCF7-580A-46F8-B3AF-2ED41BABC61B}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A8:P40"/>
+  <dimension ref="A7:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1233,13 @@
     <col min="3" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="16" max="16" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:16" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1169,8 +1274,6 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" cm="1">
@@ -1185,8 +1288,14 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1198,6 +1307,12 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
@@ -1211,6 +1326,12 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -1224,6 +1345,12 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -1237,6 +1364,12 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -1250,6 +1383,12 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
@@ -1263,8 +1402,14 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -1276,8 +1421,14 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -1289,8 +1440,14 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -1302,8 +1459,14 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -1315,8 +1478,14 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>12</v>
       </c>
@@ -1340,21 +1509,35 @@
         <v>10</v>
       </c>
       <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>13</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>14</v>
       </c>
@@ -1367,7 +1550,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -1380,7 +1563,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>16</v>
       </c>
@@ -1393,7 +1576,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>17</v>
       </c>
@@ -1406,7 +1589,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -1419,7 +1602,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>19</v>
       </c>
@@ -1432,7 +1615,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>20</v>
       </c>
@@ -1445,7 +1628,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>21</v>
       </c>
@@ -1458,7 +1641,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>22</v>
       </c>
@@ -1471,7 +1654,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>23</v>
       </c>
@@ -1589,6 +1772,9 @@
       <c r="J40" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O16:O36">
+    <sortCondition ref="O16:O36"/>
+  </sortState>
   <conditionalFormatting sqref="B10:J40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2490B-1AC4-43F8-BA46-1DA9B0CE4E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4721E-208E-4365-8770-B398B2159537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$L$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -83,9 +83,6 @@
     <t>German Vocab</t>
   </si>
   <si>
-    <t>German Story</t>
-  </si>
-  <si>
     <t>CSS Drill</t>
   </si>
   <si>
@@ -165,6 +162,15 @@
   </si>
   <si>
     <t>English Stub</t>
+  </si>
+  <si>
+    <t>German Story Audio</t>
+  </si>
+  <si>
+    <t>German Story Reading</t>
+  </si>
+  <si>
+    <t>Stat Drill</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -481,6 +487,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,7 +536,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -532,6 +571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,24 +1270,26 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:P40"/>
+  <dimension ref="A7:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" customWidth="1"/>
-    <col min="16" max="16" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:16" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
@@ -1265,17 +1315,23 @@
         <v>6</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" cm="1">
         <f t="array" ref="B10:B40">_xlfn.SEQUENCE(31)</f>
         <v>1</v>
@@ -1287,15 +1343,17 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="O10" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
       </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1306,15 +1364,17 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="O11" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="10"/>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
         <v>11</v>
       </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -1325,15 +1385,17 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="O12" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
         <v>13</v>
       </c>
-      <c r="P12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>4</v>
       </c>
@@ -1344,15 +1406,17 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="O13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="10"/>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>5</v>
       </c>
@@ -1363,15 +1427,17 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="O14" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="10"/>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" t="s">
         <v>16</v>
       </c>
-      <c r="P14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>6</v>
       </c>
@@ -1382,15 +1448,17 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="O15" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="10"/>
+      <c r="Q15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" t="s">
         <v>18</v>
       </c>
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -1401,15 +1469,17 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="O16" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="10"/>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" t="s">
         <v>20</v>
       </c>
-      <c r="P16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -1420,15 +1490,17 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="O17" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="10"/>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
         <v>22</v>
       </c>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -1439,15 +1511,17 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="O18" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="10"/>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
         <v>24</v>
       </c>
-      <c r="P18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -1458,15 +1532,17 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="O19" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="10"/>
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" t="s">
         <v>26</v>
       </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -1477,67 +1553,83 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="O20" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="10"/>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
         <v>28</v>
       </c>
-      <c r="P20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="10"/>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" t="s">
         <v>30</v>
       </c>
-      <c r="P21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>14</v>
       </c>
@@ -1548,9 +1640,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -1561,9 +1655,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>16</v>
       </c>
@@ -1574,9 +1670,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>17</v>
       </c>
@@ -1587,9 +1685,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -1600,9 +1700,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>19</v>
       </c>
@@ -1613,9 +1715,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>20</v>
       </c>
@@ -1626,9 +1730,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>21</v>
       </c>
@@ -1639,9 +1745,11 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>22</v>
       </c>
@@ -1652,9 +1760,11 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>23</v>
       </c>
@@ -1665,9 +1775,11 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>24</v>
       </c>
@@ -1678,9 +1790,11 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>25</v>
       </c>
@@ -1691,9 +1805,11 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>26</v>
       </c>
@@ -1704,9 +1820,11 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>27</v>
       </c>
@@ -1717,9 +1835,11 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>28</v>
       </c>
@@ -1730,9 +1850,11 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>29</v>
       </c>
@@ -1743,9 +1865,11 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>30</v>
       </c>
@@ -1756,9 +1880,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>31</v>
       </c>
@@ -1769,13 +1895,15 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O16:O36">
-    <sortCondition ref="O16:O36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q16:Q36">
+    <sortCondition ref="Q16:Q36"/>
   </sortState>
-  <conditionalFormatting sqref="B10:J40">
+  <conditionalFormatting sqref="B10:L40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4721E-208E-4365-8770-B398B2159537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF7FFF-B793-49BC-BA63-B0D9A0A1F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$Q$24:$Q$60</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$L$40</definedName>
   </definedNames>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Day</t>
   </si>
@@ -171,6 +172,177 @@
   </si>
   <si>
     <t>Stat Drill</t>
+  </si>
+  <si>
+    <t>sein (to be) - war</t>
+  </si>
+  <si>
+    <t>haben (to have) - hatte</t>
+  </si>
+  <si>
+    <t>werden (to become) - wurde</t>
+  </si>
+  <si>
+    <t>können (can) - konnte</t>
+  </si>
+  <si>
+    <t>müssen (must) - musste</t>
+  </si>
+  <si>
+    <t>sagen (to say) - sagte</t>
+  </si>
+  <si>
+    <t>machen (to make/do) - machte</t>
+  </si>
+  <si>
+    <t>geben (to give) - gab</t>
+  </si>
+  <si>
+    <t>kommen (to come) - kam</t>
+  </si>
+  <si>
+    <t>sollen (should) - sollte</t>
+  </si>
+  <si>
+    <t>wollen (to want) - wollte</t>
+  </si>
+  <si>
+    <t>gehen (to go) - ging</t>
+  </si>
+  <si>
+    <t>wissen (to know) - wusste</t>
+  </si>
+  <si>
+    <t>sehen (to see) - sah</t>
+  </si>
+  <si>
+    <t>lassen (to let/allow) - ließ</t>
+  </si>
+  <si>
+    <t>stehen (to stand) - stand</t>
+  </si>
+  <si>
+    <t>finden (to find) - fand</t>
+  </si>
+  <si>
+    <t>bleiben (to stay) - blieb</t>
+  </si>
+  <si>
+    <t>liegen (to lie) - lag</t>
+  </si>
+  <si>
+    <t>sein (to be)</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>bleiben (to stay)</t>
+  </si>
+  <si>
+    <t>blieb</t>
+  </si>
+  <si>
+    <t>finden (to find)</t>
+  </si>
+  <si>
+    <t>fand</t>
+  </si>
+  <si>
+    <t>geben (to give)</t>
+  </si>
+  <si>
+    <t>gab</t>
+  </si>
+  <si>
+    <t>gehen (to go)</t>
+  </si>
+  <si>
+    <t>ging</t>
+  </si>
+  <si>
+    <t>haben (to have)</t>
+  </si>
+  <si>
+    <t>hatte</t>
+  </si>
+  <si>
+    <t>kommen (to come)</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>können (can)</t>
+  </si>
+  <si>
+    <t>konnte</t>
+  </si>
+  <si>
+    <t>lassen (to let/allow)</t>
+  </si>
+  <si>
+    <t>ließ</t>
+  </si>
+  <si>
+    <t>liegen (to lie)</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>machen (to make/do)</t>
+  </si>
+  <si>
+    <t>machte</t>
+  </si>
+  <si>
+    <t>müssen (must)</t>
+  </si>
+  <si>
+    <t>musste</t>
+  </si>
+  <si>
+    <t>sagen (to say)</t>
+  </si>
+  <si>
+    <t>sagte</t>
+  </si>
+  <si>
+    <t>sehen (to see)</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>sollen (should)</t>
+  </si>
+  <si>
+    <t>sollte</t>
+  </si>
+  <si>
+    <t>stehen (to stand)</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>werden (to become)</t>
+  </si>
+  <si>
+    <t>wurde</t>
+  </si>
+  <si>
+    <t>wissen (to know)</t>
+  </si>
+  <si>
+    <t>wusste</t>
+  </si>
+  <si>
+    <t>wollen (to want)</t>
+  </si>
+  <si>
+    <t>wollte</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1442,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:R40"/>
+  <dimension ref="A7:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -1500,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -1521,7 +1693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -1542,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -1563,7 +1735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>12</v>
       </c>
@@ -1598,7 +1770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>13</v>
       </c>
@@ -1629,22 +1801,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>14</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="15"/>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="K23" s="15"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -1658,8 +1846,17 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>16</v>
       </c>
@@ -1673,8 +1870,17 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>17</v>
       </c>
@@ -1688,8 +1894,17 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -1703,8 +1918,17 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>62</v>
+      </c>
+      <c r="S27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>19</v>
       </c>
@@ -1718,8 +1942,17 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>20</v>
       </c>
@@ -1733,8 +1966,17 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>21</v>
       </c>
@@ -1748,8 +1990,17 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>22</v>
       </c>
@@ -1763,8 +2014,17 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>23</v>
       </c>
@@ -1778,8 +2038,17 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" t="s">
+        <v>72</v>
+      </c>
+      <c r="S32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>24</v>
       </c>
@@ -1793,8 +2062,17 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>25</v>
       </c>
@@ -1808,8 +2086,17 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>26</v>
       </c>
@@ -1823,8 +2110,17 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>27</v>
       </c>
@@ -1838,8 +2134,17 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>28</v>
       </c>
@@ -1853,8 +2158,17 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R37" t="s">
+        <v>82</v>
+      </c>
+      <c r="S37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>29</v>
       </c>
@@ -1868,8 +2182,17 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>84</v>
+      </c>
+      <c r="S38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>30</v>
       </c>
@@ -1883,8 +2206,17 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" t="s">
+        <v>86</v>
+      </c>
+      <c r="S39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>31</v>
       </c>
@@ -1898,6 +2230,37 @@
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="13"/>
+      <c r="Q40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s">
+        <v>88</v>
+      </c>
+      <c r="S40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" t="s">
+        <v>92</v>
+      </c>
+      <c r="S42" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q16:Q36">

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF7FFF-B793-49BC-BA63-B0D9A0A1F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68F6FA-9613-44EC-AD3D-751F83DFB634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Day</t>
   </si>
@@ -174,63 +174,6 @@
     <t>Stat Drill</t>
   </si>
   <si>
-    <t>sein (to be) - war</t>
-  </si>
-  <si>
-    <t>haben (to have) - hatte</t>
-  </si>
-  <si>
-    <t>werden (to become) - wurde</t>
-  </si>
-  <si>
-    <t>können (can) - konnte</t>
-  </si>
-  <si>
-    <t>müssen (must) - musste</t>
-  </si>
-  <si>
-    <t>sagen (to say) - sagte</t>
-  </si>
-  <si>
-    <t>machen (to make/do) - machte</t>
-  </si>
-  <si>
-    <t>geben (to give) - gab</t>
-  </si>
-  <si>
-    <t>kommen (to come) - kam</t>
-  </si>
-  <si>
-    <t>sollen (should) - sollte</t>
-  </si>
-  <si>
-    <t>wollen (to want) - wollte</t>
-  </si>
-  <si>
-    <t>gehen (to go) - ging</t>
-  </si>
-  <si>
-    <t>wissen (to know) - wusste</t>
-  </si>
-  <si>
-    <t>sehen (to see) - sah</t>
-  </si>
-  <si>
-    <t>lassen (to let/allow) - ließ</t>
-  </si>
-  <si>
-    <t>stehen (to stand) - stand</t>
-  </si>
-  <si>
-    <t>finden (to find) - fand</t>
-  </si>
-  <si>
-    <t>bleiben (to stay) - blieb</t>
-  </si>
-  <si>
-    <t>liegen (to lie) - lag</t>
-  </si>
-  <si>
     <t>sein (to be)</t>
   </si>
   <si>
@@ -343,6 +286,63 @@
   </si>
   <si>
     <t>wollte</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>stayed</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>had to</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>knew</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A7:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:S42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1456,8 @@
     <col min="10" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5546875" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:18" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1829,8 +1830,12 @@
       <c r="J23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
@@ -1850,10 +1855,10 @@
         <v>37</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -1871,13 +1876,13 @@
       <c r="K25" s="15"/>
       <c r="L25" s="10"/>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -1895,13 +1900,13 @@
       <c r="K26" s="15"/>
       <c r="L26" s="10"/>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="R26" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -1919,13 +1924,13 @@
       <c r="K27" s="15"/>
       <c r="L27" s="10"/>
       <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" t="s">
         <v>44</v>
       </c>
-      <c r="R27" t="s">
-        <v>62</v>
-      </c>
       <c r="S27" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -1943,13 +1948,13 @@
       <c r="K28" s="15"/>
       <c r="L28" s="10"/>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -1967,13 +1972,13 @@
       <c r="K29" s="15"/>
       <c r="L29" s="10"/>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="S29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -1991,13 +1996,13 @@
       <c r="K30" s="15"/>
       <c r="L30" s="10"/>
       <c r="Q30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -2015,13 +2020,13 @@
       <c r="K31" s="15"/>
       <c r="L31" s="10"/>
       <c r="Q31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R31" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -2039,13 +2044,13 @@
       <c r="K32" s="15"/>
       <c r="L32" s="10"/>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R32" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,10 +2071,10 @@
         <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
@@ -2087,13 +2092,13 @@
       <c r="K34" s="15"/>
       <c r="L34" s="10"/>
       <c r="Q34" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
@@ -2111,13 +2116,13 @@
       <c r="K35" s="15"/>
       <c r="L35" s="10"/>
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="R35" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
@@ -2135,13 +2140,13 @@
       <c r="K36" s="15"/>
       <c r="L36" s="10"/>
       <c r="Q36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R36" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="S36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -2159,13 +2164,13 @@
       <c r="K37" s="15"/>
       <c r="L37" s="10"/>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="R37" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
@@ -2183,13 +2188,13 @@
       <c r="K38" s="15"/>
       <c r="L38" s="10"/>
       <c r="Q38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="S38" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -2207,13 +2212,13 @@
       <c r="K39" s="15"/>
       <c r="L39" s="10"/>
       <c r="Q39" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="R39" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="S39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -2231,40 +2236,40 @@
       <c r="K40" s="16"/>
       <c r="L40" s="13"/>
       <c r="Q40" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="R40" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="S40" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q41" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q16:Q36">
-    <sortCondition ref="Q16:Q36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S24:S60">
+    <sortCondition ref="S24:S60"/>
   </sortState>
   <conditionalFormatting sqref="B10:L40">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68F6FA-9613-44EC-AD3D-751F83DFB634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C662C3-85DC-459E-9AED-69E8A52BC76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$Q$24:$Q$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>knew</t>
+  </si>
+  <si>
+    <t>Emoji List</t>
+  </si>
+  <si>
+    <t>Excel Drill</t>
   </si>
 </sst>
 </file>
@@ -1442,27 +1448,29 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:S42"/>
+  <dimension ref="A7:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="24.5546875" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" customWidth="1"/>
+    <col min="3" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="24.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:18" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:23" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1476,35 +1484,41 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+      <c r="V9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" cm="1">
         <f t="array" ref="B10:B40">_xlfn.SEQUENCE(31)</f>
         <v>1</v>
@@ -1516,17 +1530,25 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="10"/>
-      <c r="Q10" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="10"/>
+      <c r="R10" t="s">
         <v>32</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" t="str" cm="1">
+        <f t="array" ref="V10:W80">_xlfn.LET(_xlpm.nums,_xlfn.SEQUENCE(70,,128522),_xlfn.VSTACK({"UNICODE value","emoji from UNICHAR"},_xlfn.HSTACK(_xlpm.nums,_xlfn.UNICHAR(_xlpm.nums))))</f>
+        <v>UNICODE value</v>
+      </c>
+      <c r="W10" t="str">
+        <v>emoji from UNICHAR</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1537,17 +1559,24 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="10"/>
-      <c r="Q11" t="s">
+      <c r="L11" s="15"/>
+      <c r="M11" s="10"/>
+      <c r="R11" t="s">
         <v>10</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>128522</v>
+      </c>
+      <c r="W11" t="str">
+        <v>😊</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -1558,17 +1587,24 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="Q12" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="10"/>
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>128523</v>
+      </c>
+      <c r="W12" t="str">
+        <v>😋</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>4</v>
       </c>
@@ -1579,17 +1615,24 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="10"/>
-      <c r="Q13" t="s">
+      <c r="L13" s="15"/>
+      <c r="M13" s="10"/>
+      <c r="R13" t="s">
         <v>14</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>128524</v>
+      </c>
+      <c r="W13" t="str">
+        <v>😌</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>5</v>
       </c>
@@ -1600,17 +1643,24 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="10"/>
-      <c r="Q14" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="10"/>
+      <c r="R14" t="s">
         <v>15</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>128525</v>
+      </c>
+      <c r="W14" t="str">
+        <v>😍</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>6</v>
       </c>
@@ -1621,17 +1671,24 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="10"/>
-      <c r="Q15" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="10"/>
+      <c r="R15" t="s">
         <v>17</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>128526</v>
+      </c>
+      <c r="W15" t="str">
+        <v>😎</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -1642,17 +1699,24 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="10"/>
-      <c r="Q16" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="10"/>
+      <c r="R16" t="s">
         <v>19</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>128527</v>
+      </c>
+      <c r="W16" t="str">
+        <v>😏</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -1663,17 +1727,24 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="10"/>
-      <c r="Q17" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="10"/>
+      <c r="R17" t="s">
         <v>21</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>128528</v>
+      </c>
+      <c r="W17" t="str">
+        <v>😐</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -1684,17 +1755,24 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="10"/>
-      <c r="Q18" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="10"/>
+      <c r="R18" t="s">
         <v>23</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>128529</v>
+      </c>
+      <c r="W18" t="str">
+        <v>😑</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -1705,17 +1783,24 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="10"/>
-      <c r="Q19" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="10"/>
+      <c r="R19" t="s">
         <v>25</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>128530</v>
+      </c>
+      <c r="W19" t="str">
+        <v>😒</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -1726,17 +1811,24 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="10"/>
-      <c r="Q20" t="s">
+      <c r="L20" s="15"/>
+      <c r="M20" s="10"/>
+      <c r="R20" t="s">
         <v>27</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>128531</v>
+      </c>
+      <c r="W20" t="str">
+        <v>😓</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>12</v>
       </c>
@@ -1746,10 +1838,10 @@
       <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
@@ -1759,19 +1851,28 @@
       <c r="I21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="10"/>
-      <c r="Q21" t="s">
+      <c r="J21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="10"/>
+      <c r="R21" t="s">
         <v>29</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>128532</v>
+      </c>
+      <c r="W21" t="str">
+        <v>😔</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>13</v>
       </c>
@@ -1781,10 +1882,10 @@
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
@@ -1794,15 +1895,24 @@
       <c r="I22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22">
+        <v>128533</v>
+      </c>
+      <c r="W22" t="str">
+        <v>😕</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>14</v>
       </c>
@@ -1827,41 +1937,77 @@
       <c r="I23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23">
+        <v>128534</v>
+      </c>
+      <c r="W23" t="str">
+        <v>😖</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>15</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="10"/>
-      <c r="Q24" t="s">
+      <c r="J24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" t="s">
         <v>37</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>38</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>128535</v>
+      </c>
+      <c r="W24" t="str">
+        <v>😗</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>16</v>
       </c>
@@ -1872,20 +2018,27 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="10"/>
-      <c r="Q25" t="s">
+      <c r="L25" s="15"/>
+      <c r="M25" s="10"/>
+      <c r="R25" t="s">
         <v>39</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>40</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>128536</v>
+      </c>
+      <c r="W25" t="str">
+        <v>😘</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>17</v>
       </c>
@@ -1896,20 +2049,27 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="10"/>
-      <c r="Q26" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="10"/>
+      <c r="R26" t="s">
         <v>41</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>42</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>128537</v>
+      </c>
+      <c r="W26" t="str">
+        <v>😙</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -1920,20 +2080,27 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="10"/>
-      <c r="Q27" t="s">
+      <c r="L27" s="15"/>
+      <c r="M27" s="10"/>
+      <c r="R27" t="s">
         <v>43</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>44</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>128538</v>
+      </c>
+      <c r="W27" t="str">
+        <v>😚</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>19</v>
       </c>
@@ -1944,20 +2111,27 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="10"/>
-      <c r="Q28" t="s">
+      <c r="L28" s="15"/>
+      <c r="M28" s="10"/>
+      <c r="R28" t="s">
         <v>45</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>46</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>128539</v>
+      </c>
+      <c r="W28" t="str">
+        <v>😛</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>20</v>
       </c>
@@ -1968,20 +2142,27 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="10"/>
-      <c r="Q29" t="s">
+      <c r="L29" s="15"/>
+      <c r="M29" s="10"/>
+      <c r="R29" t="s">
         <v>47</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>48</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>128540</v>
+      </c>
+      <c r="W29" t="str">
+        <v>😜</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>21</v>
       </c>
@@ -1992,20 +2173,27 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="10"/>
-      <c r="Q30" t="s">
+      <c r="L30" s="15"/>
+      <c r="M30" s="10"/>
+      <c r="R30" t="s">
         <v>49</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>50</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>128541</v>
+      </c>
+      <c r="W30" t="str">
+        <v>😝</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>22</v>
       </c>
@@ -2016,20 +2204,27 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="10"/>
-      <c r="Q31" t="s">
+      <c r="L31" s="15"/>
+      <c r="M31" s="10"/>
+      <c r="R31" t="s">
         <v>51</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>52</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>128542</v>
+      </c>
+      <c r="W31" t="str">
+        <v>😞</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>23</v>
       </c>
@@ -2040,20 +2235,27 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="15"/>
-      <c r="L32" s="10"/>
-      <c r="Q32" t="s">
+      <c r="L32" s="15"/>
+      <c r="M32" s="10"/>
+      <c r="R32" t="s">
         <v>53</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>54</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>128543</v>
+      </c>
+      <c r="W32" t="str">
+        <v>😟</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>24</v>
       </c>
@@ -2064,20 +2266,27 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="10"/>
-      <c r="Q33" t="s">
+      <c r="L33" s="15"/>
+      <c r="M33" s="10"/>
+      <c r="R33" t="s">
         <v>55</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>56</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>128544</v>
+      </c>
+      <c r="W33" t="str">
+        <v>😠</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>25</v>
       </c>
@@ -2088,20 +2297,27 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="10"/>
-      <c r="Q34" t="s">
+      <c r="L34" s="15"/>
+      <c r="M34" s="10"/>
+      <c r="R34" t="s">
         <v>57</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>58</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>128545</v>
+      </c>
+      <c r="W34" t="str">
+        <v>😡</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>26</v>
       </c>
@@ -2112,20 +2328,27 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="15"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="10"/>
-      <c r="Q35" t="s">
+      <c r="L35" s="15"/>
+      <c r="M35" s="10"/>
+      <c r="R35" t="s">
         <v>59</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>60</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>128546</v>
+      </c>
+      <c r="W35" t="str">
+        <v>😢</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>27</v>
       </c>
@@ -2136,20 +2359,27 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="10"/>
-      <c r="Q36" t="s">
+      <c r="L36" s="15"/>
+      <c r="M36" s="10"/>
+      <c r="R36" t="s">
         <v>61</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>62</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>128547</v>
+      </c>
+      <c r="W36" t="str">
+        <v>😣</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>28</v>
       </c>
@@ -2160,20 +2390,27 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="15"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="10"/>
-      <c r="Q37" t="s">
+      <c r="L37" s="15"/>
+      <c r="M37" s="10"/>
+      <c r="R37" t="s">
         <v>63</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>64</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>128548</v>
+      </c>
+      <c r="W37" t="str">
+        <v>😤</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>29</v>
       </c>
@@ -2184,20 +2421,27 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="15"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="10"/>
-      <c r="Q38" t="s">
+      <c r="L38" s="15"/>
+      <c r="M38" s="10"/>
+      <c r="R38" t="s">
         <v>65</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>66</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>128549</v>
+      </c>
+      <c r="W38" t="str">
+        <v>😥</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>30</v>
       </c>
@@ -2208,20 +2452,27 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="15"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="15"/>
-      <c r="L39" s="10"/>
-      <c r="Q39" t="s">
+      <c r="L39" s="15"/>
+      <c r="M39" s="10"/>
+      <c r="R39" t="s">
         <v>67</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>68</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>128550</v>
+      </c>
+      <c r="W39" t="str">
+        <v>😦</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>31</v>
       </c>
@@ -2232,46 +2483,369 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="16"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="13"/>
-      <c r="Q40" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="13"/>
+      <c r="R40" t="s">
         <v>69</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>70</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q41" t="s">
+      <c r="V40">
+        <v>128551</v>
+      </c>
+      <c r="W40" t="str">
+        <v>😧</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
         <v>71</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>72</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q42" t="s">
+      <c r="V41">
+        <v>128552</v>
+      </c>
+      <c r="W41" t="str">
+        <v>😨</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
         <v>73</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>74</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>91</v>
       </c>
+      <c r="V42">
+        <v>128553</v>
+      </c>
+      <c r="W42" t="str">
+        <v>😩</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>128554</v>
+      </c>
+      <c r="W43" t="str">
+        <v>😪</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>128555</v>
+      </c>
+      <c r="W44" t="str">
+        <v>😫</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>128556</v>
+      </c>
+      <c r="W45" t="str">
+        <v>😬</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>128557</v>
+      </c>
+      <c r="W46" t="str">
+        <v>😭</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>128558</v>
+      </c>
+      <c r="W47" t="str">
+        <v>😮</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>128559</v>
+      </c>
+      <c r="W48" t="str">
+        <v>😯</v>
+      </c>
+    </row>
+    <row r="49" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>128560</v>
+      </c>
+      <c r="W49" t="str">
+        <v>😰</v>
+      </c>
+    </row>
+    <row r="50" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>128561</v>
+      </c>
+      <c r="W50" t="str">
+        <v>😱</v>
+      </c>
+    </row>
+    <row r="51" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>128562</v>
+      </c>
+      <c r="W51" t="str">
+        <v>😲</v>
+      </c>
+    </row>
+    <row r="52" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>128563</v>
+      </c>
+      <c r="W52" t="str">
+        <v>😳</v>
+      </c>
+    </row>
+    <row r="53" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>128564</v>
+      </c>
+      <c r="W53" t="str">
+        <v>😴</v>
+      </c>
+    </row>
+    <row r="54" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>128565</v>
+      </c>
+      <c r="W54" t="str">
+        <v>😵</v>
+      </c>
+    </row>
+    <row r="55" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>128566</v>
+      </c>
+      <c r="W55" t="str">
+        <v>😶</v>
+      </c>
+    </row>
+    <row r="56" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>128567</v>
+      </c>
+      <c r="W56" t="str">
+        <v>😷</v>
+      </c>
+    </row>
+    <row r="57" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>128568</v>
+      </c>
+      <c r="W57" t="str">
+        <v>😸</v>
+      </c>
+    </row>
+    <row r="58" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>128569</v>
+      </c>
+      <c r="W58" t="str">
+        <v>😹</v>
+      </c>
+    </row>
+    <row r="59" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>128570</v>
+      </c>
+      <c r="W59" t="str">
+        <v>😺</v>
+      </c>
+    </row>
+    <row r="60" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>128571</v>
+      </c>
+      <c r="W60" t="str">
+        <v>😻</v>
+      </c>
+    </row>
+    <row r="61" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>128572</v>
+      </c>
+      <c r="W61" t="str">
+        <v>😼</v>
+      </c>
+    </row>
+    <row r="62" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>128573</v>
+      </c>
+      <c r="W62" t="str">
+        <v>😽</v>
+      </c>
+    </row>
+    <row r="63" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>128574</v>
+      </c>
+      <c r="W63" t="str">
+        <v>😾</v>
+      </c>
+    </row>
+    <row r="64" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>128575</v>
+      </c>
+      <c r="W64" t="str">
+        <v>😿</v>
+      </c>
+    </row>
+    <row r="65" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>128576</v>
+      </c>
+      <c r="W65" t="str">
+        <v>🙀</v>
+      </c>
+    </row>
+    <row r="66" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>128577</v>
+      </c>
+      <c r="W66" t="str">
+        <v>🙁</v>
+      </c>
+    </row>
+    <row r="67" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>128578</v>
+      </c>
+      <c r="W67" t="str">
+        <v>🙂</v>
+      </c>
+    </row>
+    <row r="68" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>128579</v>
+      </c>
+      <c r="W68" t="str">
+        <v>🙃</v>
+      </c>
+    </row>
+    <row r="69" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>128580</v>
+      </c>
+      <c r="W69" t="str">
+        <v>🙄</v>
+      </c>
+    </row>
+    <row r="70" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>128581</v>
+      </c>
+      <c r="W70" t="str">
+        <v>🙅</v>
+      </c>
+    </row>
+    <row r="71" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>128582</v>
+      </c>
+      <c r="W71" t="str">
+        <v>🙆</v>
+      </c>
+    </row>
+    <row r="72" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>128583</v>
+      </c>
+      <c r="W72" t="str">
+        <v>🙇</v>
+      </c>
+    </row>
+    <row r="73" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>128584</v>
+      </c>
+      <c r="W73" t="str">
+        <v>🙈</v>
+      </c>
+    </row>
+    <row r="74" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>128585</v>
+      </c>
+      <c r="W74" t="str">
+        <v>🙉</v>
+      </c>
+    </row>
+    <row r="75" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>128586</v>
+      </c>
+      <c r="W75" t="str">
+        <v>🙊</v>
+      </c>
+    </row>
+    <row r="76" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>128587</v>
+      </c>
+      <c r="W76" t="str">
+        <v>🙋</v>
+      </c>
+    </row>
+    <row r="77" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>128588</v>
+      </c>
+      <c r="W77" t="str">
+        <v>🙌</v>
+      </c>
+    </row>
+    <row r="78" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>128589</v>
+      </c>
+      <c r="W78" t="str">
+        <v>🙍</v>
+      </c>
+    </row>
+    <row r="79" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>128590</v>
+      </c>
+      <c r="W79" t="str">
+        <v>🙎</v>
+      </c>
+    </row>
+    <row r="80" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>128591</v>
+      </c>
+      <c r="W80" t="str">
+        <v>🙏</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S24:S60">
-    <sortCondition ref="S24:S60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
+    <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:L40">
+  <conditionalFormatting sqref="B10:M40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C662C3-85DC-459E-9AED-69E8A52BC76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8221F6-2A63-460B-B803-194554C00A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -32,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1451,7 +1453,7 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2011,17 +2013,33 @@
       <c r="B25" s="5">
         <v>16</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="15"/>
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="15"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R25" t="s">
         <v>39</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8221F6-2A63-460B-B803-194554C00A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3ADC81-3D13-403A-B1E5-9888B7488EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1452,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A7:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,9 @@
       <c r="H24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2021,9 @@
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -2036,7 +2040,9 @@
       <c r="K25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="M25" s="10" t="s">
         <v>9</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3ADC81-3D13-403A-B1E5-9888B7488EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBD3C1-5F3B-4B6F-AF46-4E343C67A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1452,8 +1452,10 @@
   </sheetPr>
   <dimension ref="A7:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2066,17 +2068,39 @@
       <c r="B26" s="5">
         <v>17</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="10"/>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R26" t="s">
         <v>41</v>
       </c>
@@ -2097,17 +2121,39 @@
       <c r="B27" s="5">
         <v>18</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="10"/>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R27" t="s">
         <v>43</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBD3C1-5F3B-4B6F-AF46-4E343C67A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB07FA-FEDF-46AE-8C39-E59B6D680DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -760,6 +760,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,9 +1456,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2174,17 +2177,39 @@
       <c r="B28" s="5">
         <v>19</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="10"/>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R28" t="s">
         <v>45</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB07FA-FEDF-46AE-8C39-E59B6D680DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CEDF4-CF6F-48AB-9364-CFBAB3850844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -760,9 +760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2177,7 @@
       <c r="C28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2230,17 +2227,37 @@
       <c r="B29" s="5">
         <v>20</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="10"/>
+      <c r="G29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R29" t="s">
         <v>47</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CEDF4-CF6F-48AB-9364-CFBAB3850844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDF63F-221E-43AC-9ADA-963A630463C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1453,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2278,17 +2278,37 @@
       <c r="B30" s="5">
         <v>21</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="10"/>
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R30" t="s">
         <v>49</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFDF63F-221E-43AC-9ADA-963A630463C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D1835-6E2E-4F1E-963A-681F73CEC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1453,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2329,17 +2329,37 @@
       <c r="B31" s="5">
         <v>22</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="10"/>
+      <c r="G31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R31" t="s">
         <v>51</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D1835-6E2E-4F1E-963A-681F73CEC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD278E1-F349-464C-978C-A41554225FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1453,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2380,17 +2380,39 @@
       <c r="B32" s="5">
         <v>23</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="10"/>
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R32" t="s">
         <v>53</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD278E1-F349-464C-978C-A41554225FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7E1EA-9630-4853-B05B-9BABE06FD92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1453,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2433,17 +2433,39 @@
       <c r="B33" s="5">
         <v>24</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="10"/>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R33" t="s">
         <v>55</v>
       </c>
@@ -2464,17 +2486,39 @@
       <c r="B34" s="5">
         <v>25</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="10"/>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R34" t="s">
         <v>57</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7E1EA-9630-4853-B05B-9BABE06FD92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127A9CA-3134-419C-9BF8-A36715CE74FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1455,7 +1455,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2539,17 +2539,39 @@
       <c r="B35" s="5">
         <v>26</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="10"/>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R35" t="s">
         <v>59</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127A9CA-3134-419C-9BF8-A36715CE74FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C447FA-C11A-4780-BC01-AA77EC2A6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -2592,17 +2592,39 @@
       <c r="B36" s="5">
         <v>27</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="10"/>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R36" t="s">
         <v>61</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C447FA-C11A-4780-BC01-AA77EC2A6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC3C74-4CC6-4849-9713-1B3A84743BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1455,7 +1455,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2645,17 +2645,37 @@
       <c r="B37" s="5">
         <v>28</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="10"/>
+      <c r="G37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R37" t="s">
         <v>63</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC3C74-4CC6-4849-9713-1B3A84743BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D556206-DE44-4714-A303-BA6C54788EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -1453,9 +1453,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2696,17 +2696,37 @@
       <c r="B38" s="5">
         <v>29</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="10"/>
+      <c r="G38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R38" t="s">
         <v>65</v>
       </c>
@@ -2727,17 +2747,37 @@
       <c r="B39" s="5">
         <v>30</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="10"/>
+      <c r="G39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="R39" t="s">
         <v>67</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D556206-DE44-4714-A303-BA6C54788EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A304430-17DC-4EC2-B599-564873D0DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="97">
   <si>
     <t>Day</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Excel Drill</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -1453,9 +1456,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2798,17 +2801,39 @@
       <c r="B40" s="6">
         <v>31</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="R40" t="s">
         <v>69</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A304430-17DC-4EC2-B599-564873D0DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825051CF-B065-4C24-AD28-09E366A66FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
   <si>
     <t>Day</t>
   </si>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -733,8 +733,6 @@
     <xf numFmtId="164" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,6 +763,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -781,7 +788,14 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1021,27 +1035,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
+      <tableStyleElement type="pageFieldValues" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1456,9 +1470,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1495,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1508,10 +1522,10 @@
       <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1526,21 +1540,21 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" cm="1">
-        <f t="array" ref="B10:B40">_xlfn.SEQUENCE(31)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="15" t="str" cm="1">
+        <f t="array" ref="B10:B68">TEXT(DATE(2025,1,_xlfn.SEQUENCE(31+28)),"dd-mmm")</f>
+        <v>01-Jan</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="8"/>
       <c r="R10" t="s">
         <v>32</v>
       </c>
@@ -1556,20 +1570,20 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="16" t="str">
+        <v>02-Jan</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="8"/>
       <c r="R11" t="s">
         <v>10</v>
       </c>
@@ -1584,20 +1598,20 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="16" t="str">
+        <v>03-Jan</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="8"/>
       <c r="R12" t="s">
         <v>12</v>
       </c>
@@ -1612,20 +1626,20 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="16" t="str">
+        <v>04-Jan</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="8"/>
       <c r="R13" t="s">
         <v>14</v>
       </c>
@@ -1640,20 +1654,20 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="16" t="str">
+        <v>05-Jan</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="8"/>
       <c r="R14" t="s">
         <v>15</v>
       </c>
@@ -1668,20 +1682,20 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="16" t="str">
+        <v>06-Jan</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="8"/>
       <c r="R15" t="s">
         <v>17</v>
       </c>
@@ -1696,20 +1710,20 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="16" t="str">
+        <v>07-Jan</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="8"/>
       <c r="R16" t="s">
         <v>19</v>
       </c>
@@ -1724,20 +1738,20 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="16" t="str">
+        <v>08-Jan</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="8"/>
       <c r="R17" t="s">
         <v>21</v>
       </c>
@@ -1752,20 +1766,20 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="16" t="str">
+        <v>09-Jan</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="8"/>
       <c r="R18" t="s">
         <v>23</v>
       </c>
@@ -1780,20 +1794,20 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="16" t="str">
+        <v>10-Jan</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="8"/>
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1808,20 +1822,20 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="16" t="str">
+        <v>11-Jan</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="8"/>
       <c r="R20" t="s">
         <v>27</v>
       </c>
@@ -1836,36 +1850,36 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="16" t="str">
+        <v>12-Jan</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="8"/>
       <c r="R21" t="s">
         <v>29</v>
       </c>
@@ -1880,36 +1894,36 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="10" t="s">
+      <c r="B22" s="16" t="str">
+        <v>13-Jan</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="V22">
@@ -1920,40 +1934,40 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <v>14</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="10" t="s">
+      <c r="B23" s="16" t="str">
+        <v>14-Jan</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="V23">
@@ -1964,40 +1978,40 @@
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <v>15</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="10" t="s">
+      <c r="B24" s="16" t="str">
+        <v>15-Jan</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R24" t="s">
@@ -2017,38 +2031,38 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>16</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="B25" s="16" t="str">
+        <v>16-Jan</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R25" t="s">
@@ -2068,40 +2082,40 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="10" t="s">
+      <c r="B26" s="16" t="str">
+        <v>17-Jan</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R26" t="s">
@@ -2121,40 +2135,40 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="B27" s="16" t="str">
+        <v>18-Jan</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R27" t="s">
@@ -2174,40 +2188,40 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>19</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="10" t="s">
+      <c r="B28" s="16" t="str">
+        <v>19-Jan</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R28" t="s">
@@ -2227,38 +2241,38 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <v>20</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="10" t="s">
+      <c r="B29" s="16" t="str">
+        <v>20-Jan</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R29" t="s">
@@ -2278,38 +2292,38 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <v>21</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="10" t="s">
+      <c r="B30" s="16" t="str">
+        <v>21-Jan</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R30" t="s">
@@ -2329,38 +2343,38 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>22</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="10" t="s">
+      <c r="B31" s="16" t="str">
+        <v>22-Jan</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R31" t="s">
@@ -2380,40 +2394,40 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>23</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="10" t="s">
+      <c r="B32" s="16" t="str">
+        <v>23-Jan</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R32" t="s">
@@ -2433,40 +2447,40 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <v>24</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="10" t="s">
+      <c r="B33" s="16" t="str">
+        <v>24-Jan</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R33" t="s">
@@ -2486,40 +2500,40 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
-        <v>25</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="10" t="s">
+      <c r="B34" s="16" t="str">
+        <v>25-Jan</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R34" t="s">
@@ -2539,40 +2553,40 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
-        <v>26</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="10" t="s">
+      <c r="B35" s="16" t="str">
+        <v>26-Jan</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R35" t="s">
@@ -2592,40 +2606,40 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
-        <v>27</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="10" t="s">
+      <c r="B36" s="16" t="str">
+        <v>27-Jan</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R36" t="s">
@@ -2645,38 +2659,38 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
-        <v>28</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="10" t="s">
+      <c r="B37" s="16" t="str">
+        <v>28-Jan</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R37" t="s">
@@ -2696,38 +2710,38 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
-        <v>29</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="10" t="s">
+      <c r="B38" s="16" t="str">
+        <v>29-Jan</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R38" t="s">
@@ -2747,38 +2761,38 @@
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <v>30</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="10" t="s">
+      <c r="B39" s="16" t="str">
+        <v>30-Jan</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="R39" t="s">
@@ -2798,40 +2812,40 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
-        <v>31</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="B40" s="17" t="str">
+        <v>31-Jan</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="13" t="s">
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="R40" t="s">
@@ -2851,6 +2865,42 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="str">
+        <v>01-Feb</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="R41" t="s">
         <v>71</v>
       </c>
@@ -2868,6 +2918,20 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="str">
+        <v>02-Feb</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="8"/>
       <c r="R42" t="s">
         <v>73</v>
       </c>
@@ -2885,6 +2949,20 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="str">
+        <v>03-Feb</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="8"/>
       <c r="V43">
         <v>128554</v>
       </c>
@@ -2893,6 +2971,20 @@
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="str">
+        <v>04-Feb</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="8"/>
       <c r="V44">
         <v>128555</v>
       </c>
@@ -2901,6 +2993,20 @@
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="str">
+        <v>05-Feb</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="8"/>
       <c r="V45">
         <v>128556</v>
       </c>
@@ -2909,6 +3015,20 @@
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="str">
+        <v>06-Feb</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="8"/>
       <c r="V46">
         <v>128557</v>
       </c>
@@ -2917,6 +3037,20 @@
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="str">
+        <v>07-Feb</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="8"/>
       <c r="V47">
         <v>128558</v>
       </c>
@@ -2925,6 +3059,20 @@
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="str">
+        <v>08-Feb</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="8"/>
       <c r="V48">
         <v>128559</v>
       </c>
@@ -2932,7 +3080,21 @@
         <v>😯</v>
       </c>
     </row>
-    <row r="49" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="str">
+        <v>09-Feb</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="8"/>
       <c r="V49">
         <v>128560</v>
       </c>
@@ -2940,7 +3102,21 @@
         <v>😰</v>
       </c>
     </row>
-    <row r="50" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="str">
+        <v>10-Feb</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="8"/>
       <c r="V50">
         <v>128561</v>
       </c>
@@ -2948,7 +3124,21 @@
         <v>😱</v>
       </c>
     </row>
-    <row r="51" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="str">
+        <v>11-Feb</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="8"/>
       <c r="V51">
         <v>128562</v>
       </c>
@@ -2956,7 +3146,21 @@
         <v>😲</v>
       </c>
     </row>
-    <row r="52" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="str">
+        <v>12-Feb</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="8"/>
       <c r="V52">
         <v>128563</v>
       </c>
@@ -2964,7 +3168,21 @@
         <v>😳</v>
       </c>
     </row>
-    <row r="53" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="str">
+        <v>13-Feb</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="8"/>
       <c r="V53">
         <v>128564</v>
       </c>
@@ -2972,7 +3190,21 @@
         <v>😴</v>
       </c>
     </row>
-    <row r="54" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="str">
+        <v>14-Feb</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="8"/>
       <c r="V54">
         <v>128565</v>
       </c>
@@ -2980,7 +3212,21 @@
         <v>😵</v>
       </c>
     </row>
-    <row r="55" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="str">
+        <v>15-Feb</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="8"/>
       <c r="V55">
         <v>128566</v>
       </c>
@@ -2988,7 +3234,21 @@
         <v>😶</v>
       </c>
     </row>
-    <row r="56" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="str">
+        <v>16-Feb</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="8"/>
       <c r="V56">
         <v>128567</v>
       </c>
@@ -2996,7 +3256,21 @@
         <v>😷</v>
       </c>
     </row>
-    <row r="57" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="16" t="str">
+        <v>17-Feb</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="8"/>
       <c r="V57">
         <v>128568</v>
       </c>
@@ -3004,7 +3278,21 @@
         <v>😸</v>
       </c>
     </row>
-    <row r="58" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="str">
+        <v>18-Feb</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="8"/>
       <c r="V58">
         <v>128569</v>
       </c>
@@ -3012,7 +3300,21 @@
         <v>😹</v>
       </c>
     </row>
-    <row r="59" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="str">
+        <v>19-Feb</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="8"/>
       <c r="V59">
         <v>128570</v>
       </c>
@@ -3020,7 +3322,21 @@
         <v>😺</v>
       </c>
     </row>
-    <row r="60" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="str">
+        <v>20-Feb</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="8"/>
       <c r="V60">
         <v>128571</v>
       </c>
@@ -3028,7 +3344,21 @@
         <v>😻</v>
       </c>
     </row>
-    <row r="61" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="str">
+        <v>21-Feb</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="8"/>
       <c r="V61">
         <v>128572</v>
       </c>
@@ -3036,7 +3366,21 @@
         <v>😼</v>
       </c>
     </row>
-    <row r="62" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="str">
+        <v>22-Feb</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="8"/>
       <c r="V62">
         <v>128573</v>
       </c>
@@ -3044,7 +3388,21 @@
         <v>😽</v>
       </c>
     </row>
-    <row r="63" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="str">
+        <v>23-Feb</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="8"/>
       <c r="V63">
         <v>128574</v>
       </c>
@@ -3052,7 +3410,21 @@
         <v>😾</v>
       </c>
     </row>
-    <row r="64" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="str">
+        <v>24-Feb</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="8"/>
       <c r="V64">
         <v>128575</v>
       </c>
@@ -3060,7 +3432,21 @@
         <v>😿</v>
       </c>
     </row>
-    <row r="65" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="str">
+        <v>25-Feb</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="8"/>
       <c r="V65">
         <v>128576</v>
       </c>
@@ -3068,7 +3454,21 @@
         <v>🙀</v>
       </c>
     </row>
-    <row r="66" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="str">
+        <v>26-Feb</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="8"/>
       <c r="V66">
         <v>128577</v>
       </c>
@@ -3076,7 +3476,21 @@
         <v>🙁</v>
       </c>
     </row>
-    <row r="67" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="str">
+        <v>27-Feb</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="8"/>
       <c r="V67">
         <v>128578</v>
       </c>
@@ -3084,7 +3498,21 @@
         <v>🙂</v>
       </c>
     </row>
-    <row r="68" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="17" t="str">
+        <v>28-Feb</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="11"/>
       <c r="V68">
         <v>128579</v>
       </c>
@@ -3092,7 +3520,7 @@
         <v>🙃</v>
       </c>
     </row>
-    <row r="69" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V69">
         <v>128580</v>
       </c>
@@ -3100,7 +3528,7 @@
         <v>🙄</v>
       </c>
     </row>
-    <row r="70" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V70">
         <v>128581</v>
       </c>
@@ -3108,7 +3536,7 @@
         <v>🙅</v>
       </c>
     </row>
-    <row r="71" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V71">
         <v>128582</v>
       </c>
@@ -3116,7 +3544,7 @@
         <v>🙆</v>
       </c>
     </row>
-    <row r="72" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V72">
         <v>128583</v>
       </c>
@@ -3124,7 +3552,7 @@
         <v>🙇</v>
       </c>
     </row>
-    <row r="73" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V73">
         <v>128584</v>
       </c>
@@ -3132,7 +3560,7 @@
         <v>🙈</v>
       </c>
     </row>
-    <row r="74" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V74">
         <v>128585</v>
       </c>
@@ -3140,7 +3568,7 @@
         <v>🙉</v>
       </c>
     </row>
-    <row r="75" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V75">
         <v>128586</v>
       </c>
@@ -3148,7 +3576,7 @@
         <v>🙊</v>
       </c>
     </row>
-    <row r="76" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V76">
         <v>128587</v>
       </c>
@@ -3156,7 +3584,7 @@
         <v>🙋</v>
       </c>
     </row>
-    <row r="77" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V77">
         <v>128588</v>
       </c>
@@ -3164,7 +3592,7 @@
         <v>🙌</v>
       </c>
     </row>
-    <row r="78" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V78">
         <v>128589</v>
       </c>
@@ -3172,7 +3600,7 @@
         <v>🙍</v>
       </c>
     </row>
-    <row r="79" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V79">
         <v>128590</v>
       </c>
@@ -3180,7 +3608,7 @@
         <v>🙎</v>
       </c>
     </row>
-    <row r="80" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V80">
         <v>128591</v>
       </c>
@@ -3193,8 +3621,13 @@
     <sortCondition ref="T24:T60"/>
   </sortState>
   <conditionalFormatting sqref="B10:M40">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:M68">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
+      <formula>MOD(ROW(B41)-ROW($B$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825051CF-B065-4C24-AD28-09E366A66FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0ED3A9-BFB9-4372-9A8D-4F75C709B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -354,6 +355,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Udemy Options</t>
+  </si>
+  <si>
+    <t>dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -788,14 +795,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1035,27 +1035,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
-      <tableStyleElement type="pageFieldValues" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1470,9 +1470,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2921,17 +2921,39 @@
       <c r="B42" s="16" t="str">
         <v>02-Feb</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="8"/>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="R42" t="s">
         <v>73</v>
       </c>
@@ -3620,18 +3642,38 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:M40">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B10:M68">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:M68">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(B41)-ROW($B$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0ED3A9-BFB9-4372-9A8D-4F75C709B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65523E7A-C388-46A3-93FC-621870ACEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1470,9 +1470,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2974,17 +2974,36 @@
       <c r="B43" s="16" t="str">
         <v>03-Feb</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="8"/>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V43">
         <v>128554</v>
       </c>
@@ -3642,7 +3661,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:M68">
+  <conditionalFormatting sqref="B10:M42 B43:E43 G43:M43 B44:M68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65523E7A-C388-46A3-93FC-621870ACEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EBE0B3-110D-4972-AF27-EEC4CF228BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3015,17 +3015,37 @@
       <c r="B44" s="16" t="str">
         <v>04-Feb</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="8"/>
+      <c r="G44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V44">
         <v>128555</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EBE0B3-110D-4972-AF27-EEC4CF228BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCD50E-D5D8-4BB2-8150-4B509D900470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44:M44"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3057,17 +3057,39 @@
       <c r="B45" s="16" t="str">
         <v>05-Feb</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="8"/>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V45">
         <v>128556</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCD50E-D5D8-4BB2-8150-4B509D900470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17EAEC-7F4B-4CF7-B607-DF0C992012C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3066,9 +3066,7 @@
       <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
         <v>9</v>
       </c>
@@ -3101,17 +3099,35 @@
       <c r="B46" s="16" t="str">
         <v>06-Feb</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="8"/>
+      <c r="G46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V46">
         <v>128557</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28604"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17EAEC-7F4B-4CF7-B607-DF0C992012C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BA1B2-FB59-4497-B6C0-8A7EEE04C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3105,7 +3105,9 @@
       <c r="D46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
         <v>9</v>
@@ -3139,17 +3141,37 @@
       <c r="B47" s="16" t="str">
         <v>07-Feb</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="8"/>
+      <c r="G47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V47">
         <v>128558</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BA1B2-FB59-4497-B6C0-8A7EEE04C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B18BF-43E4-46BD-BEB7-3FB184F80567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1470,7 +1470,7 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
@@ -3183,17 +3183,39 @@
       <c r="B48" s="16" t="str">
         <v>08-Feb</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="8"/>
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V48">
         <v>128559</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B18BF-43E4-46BD-BEB7-3FB184F80567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E933519-79DA-4C8F-8945-E06DAF2A85FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3227,17 +3227,37 @@
       <c r="B49" s="16" t="str">
         <v>09-Feb</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="8"/>
+      <c r="G49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V49">
         <v>128560</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E933519-79DA-4C8F-8945-E06DAF2A85FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCFE964-AB0F-4E31-AF06-0127D0333636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1472,7 +1472,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3269,17 +3269,33 @@
       <c r="B50" s="16" t="str">
         <v>10-Feb</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="C50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="8"/>
+      <c r="L50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V50">
         <v>128561</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCFE964-AB0F-4E31-AF06-0127D0333636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA2AB1-B322-4F0B-A198-F043A28450EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="99">
   <si>
     <t>Day</t>
   </si>
@@ -1470,9 +1470,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3288,8 +3288,12 @@
       <c r="I50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="L50" s="13" t="s">
         <v>9</v>
       </c>
@@ -3307,17 +3311,39 @@
       <c r="B51" s="16" t="str">
         <v>11-Feb</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="8"/>
+      <c r="C51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="V51">
         <v>128562</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEA2AB1-B322-4F0B-A198-F043A28450EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E22FAC-FAA1-430E-9FED-A9439E480309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="100">
   <si>
     <t>Day</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>dynamic programming</t>
+  </si>
+  <si>
+    <t>Figma</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -544,17 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -572,19 +564,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -613,21 +592,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -710,6 +674,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -726,21 +747,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,29 +773,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1470,9 +1499,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1482,8 +1511,7 @@
     <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="8" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="3.33203125" customWidth="1"/>
     <col min="18" max="18" width="19.109375" customWidth="1"/>
     <col min="19" max="19" width="24.5546875" customWidth="1"/>
     <col min="20" max="20" width="18.21875" customWidth="1"/>
@@ -1495,7 +1523,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1522,16 +1550,18 @@
       <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1540,21 +1570,22 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="str" cm="1">
+      <c r="B10" s="12" t="str" cm="1">
         <f t="array" ref="B10:B68">TEXT(DATE(2025,1,_xlfn.SEQUENCE(31+28)),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
       <c r="R10" t="s">
         <v>32</v>
       </c>
@@ -1570,20 +1601,21 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="13" t="str">
         <v>02-Jan</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="19"/>
       <c r="R11" t="s">
         <v>10</v>
       </c>
@@ -1598,20 +1630,21 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="13" t="str">
         <v>03-Jan</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="19"/>
       <c r="R12" t="s">
         <v>12</v>
       </c>
@@ -1626,20 +1659,21 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="13" t="str">
         <v>04-Jan</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="19"/>
       <c r="R13" t="s">
         <v>14</v>
       </c>
@@ -1654,20 +1688,21 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="13" t="str">
         <v>05-Jan</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="19"/>
       <c r="R14" t="s">
         <v>15</v>
       </c>
@@ -1682,20 +1717,21 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="13" t="str">
         <v>06-Jan</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="19"/>
       <c r="R15" t="s">
         <v>17</v>
       </c>
@@ -1710,20 +1746,21 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="13" t="str">
         <v>07-Jan</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="19"/>
       <c r="R16" t="s">
         <v>19</v>
       </c>
@@ -1738,20 +1775,21 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="13" t="str">
         <v>08-Jan</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="19"/>
       <c r="R17" t="s">
         <v>21</v>
       </c>
@@ -1766,20 +1804,21 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="13" t="str">
         <v>09-Jan</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="19"/>
       <c r="R18" t="s">
         <v>23</v>
       </c>
@@ -1794,20 +1833,21 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="13" t="str">
         <v>10-Jan</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="19"/>
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1822,20 +1862,21 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="13" t="str">
         <v>11-Jan</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="19"/>
       <c r="R20" t="s">
         <v>27</v>
       </c>
@@ -1850,36 +1891,37 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="13" t="str">
         <v>12-Jan</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="19"/>
       <c r="R21" t="s">
         <v>29</v>
       </c>
@@ -1894,38 +1936,39 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="13" t="str">
         <v>13-Jan</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="19"/>
       <c r="V22">
         <v>128533</v>
       </c>
@@ -1934,42 +1977,43 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="13" t="str">
         <v>14-Jan</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="19"/>
       <c r="V23">
         <v>128534</v>
       </c>
@@ -1978,42 +2022,43 @@
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="13" t="str">
         <v>15-Jan</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="19"/>
       <c r="R24" t="s">
         <v>37</v>
       </c>
@@ -2031,40 +2076,41 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="13" t="str">
         <v>16-Jan</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="19"/>
       <c r="R25" t="s">
         <v>39</v>
       </c>
@@ -2082,42 +2128,43 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="13" t="str">
         <v>17-Jan</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="19"/>
       <c r="R26" t="s">
         <v>41</v>
       </c>
@@ -2135,42 +2182,43 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="13" t="str">
         <v>18-Jan</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="19"/>
       <c r="R27" t="s">
         <v>43</v>
       </c>
@@ -2188,42 +2236,43 @@
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="13" t="str">
         <v>19-Jan</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="19"/>
       <c r="R28" t="s">
         <v>45</v>
       </c>
@@ -2241,40 +2290,41 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="13" t="str">
         <v>20-Jan</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="19"/>
       <c r="R29" t="s">
         <v>47</v>
       </c>
@@ -2292,40 +2342,41 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="13" t="str">
         <v>21-Jan</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="19"/>
       <c r="R30" t="s">
         <v>49</v>
       </c>
@@ -2343,40 +2394,41 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="13" t="str">
         <v>22-Jan</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="19"/>
       <c r="R31" t="s">
         <v>51</v>
       </c>
@@ -2394,42 +2446,43 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="13" t="str">
         <v>23-Jan</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="19"/>
       <c r="R32" t="s">
         <v>53</v>
       </c>
@@ -2447,42 +2500,43 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="str">
+      <c r="B33" s="13" t="str">
         <v>24-Jan</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="19"/>
       <c r="R33" t="s">
         <v>55</v>
       </c>
@@ -2500,42 +2554,43 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="13" t="str">
         <v>25-Jan</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="19"/>
       <c r="R34" t="s">
         <v>57</v>
       </c>
@@ -2553,42 +2608,43 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="13" t="str">
         <v>26-Jan</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="19"/>
       <c r="R35" t="s">
         <v>59</v>
       </c>
@@ -2606,42 +2662,43 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="13" t="str">
         <v>27-Jan</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="19"/>
       <c r="R36" t="s">
         <v>61</v>
       </c>
@@ -2659,40 +2716,41 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="13" t="str">
         <v>28-Jan</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="19"/>
       <c r="R37" t="s">
         <v>63</v>
       </c>
@@ -2710,40 +2768,41 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="13" t="str">
         <v>29-Jan</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="19"/>
       <c r="R38" t="s">
         <v>65</v>
       </c>
@@ -2761,40 +2820,41 @@
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="13" t="str">
         <v>30-Jan</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="19"/>
       <c r="R39" t="s">
         <v>67</v>
       </c>
@@ -2812,42 +2872,43 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="14" t="str">
         <v>31-Jan</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="E40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="19"/>
       <c r="R40" t="s">
         <v>69</v>
       </c>
@@ -2865,42 +2926,43 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="13" t="str">
         <v>01-Feb</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="19"/>
       <c r="R41" t="s">
         <v>71</v>
       </c>
@@ -2918,42 +2980,43 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="13" t="str">
         <v>02-Feb</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="19"/>
       <c r="R42" t="s">
         <v>73</v>
       </c>
@@ -2971,39 +3034,41 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="str">
+      <c r="B43" s="13" t="str">
         <v>03-Feb</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="19"/>
       <c r="V43">
         <v>128554</v>
       </c>
@@ -3012,40 +3077,41 @@
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="str">
+      <c r="B44" s="13" t="str">
         <v>04-Feb</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" s="19"/>
       <c r="V44">
         <v>128555</v>
       </c>
@@ -3054,40 +3120,41 @@
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="str">
+      <c r="B45" s="13" t="str">
         <v>05-Feb</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="19"/>
       <c r="V45">
         <v>128556</v>
       </c>
@@ -3096,40 +3163,41 @@
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="str">
+      <c r="B46" s="13" t="str">
         <v>06-Feb</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="19"/>
       <c r="V46">
         <v>128557</v>
       </c>
@@ -3138,40 +3206,41 @@
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="str">
+      <c r="B47" s="13" t="str">
         <v>07-Feb</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="19"/>
       <c r="V47">
         <v>128558</v>
       </c>
@@ -3180,42 +3249,43 @@
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="str">
+      <c r="B48" s="13" t="str">
         <v>08-Feb</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="19"/>
       <c r="V48">
         <v>128559</v>
       </c>
@@ -3224,40 +3294,41 @@
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="str">
+      <c r="B49" s="13" t="str">
         <v>09-Feb</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" s="19"/>
       <c r="V49">
         <v>128560</v>
       </c>
@@ -3266,40 +3337,41 @@
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="str">
+      <c r="B50" s="13" t="str">
         <v>10-Feb</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="19"/>
       <c r="V50">
         <v>128561</v>
       </c>
@@ -3308,42 +3380,43 @@
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="str">
+      <c r="B51" s="13" t="str">
         <v>11-Feb</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="19"/>
       <c r="V51">
         <v>128562</v>
       </c>
@@ -3352,20 +3425,45 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="str">
+      <c r="B52" s="13" t="str">
         <v>12-Feb</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="V52">
         <v>128563</v>
       </c>
@@ -3374,20 +3472,21 @@
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="str">
+      <c r="B53" s="13" t="str">
         <v>13-Feb</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="15"/>
       <c r="V53">
         <v>128564</v>
       </c>
@@ -3396,20 +3495,21 @@
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="str">
+      <c r="B54" s="13" t="str">
         <v>14-Feb</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="15"/>
       <c r="V54">
         <v>128565</v>
       </c>
@@ -3418,20 +3518,21 @@
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="str">
+      <c r="B55" s="13" t="str">
         <v>15-Feb</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="8"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="15"/>
       <c r="V55">
         <v>128566</v>
       </c>
@@ -3440,20 +3541,21 @@
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="str">
+      <c r="B56" s="13" t="str">
         <v>16-Feb</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="15"/>
       <c r="V56">
         <v>128567</v>
       </c>
@@ -3462,20 +3564,21 @@
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="str">
+      <c r="B57" s="13" t="str">
         <v>17-Feb</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="15"/>
       <c r="V57">
         <v>128568</v>
       </c>
@@ -3484,20 +3587,21 @@
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="str">
+      <c r="B58" s="13" t="str">
         <v>18-Feb</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="8"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="15"/>
       <c r="V58">
         <v>128569</v>
       </c>
@@ -3506,20 +3610,21 @@
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="str">
+      <c r="B59" s="13" t="str">
         <v>19-Feb</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="8"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="15"/>
       <c r="V59">
         <v>128570</v>
       </c>
@@ -3528,20 +3633,21 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="str">
+      <c r="B60" s="13" t="str">
         <v>20-Feb</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="8"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="15"/>
       <c r="V60">
         <v>128571</v>
       </c>
@@ -3550,20 +3656,21 @@
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="str">
+      <c r="B61" s="13" t="str">
         <v>21-Feb</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="15"/>
       <c r="V61">
         <v>128572</v>
       </c>
@@ -3572,20 +3679,21 @@
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="str">
+      <c r="B62" s="13" t="str">
         <v>22-Feb</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="8"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="15"/>
       <c r="V62">
         <v>128573</v>
       </c>
@@ -3594,20 +3702,21 @@
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="str">
+      <c r="B63" s="13" t="str">
         <v>23-Feb</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="8"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="15"/>
       <c r="V63">
         <v>128574</v>
       </c>
@@ -3616,20 +3725,21 @@
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="str">
+      <c r="B64" s="13" t="str">
         <v>24-Feb</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="8"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="15"/>
       <c r="V64">
         <v>128575</v>
       </c>
@@ -3638,20 +3748,21 @@
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="str">
+      <c r="B65" s="13" t="str">
         <v>25-Feb</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="8"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="15"/>
       <c r="V65">
         <v>128576</v>
       </c>
@@ -3660,20 +3771,21 @@
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="str">
+      <c r="B66" s="13" t="str">
         <v>26-Feb</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="8"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="15"/>
       <c r="V66">
         <v>128577</v>
       </c>
@@ -3682,20 +3794,21 @@
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="str">
+      <c r="B67" s="13" t="str">
         <v>27-Feb</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="8"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="15"/>
       <c r="V67">
         <v>128578</v>
       </c>
@@ -3704,20 +3817,21 @@
       </c>
     </row>
     <row r="68" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="17" t="str">
+      <c r="B68" s="14" t="str">
         <v>28-Feb</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="11"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="16"/>
       <c r="V68">
         <v>128579</v>
       </c>
@@ -3825,13 +3939,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:M42 B43:E43 G43:M43 B44:M68">
+  <conditionalFormatting sqref="B44:N68">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
+      <formula>MOD(ROW(B44)-ROW($B$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E22FAC-FAA1-430E-9FED-A9439E480309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76045FF-4014-48DE-8171-7C9E36A58CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="100">
   <si>
     <t>Day</t>
   </si>
@@ -747,7 +747,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -791,8 +791,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -807,6 +805,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1499,9 +1500,9 @@
   <dimension ref="A7:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1512,8 @@
     <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="8" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="3.33203125" customWidth="1"/>
+    <col min="11" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="16" customWidth="1"/>
     <col min="18" max="18" width="19.109375" customWidth="1"/>
     <col min="19" max="19" width="24.5546875" customWidth="1"/>
     <col min="20" max="20" width="18.21875" customWidth="1"/>
@@ -1559,7 +1561,7 @@
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="15" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1"/>
@@ -1584,8 +1586,8 @@
       <c r="J10" s="6"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
       <c r="R10" t="s">
         <v>32</v>
       </c>
@@ -1615,7 +1617,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="17"/>
       <c r="R11" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1646,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="17"/>
       <c r="R12" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="17"/>
       <c r="R13" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1704,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="17"/>
       <c r="R14" t="s">
         <v>15</v>
       </c>
@@ -1731,7 +1733,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="17"/>
       <c r="R15" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1762,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="19"/>
+      <c r="N16" s="17"/>
       <c r="R16" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1791,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="19"/>
+      <c r="N17" s="17"/>
       <c r="R17" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1820,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="19"/>
+      <c r="N18" s="17"/>
       <c r="R18" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1849,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="19"/>
+      <c r="N19" s="17"/>
       <c r="R19" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1878,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="19"/>
+      <c r="N20" s="17"/>
       <c r="R20" t="s">
         <v>27</v>
       </c>
@@ -1921,7 +1923,7 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="17"/>
       <c r="R21" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1970,7 @@
       <c r="M22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="19"/>
+      <c r="N22" s="17"/>
       <c r="V22">
         <v>128533</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="M23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="19"/>
+      <c r="N23" s="17"/>
       <c r="V23">
         <v>128534</v>
       </c>
@@ -2058,7 +2060,7 @@
       <c r="M24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="19"/>
+      <c r="N24" s="17"/>
       <c r="R24" t="s">
         <v>37</v>
       </c>
@@ -2110,7 +2112,7 @@
       <c r="M25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="19"/>
+      <c r="N25" s="17"/>
       <c r="R25" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2166,7 @@
       <c r="M26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="19"/>
+      <c r="N26" s="17"/>
       <c r="R26" t="s">
         <v>41</v>
       </c>
@@ -2218,7 +2220,7 @@
       <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="19"/>
+      <c r="N27" s="17"/>
       <c r="R27" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2274,7 @@
       <c r="M28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="19"/>
+      <c r="N28" s="17"/>
       <c r="R28" t="s">
         <v>45</v>
       </c>
@@ -2324,7 +2326,7 @@
       <c r="M29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="19"/>
+      <c r="N29" s="17"/>
       <c r="R29" t="s">
         <v>47</v>
       </c>
@@ -2376,7 +2378,7 @@
       <c r="M30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="19"/>
+      <c r="N30" s="17"/>
       <c r="R30" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2430,7 @@
       <c r="M31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="17"/>
       <c r="R31" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2484,7 @@
       <c r="M32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="19"/>
+      <c r="N32" s="17"/>
       <c r="R32" t="s">
         <v>53</v>
       </c>
@@ -2536,7 +2538,7 @@
       <c r="M33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="19"/>
+      <c r="N33" s="17"/>
       <c r="R33" t="s">
         <v>55</v>
       </c>
@@ -2590,7 +2592,7 @@
       <c r="M34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="19"/>
+      <c r="N34" s="17"/>
       <c r="R34" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2646,7 @@
       <c r="M35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="17"/>
       <c r="R35" t="s">
         <v>59</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="M36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="17"/>
       <c r="R36" t="s">
         <v>61</v>
       </c>
@@ -2750,7 +2752,7 @@
       <c r="M37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="19"/>
+      <c r="N37" s="17"/>
       <c r="R37" t="s">
         <v>63</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="M38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="19"/>
+      <c r="N38" s="17"/>
       <c r="R38" t="s">
         <v>65</v>
       </c>
@@ -2854,7 +2856,7 @@
       <c r="M39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="19"/>
+      <c r="N39" s="17"/>
       <c r="R39" t="s">
         <v>67</v>
       </c>
@@ -2908,7 +2910,7 @@
       <c r="M40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="19"/>
+      <c r="N40" s="17"/>
       <c r="R40" t="s">
         <v>69</v>
       </c>
@@ -2962,7 +2964,7 @@
       <c r="M41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N41" s="19"/>
+      <c r="N41" s="17"/>
       <c r="R41" t="s">
         <v>71</v>
       </c>
@@ -3016,7 +3018,7 @@
       <c r="M42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="19"/>
+      <c r="N42" s="17"/>
       <c r="R42" t="s">
         <v>73</v>
       </c>
@@ -3046,7 +3048,7 @@
       <c r="E43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="6" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3070,7 @@
       <c r="M43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N43" s="19"/>
+      <c r="N43" s="17"/>
       <c r="V43">
         <v>128554</v>
       </c>
@@ -3111,7 +3113,7 @@
       <c r="M44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="19"/>
+      <c r="N44" s="17"/>
       <c r="V44">
         <v>128555</v>
       </c>
@@ -3154,7 +3156,7 @@
       <c r="M45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="19"/>
+      <c r="N45" s="17"/>
       <c r="V45">
         <v>128556</v>
       </c>
@@ -3197,7 +3199,7 @@
       <c r="M46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="19"/>
+      <c r="N46" s="17"/>
       <c r="V46">
         <v>128557</v>
       </c>
@@ -3240,7 +3242,7 @@
       <c r="M47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N47" s="19"/>
+      <c r="N47" s="17"/>
       <c r="V47">
         <v>128558</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="M48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="19"/>
+      <c r="N48" s="17"/>
       <c r="V48">
         <v>128559</v>
       </c>
@@ -3328,7 +3330,7 @@
       <c r="M49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N49" s="19"/>
+      <c r="N49" s="17"/>
       <c r="V49">
         <v>128560</v>
       </c>
@@ -3371,7 +3373,7 @@
       <c r="M50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N50" s="19"/>
+      <c r="N50" s="17"/>
       <c r="V50">
         <v>128561</v>
       </c>
@@ -3416,7 +3418,7 @@
       <c r="M51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N51" s="19"/>
+      <c r="N51" s="17"/>
       <c r="V51">
         <v>128562</v>
       </c>
@@ -3461,7 +3463,7 @@
       <c r="M52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="17" t="s">
         <v>9</v>
       </c>
       <c r="V52">
@@ -3475,18 +3477,40 @@
       <c r="B53" s="13" t="str">
         <v>13-Feb</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="15"/>
+      <c r="G53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="V53">
         <v>128564</v>
       </c>
@@ -3509,7 +3533,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="15"/>
+      <c r="N54" s="17"/>
       <c r="V54">
         <v>128565</v>
       </c>
@@ -3532,7 +3556,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="15"/>
+      <c r="N55" s="17"/>
       <c r="V55">
         <v>128566</v>
       </c>
@@ -3555,7 +3579,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="15"/>
+      <c r="N56" s="17"/>
       <c r="V56">
         <v>128567</v>
       </c>
@@ -3578,7 +3602,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="15"/>
+      <c r="N57" s="17"/>
       <c r="V57">
         <v>128568</v>
       </c>
@@ -3601,7 +3625,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="15"/>
+      <c r="N58" s="17"/>
       <c r="V58">
         <v>128569</v>
       </c>
@@ -3624,7 +3648,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="15"/>
+      <c r="N59" s="17"/>
       <c r="V59">
         <v>128570</v>
       </c>
@@ -3647,7 +3671,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="15"/>
+      <c r="N60" s="17"/>
       <c r="V60">
         <v>128571</v>
       </c>
@@ -3670,7 +3694,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="15"/>
+      <c r="N61" s="17"/>
       <c r="V61">
         <v>128572</v>
       </c>
@@ -3693,7 +3717,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="15"/>
+      <c r="N62" s="17"/>
       <c r="V62">
         <v>128573</v>
       </c>
@@ -3716,7 +3740,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="15"/>
+      <c r="N63" s="17"/>
       <c r="V63">
         <v>128574</v>
       </c>
@@ -3739,7 +3763,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="15"/>
+      <c r="N64" s="17"/>
       <c r="V64">
         <v>128575</v>
       </c>
@@ -3762,7 +3786,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="15"/>
+      <c r="N65" s="17"/>
       <c r="V65">
         <v>128576</v>
       </c>
@@ -3785,7 +3809,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="15"/>
+      <c r="N66" s="17"/>
       <c r="V66">
         <v>128577</v>
       </c>
@@ -3808,7 +3832,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="15"/>
+      <c r="N67" s="17"/>
       <c r="V67">
         <v>128578</v>
       </c>
@@ -3831,7 +3855,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="8"/>
-      <c r="N68" s="16"/>
+      <c r="N68" s="20"/>
       <c r="V68">
         <v>128579</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76045FF-4014-48DE-8171-7C9E36A58CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52201634-D374-4782-9721-B4D788A5A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
+    <definedName name="data">_xlfn.TRIMRANGE(Report!B20:N999,2)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
   </definedNames>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -96,78 +97,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Absicht haben</t>
-  </si>
-  <si>
-    <t>to have the intention</t>
-  </si>
-  <si>
-    <t>Angst haben</t>
-  </si>
-  <si>
-    <t>to be afraid</t>
-  </si>
-  <si>
-    <t>einen Vogel haben</t>
-  </si>
-  <si>
-    <t>Erfolg haben</t>
-  </si>
-  <si>
-    <t>to be successful</t>
-  </si>
-  <si>
-    <t>Glück haben</t>
-  </si>
-  <si>
-    <t>to be lucky</t>
-  </si>
-  <si>
-    <t>Hunger haben</t>
-  </si>
-  <si>
-    <t>to be hungry</t>
-  </si>
-  <si>
-    <t>im Auge haben</t>
-  </si>
-  <si>
-    <t>to have in mind</t>
-  </si>
-  <si>
-    <t>im Griff haben</t>
-  </si>
-  <si>
-    <t>to have under control</t>
-  </si>
-  <si>
-    <t>Pech haben</t>
-  </si>
-  <si>
-    <t>to be unlucky</t>
-  </si>
-  <si>
-    <t>Probleme haben</t>
-  </si>
-  <si>
-    <t>to have problems</t>
-  </si>
-  <si>
-    <t>recht haben</t>
-  </si>
-  <si>
-    <t>to be right</t>
-  </si>
-  <si>
-    <t>to be crazy (literally to have a bird)</t>
-  </si>
-  <si>
-    <t>German Stub</t>
-  </si>
-  <si>
-    <t>English Stub</t>
-  </si>
-  <si>
     <t>German Story Audio</t>
   </si>
   <si>
@@ -177,190 +106,10 @@
     <t>Stat Drill</t>
   </si>
   <si>
-    <t>sein (to be)</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>bleiben (to stay)</t>
-  </si>
-  <si>
-    <t>blieb</t>
-  </si>
-  <si>
-    <t>finden (to find)</t>
-  </si>
-  <si>
-    <t>fand</t>
-  </si>
-  <si>
-    <t>geben (to give)</t>
-  </si>
-  <si>
-    <t>gab</t>
-  </si>
-  <si>
-    <t>gehen (to go)</t>
-  </si>
-  <si>
-    <t>ging</t>
-  </si>
-  <si>
-    <t>haben (to have)</t>
-  </si>
-  <si>
-    <t>hatte</t>
-  </si>
-  <si>
-    <t>kommen (to come)</t>
-  </si>
-  <si>
-    <t>kam</t>
-  </si>
-  <si>
-    <t>können (can)</t>
-  </si>
-  <si>
-    <t>konnte</t>
-  </si>
-  <si>
-    <t>lassen (to let/allow)</t>
-  </si>
-  <si>
-    <t>ließ</t>
-  </si>
-  <si>
-    <t>liegen (to lie)</t>
-  </si>
-  <si>
-    <t>lag</t>
-  </si>
-  <si>
-    <t>machen (to make/do)</t>
-  </si>
-  <si>
-    <t>machte</t>
-  </si>
-  <si>
-    <t>müssen (must)</t>
-  </si>
-  <si>
-    <t>musste</t>
-  </si>
-  <si>
-    <t>sagen (to say)</t>
-  </si>
-  <si>
-    <t>sagte</t>
-  </si>
-  <si>
-    <t>sehen (to see)</t>
-  </si>
-  <si>
-    <t>sah</t>
-  </si>
-  <si>
-    <t>sollen (should)</t>
-  </si>
-  <si>
-    <t>sollte</t>
-  </si>
-  <si>
-    <t>stehen (to stand)</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>werden (to become)</t>
-  </si>
-  <si>
-    <t>wurde</t>
-  </si>
-  <si>
-    <t>wissen (to know)</t>
-  </si>
-  <si>
-    <t>wusste</t>
-  </si>
-  <si>
-    <t>wollen (to want)</t>
-  </si>
-  <si>
-    <t>wollte</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>stayed</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>gave</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>lay</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>had to</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>stood</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>became</t>
-  </si>
-  <si>
-    <t>knew</t>
-  </si>
-  <si>
-    <t>Emoji List</t>
-  </si>
-  <si>
     <t>Excel Drill</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Udemy Options</t>
-  </si>
-  <si>
-    <t>dynamic programming</t>
   </si>
   <si>
     <t>Figma</t>
@@ -1497,12 +1246,12 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:W80"/>
+  <dimension ref="A7:AH68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1519,9 +1268,9 @@
     <col min="20" max="20" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:23" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:23" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -1550,30 +1299,27 @@
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="V9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" ref="B10:B68">TEXT(DATE(2025,1,_xlfn.SEQUENCE(31+28)),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B54" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1588,22 +1334,10 @@
       <c r="L10" s="10"/>
       <c r="M10" s="19"/>
       <c r="N10" s="18"/>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="str" cm="1">
-        <f t="array" ref="V10:W80">_xlfn.LET(_xlpm.nums,_xlfn.SEQUENCE(70,,128522),_xlfn.VSTACK({"UNICODE value","emoji from UNICHAR"},_xlfn.HSTACK(_xlpm.nums,_xlfn.UNICHAR(_xlpm.nums))))</f>
-        <v>UNICODE value</v>
-      </c>
-      <c r="W10" t="str">
-        <v>emoji from UNICHAR</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="str">
+        <f ca="1"/>
         <v>02-Jan</v>
       </c>
       <c r="C11" s="5"/>
@@ -1618,21 +1352,10 @@
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
-      <c r="R11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
-      </c>
-      <c r="V11">
-        <v>128522</v>
-      </c>
-      <c r="W11" t="str">
-        <v>😊</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
+        <f ca="1"/>
         <v>03-Jan</v>
       </c>
       <c r="C12" s="5"/>
@@ -1647,21 +1370,10 @@
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="17"/>
-      <c r="R12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12">
-        <v>128523</v>
-      </c>
-      <c r="W12" t="str">
-        <v>😋</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
+        <f ca="1"/>
         <v>04-Jan</v>
       </c>
       <c r="C13" s="5"/>
@@ -1676,21 +1388,14 @@
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="17"/>
-      <c r="R13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13">
-        <v>128524</v>
-      </c>
-      <c r="W13" t="str">
-        <v>😌</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <f ca="1">_xlfn.DAYS(TODAY(),DATE(2025,1,1))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="str">
+        <f ca="1"/>
         <v>05-Jan</v>
       </c>
       <c r="C14" s="5"/>
@@ -1705,21 +1410,10 @@
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
       <c r="N14" s="17"/>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>16</v>
-      </c>
-      <c r="V14">
-        <v>128525</v>
-      </c>
-      <c r="W14" t="str">
-        <v>😍</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
+        <f ca="1"/>
         <v>06-Jan</v>
       </c>
       <c r="C15" s="5"/>
@@ -1734,21 +1428,10 @@
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
       <c r="N15" s="17"/>
-      <c r="R15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15">
-        <v>128526</v>
-      </c>
-      <c r="W15" t="str">
-        <v>😎</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
+        <f ca="1"/>
         <v>07-Jan</v>
       </c>
       <c r="C16" s="5"/>
@@ -1763,21 +1446,10 @@
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
       <c r="N16" s="17"/>
-      <c r="R16" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16">
-        <v>128527</v>
-      </c>
-      <c r="W16" t="str">
-        <v>😏</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
+        <f ca="1"/>
         <v>08-Jan</v>
       </c>
       <c r="C17" s="5"/>
@@ -1792,21 +1464,10 @@
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
       <c r="N17" s="17"/>
-      <c r="R17" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17">
-        <v>128528</v>
-      </c>
-      <c r="W17" t="str">
-        <v>😐</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
+        <f ca="1"/>
         <v>09-Jan</v>
       </c>
       <c r="C18" s="5"/>
@@ -1821,21 +1482,10 @@
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
       <c r="N18" s="17"/>
-      <c r="R18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V18">
-        <v>128529</v>
-      </c>
-      <c r="W18" t="str">
-        <v>😑</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="str">
+        <f ca="1"/>
         <v>10-Jan</v>
       </c>
       <c r="C19" s="5"/>
@@ -1850,21 +1500,10 @@
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
       <c r="N19" s="17"/>
-      <c r="R19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19">
-        <v>128530</v>
-      </c>
-      <c r="W19" t="str">
-        <v>😒</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="str">
+        <f ca="1"/>
         <v>11-Jan</v>
       </c>
       <c r="C20" s="5"/>
@@ -1879,21 +1518,10 @@
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
       <c r="N20" s="17"/>
-      <c r="R20" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20">
-        <v>128531</v>
-      </c>
-      <c r="W20" t="str">
-        <v>😓</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="str">
+        <f ca="1"/>
         <v>12-Jan</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1924,21 +1552,10 @@
       <c r="L21" s="10"/>
       <c r="M21" s="6"/>
       <c r="N21" s="17"/>
-      <c r="R21" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21">
-        <v>128532</v>
-      </c>
-      <c r="W21" t="str">
-        <v>😔</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="str">
+        <f ca="1"/>
         <v>13-Jan</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1971,15 +1588,10 @@
         <v>9</v>
       </c>
       <c r="N22" s="17"/>
-      <c r="V22">
-        <v>128533</v>
-      </c>
-      <c r="W22" t="str">
-        <v>😕</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="str">
+        <f ca="1"/>
         <v>14-Jan</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2016,15 +1628,62 @@
         <v>9</v>
       </c>
       <c r="N23" s="17"/>
-      <c r="V23">
-        <v>128534</v>
+      <c r="V23" t="str" cm="1">
+        <f t="array" aca="1" ref="V23:AH56" ca="1">_xlfn.TRIMRANGE(B21:N1000,2)</f>
+        <v>12-Jan</v>
       </c>
       <c r="W23" t="str">
-        <v>😖</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z23">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE23" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF23">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="str">
+        <f ca="1"/>
         <v>15-Jan</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2061,24 +1720,62 @@
         <v>9</v>
       </c>
       <c r="N24" s="17"/>
-      <c r="R24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" t="s">
-        <v>75</v>
-      </c>
-      <c r="V24">
-        <v>128535</v>
+      <c r="V24" t="str">
+        <f ca="1"/>
+        <v>13-Jan</v>
       </c>
       <c r="W24" t="str">
-        <v>😗</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z24">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF24">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH24">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="str">
+        <f ca="1"/>
         <v>16-Jan</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2113,24 +1810,62 @@
         <v>9</v>
       </c>
       <c r="N25" s="17"/>
-      <c r="R25" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" t="s">
-        <v>76</v>
-      </c>
-      <c r="V25">
-        <v>128536</v>
+      <c r="V25" t="str">
+        <f ca="1"/>
+        <v>14-Jan</v>
       </c>
       <c r="W25" t="str">
-        <v>😘</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG25" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH25">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="str">
+        <f ca="1"/>
         <v>17-Jan</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2167,24 +1902,62 @@
         <v>9</v>
       </c>
       <c r="N26" s="17"/>
-      <c r="R26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" t="s">
-        <v>42</v>
-      </c>
-      <c r="T26" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26">
-        <v>128537</v>
+      <c r="V26" t="str">
+        <f ca="1"/>
+        <v>15-Jan</v>
       </c>
       <c r="W26" t="str">
-        <v>😙</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG26" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH26">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="str">
+        <f ca="1"/>
         <v>18-Jan</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2221,24 +1994,62 @@
         <v>9</v>
       </c>
       <c r="N27" s="17"/>
-      <c r="R27" t="s">
-        <v>43</v>
-      </c>
-      <c r="S27" t="s">
-        <v>44</v>
-      </c>
-      <c r="T27" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27">
-        <v>128538</v>
+      <c r="V27" t="str">
+        <f ca="1"/>
+        <v>16-Jan</v>
       </c>
       <c r="W27" t="str">
-        <v>😚</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG27" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="str">
+        <f ca="1"/>
         <v>19-Jan</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2275,24 +2086,62 @@
         <v>9</v>
       </c>
       <c r="N28" s="17"/>
-      <c r="R28" t="s">
-        <v>45</v>
-      </c>
-      <c r="S28" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" t="s">
-        <v>79</v>
-      </c>
-      <c r="V28">
-        <v>128539</v>
+      <c r="V28" t="str">
+        <f ca="1"/>
+        <v>17-Jan</v>
       </c>
       <c r="W28" t="str">
-        <v>😛</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG28" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH28">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="str">
+        <f ca="1"/>
         <v>20-Jan</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2327,24 +2176,62 @@
         <v>9</v>
       </c>
       <c r="N29" s="17"/>
-      <c r="R29" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" t="s">
-        <v>48</v>
-      </c>
-      <c r="T29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V29">
-        <v>128540</v>
+      <c r="V29" t="str">
+        <f ca="1"/>
+        <v>18-Jan</v>
       </c>
       <c r="W29" t="str">
-        <v>😜</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG29" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH29">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="str">
+        <f ca="1"/>
         <v>21-Jan</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2379,24 +2266,62 @@
         <v>9</v>
       </c>
       <c r="N30" s="17"/>
-      <c r="R30" t="s">
-        <v>49</v>
-      </c>
-      <c r="S30" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30" t="s">
-        <v>81</v>
-      </c>
-      <c r="V30">
-        <v>128541</v>
+      <c r="V30" t="str">
+        <f ca="1"/>
+        <v>19-Jan</v>
       </c>
       <c r="W30" t="str">
-        <v>😝</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG30" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="str">
+        <f ca="1"/>
         <v>22-Jan</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2431,24 +2356,62 @@
         <v>9</v>
       </c>
       <c r="N31" s="17"/>
-      <c r="R31" t="s">
-        <v>51</v>
-      </c>
-      <c r="S31" t="s">
-        <v>52</v>
-      </c>
-      <c r="T31" t="s">
-        <v>82</v>
-      </c>
-      <c r="V31">
-        <v>128542</v>
+      <c r="V31" t="str">
+        <f ca="1"/>
+        <v>20-Jan</v>
       </c>
       <c r="W31" t="str">
-        <v>😞</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG31" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="str">
+        <f ca="1"/>
         <v>23-Jan</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2485,24 +2448,62 @@
         <v>9</v>
       </c>
       <c r="N32" s="17"/>
-      <c r="R32" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V32">
-        <v>128543</v>
+      <c r="V32" t="str">
+        <f ca="1"/>
+        <v>21-Jan</v>
       </c>
       <c r="W32" t="str">
-        <v>😟</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z32">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG32" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH32">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="str">
+        <f ca="1"/>
         <v>24-Jan</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2539,24 +2540,62 @@
         <v>9</v>
       </c>
       <c r="N33" s="17"/>
-      <c r="R33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S33" t="s">
-        <v>56</v>
-      </c>
-      <c r="T33" t="s">
-        <v>84</v>
-      </c>
-      <c r="V33">
-        <v>128544</v>
+      <c r="V33" t="str">
+        <f ca="1"/>
+        <v>22-Jan</v>
       </c>
       <c r="W33" t="str">
-        <v>😠</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z33">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG33" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH33">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="str">
+        <f ca="1"/>
         <v>25-Jan</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2593,24 +2632,62 @@
         <v>9</v>
       </c>
       <c r="N34" s="17"/>
-      <c r="R34" t="s">
-        <v>57</v>
-      </c>
-      <c r="S34" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" t="s">
-        <v>85</v>
-      </c>
-      <c r="V34">
-        <v>128545</v>
+      <c r="V34" t="str">
+        <f ca="1"/>
+        <v>23-Jan</v>
       </c>
       <c r="W34" t="str">
-        <v>😡</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG34" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH34">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="str">
+        <f ca="1"/>
         <v>26-Jan</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2647,24 +2724,62 @@
         <v>9</v>
       </c>
       <c r="N35" s="17"/>
-      <c r="R35" t="s">
-        <v>59</v>
-      </c>
-      <c r="S35" t="s">
-        <v>60</v>
-      </c>
-      <c r="T35" t="s">
-        <v>86</v>
-      </c>
-      <c r="V35">
-        <v>128546</v>
+      <c r="V35" t="str">
+        <f ca="1"/>
+        <v>24-Jan</v>
       </c>
       <c r="W35" t="str">
-        <v>😢</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG35" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH35">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="str">
+        <f ca="1"/>
         <v>27-Jan</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2701,24 +2816,62 @@
         <v>9</v>
       </c>
       <c r="N36" s="17"/>
-      <c r="R36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S36" t="s">
-        <v>62</v>
-      </c>
-      <c r="T36" t="s">
-        <v>87</v>
-      </c>
-      <c r="V36">
-        <v>128547</v>
+      <c r="V36" t="str">
+        <f ca="1"/>
+        <v>25-Jan</v>
       </c>
       <c r="W36" t="str">
-        <v>😣</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG36" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH36">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="str">
+        <f ca="1"/>
         <v>28-Jan</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2753,24 +2906,62 @@
         <v>9</v>
       </c>
       <c r="N37" s="17"/>
-      <c r="R37" t="s">
-        <v>63</v>
-      </c>
-      <c r="S37" t="s">
-        <v>64</v>
-      </c>
-      <c r="T37" t="s">
-        <v>88</v>
-      </c>
-      <c r="V37">
-        <v>128548</v>
+      <c r="V37" t="str">
+        <f ca="1"/>
+        <v>26-Jan</v>
       </c>
       <c r="W37" t="str">
-        <v>😤</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG37" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH37">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="str">
+        <f ca="1"/>
         <v>29-Jan</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2805,24 +2996,62 @@
         <v>9</v>
       </c>
       <c r="N38" s="17"/>
-      <c r="R38" t="s">
-        <v>65</v>
-      </c>
-      <c r="S38" t="s">
-        <v>66</v>
-      </c>
-      <c r="T38" t="s">
-        <v>89</v>
-      </c>
-      <c r="V38">
-        <v>128549</v>
+      <c r="V38" t="str">
+        <f ca="1"/>
+        <v>27-Jan</v>
       </c>
       <c r="W38" t="str">
-        <v>😥</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG38" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH38">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="str">
+        <f ca="1"/>
         <v>30-Jan</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2857,31 +3086,69 @@
         <v>9</v>
       </c>
       <c r="N39" s="17"/>
-      <c r="R39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S39" t="s">
-        <v>68</v>
-      </c>
-      <c r="T39" t="s">
-        <v>90</v>
-      </c>
-      <c r="V39">
-        <v>128550</v>
+      <c r="V39" t="str">
+        <f ca="1"/>
+        <v>28-Jan</v>
       </c>
       <c r="W39" t="str">
-        <v>😦</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z39">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG39" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH39">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="str">
+        <f ca="1"/>
         <v>31-Jan</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>9</v>
@@ -2911,31 +3178,69 @@
         <v>9</v>
       </c>
       <c r="N40" s="17"/>
-      <c r="R40" t="s">
-        <v>69</v>
-      </c>
-      <c r="S40" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s">
-        <v>92</v>
-      </c>
-      <c r="V40">
-        <v>128551</v>
+      <c r="V40" t="str">
+        <f ca="1"/>
+        <v>29-Jan</v>
       </c>
       <c r="W40" t="str">
-        <v>😧</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z40">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG40" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH40">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="str">
+        <f ca="1"/>
         <v>01-Feb</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>9</v>
@@ -2965,31 +3270,69 @@
         <v>9</v>
       </c>
       <c r="N41" s="17"/>
-      <c r="R41" t="s">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s">
-        <v>72</v>
-      </c>
-      <c r="T41" t="s">
-        <v>93</v>
-      </c>
-      <c r="V41">
-        <v>128552</v>
+      <c r="V41" t="str">
+        <f ca="1"/>
+        <v>30-Jan</v>
       </c>
       <c r="W41" t="str">
-        <v>😨</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z41">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG41" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH41">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="str">
+        <f ca="1"/>
         <v>02-Feb</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>9</v>
@@ -3019,31 +3362,69 @@
         <v>9</v>
       </c>
       <c r="N42" s="17"/>
-      <c r="R42" t="s">
-        <v>73</v>
-      </c>
-      <c r="S42" t="s">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s">
-        <v>91</v>
-      </c>
-      <c r="V42">
-        <v>128553</v>
+      <c r="V42" t="str">
+        <f ca="1"/>
+        <v>31-Jan</v>
       </c>
       <c r="W42" t="str">
-        <v>😩</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X42" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG42" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH42">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="str">
+        <f ca="1"/>
         <v>03-Feb</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>9</v>
@@ -3071,22 +3452,69 @@
         <v>9</v>
       </c>
       <c r="N43" s="17"/>
-      <c r="V43">
-        <v>128554</v>
+      <c r="V43" t="str">
+        <f ca="1"/>
+        <v>01-Feb</v>
       </c>
       <c r="W43" t="str">
-        <v>😪</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X43" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG43" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH43">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="str">
+        <f ca="1"/>
         <v>04-Feb</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>9</v>
@@ -3114,22 +3542,69 @@
         <v>9</v>
       </c>
       <c r="N44" s="17"/>
-      <c r="V44">
-        <v>128555</v>
+      <c r="V44" t="str">
+        <f ca="1"/>
+        <v>02-Feb</v>
       </c>
       <c r="W44" t="str">
-        <v>😫</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X44" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG44" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH44">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="str">
+        <f ca="1"/>
         <v>05-Feb</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>9</v>
@@ -3157,22 +3632,69 @@
         <v>9</v>
       </c>
       <c r="N45" s="17"/>
-      <c r="V45">
-        <v>128556</v>
+      <c r="V45" t="str">
+        <f ca="1"/>
+        <v>03-Feb</v>
       </c>
       <c r="W45" t="str">
-        <v>😬</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X45" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG45" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="str">
+        <f ca="1"/>
         <v>06-Feb</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>9</v>
@@ -3200,22 +3722,69 @@
         <v>9</v>
       </c>
       <c r="N46" s="17"/>
-      <c r="V46">
-        <v>128557</v>
+      <c r="V46" t="str">
+        <f ca="1"/>
+        <v>04-Feb</v>
       </c>
       <c r="W46" t="str">
-        <v>😭</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X46" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG46" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="str">
+        <f ca="1"/>
         <v>07-Feb</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>9</v>
@@ -3243,22 +3812,69 @@
         <v>9</v>
       </c>
       <c r="N47" s="17"/>
-      <c r="V47">
-        <v>128558</v>
+      <c r="V47" t="str">
+        <f ca="1"/>
+        <v>05-Feb</v>
       </c>
       <c r="W47" t="str">
-        <v>😮</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="X47" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG47" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="str">
+        <f ca="1"/>
         <v>08-Feb</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>9</v>
@@ -3288,22 +3904,69 @@
         <v>9</v>
       </c>
       <c r="N48" s="17"/>
-      <c r="V48">
-        <v>128559</v>
+      <c r="V48" t="str">
+        <f ca="1"/>
+        <v>06-Feb</v>
       </c>
       <c r="W48" t="str">
-        <v>😯</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X48" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG48" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="str">
+        <f ca="1"/>
         <v>09-Feb</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>9</v>
@@ -3331,22 +3994,69 @@
         <v>9</v>
       </c>
       <c r="N49" s="17"/>
-      <c r="V49">
-        <v>128560</v>
+      <c r="V49" t="str">
+        <f ca="1"/>
+        <v>07-Feb</v>
       </c>
       <c r="W49" t="str">
-        <v>😰</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X49" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG49" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="str">
+        <f ca="1"/>
         <v>10-Feb</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>9</v>
@@ -3374,22 +4084,69 @@
         <v>9</v>
       </c>
       <c r="N50" s="17"/>
-      <c r="V50">
-        <v>128561</v>
+      <c r="V50" t="str">
+        <f ca="1"/>
+        <v>08-Feb</v>
       </c>
       <c r="W50" t="str">
-        <v>😱</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X50" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG50" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="str">
+        <f ca="1"/>
         <v>11-Feb</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>9</v>
@@ -3419,22 +4176,69 @@
         <v>9</v>
       </c>
       <c r="N51" s="17"/>
-      <c r="V51">
-        <v>128562</v>
+      <c r="V51" t="str">
+        <f ca="1"/>
+        <v>09-Feb</v>
       </c>
       <c r="W51" t="str">
-        <v>😲</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X51" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG51" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="str">
+        <f ca="1"/>
         <v>12-Feb</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>9</v>
@@ -3466,22 +4270,69 @@
       <c r="N52" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V52">
-        <v>128563</v>
+      <c r="V52" t="str">
+        <f ca="1"/>
+        <v>10-Feb</v>
       </c>
       <c r="W52" t="str">
-        <v>😳</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X52" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG52" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="str">
+        <f ca="1"/>
         <v>13-Feb</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>9</v>
@@ -3511,40 +4362,153 @@
       <c r="N53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V53">
-        <v>128564</v>
+      <c r="V53" t="str">
+        <f ca="1"/>
+        <v>11-Feb</v>
       </c>
       <c r="W53" t="str">
-        <v>😴</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X53" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG53" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH53">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="str">
+        <f ca="1"/>
         <v>14-Feb</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="17"/>
-      <c r="V54">
-        <v>128565</v>
+      <c r="F54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" t="str">
+        <f ca="1"/>
+        <v>12-Feb</v>
       </c>
       <c r="W54" t="str">
-        <v>😵</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="str">
-        <v>15-Feb</v>
-      </c>
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X54" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH54" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3557,17 +4521,61 @@
       <c r="L55" s="10"/>
       <c r="M55" s="6"/>
       <c r="N55" s="17"/>
-      <c r="V55">
-        <v>128566</v>
+      <c r="V55" t="str">
+        <f ca="1"/>
+        <v>13-Feb</v>
       </c>
       <c r="W55" t="str">
-        <v>😶</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="str">
-        <v>16-Feb</v>
-      </c>
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X55" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z55">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH55" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3580,17 +4588,61 @@
       <c r="L56" s="10"/>
       <c r="M56" s="6"/>
       <c r="N56" s="17"/>
-      <c r="V56">
-        <v>128567</v>
+      <c r="V56" t="str">
+        <f ca="1"/>
+        <v>14-Feb</v>
       </c>
       <c r="W56" t="str">
-        <v>😷</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="str">
-        <v>17-Feb</v>
-      </c>
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="X56" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y56">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AA56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AB56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AC56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AD56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AE56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AF56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AG56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="AH56" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3603,17 +4655,9 @@
       <c r="L57" s="10"/>
       <c r="M57" s="6"/>
       <c r="N57" s="17"/>
-      <c r="V57">
-        <v>128568</v>
-      </c>
-      <c r="W57" t="str">
-        <v>😸</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="str">
-        <v>18-Feb</v>
-      </c>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B58" s="13"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3626,17 +4670,9 @@
       <c r="L58" s="10"/>
       <c r="M58" s="6"/>
       <c r="N58" s="17"/>
-      <c r="V58">
-        <v>128569</v>
-      </c>
-      <c r="W58" t="str">
-        <v>😹</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="str">
-        <v>19-Feb</v>
-      </c>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3649,17 +4685,9 @@
       <c r="L59" s="10"/>
       <c r="M59" s="6"/>
       <c r="N59" s="17"/>
-      <c r="V59">
-        <v>128570</v>
-      </c>
-      <c r="W59" t="str">
-        <v>😺</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="str">
-        <v>20-Feb</v>
-      </c>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3672,17 +4700,9 @@
       <c r="L60" s="10"/>
       <c r="M60" s="6"/>
       <c r="N60" s="17"/>
-      <c r="V60">
-        <v>128571</v>
-      </c>
-      <c r="W60" t="str">
-        <v>😻</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="str">
-        <v>21-Feb</v>
-      </c>
+    </row>
+    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B61" s="13"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3695,17 +4715,9 @@
       <c r="L61" s="10"/>
       <c r="M61" s="6"/>
       <c r="N61" s="17"/>
-      <c r="V61">
-        <v>128572</v>
-      </c>
-      <c r="W61" t="str">
-        <v>😼</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="str">
-        <v>22-Feb</v>
-      </c>
+    </row>
+    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B62" s="13"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3718,17 +4730,9 @@
       <c r="L62" s="10"/>
       <c r="M62" s="6"/>
       <c r="N62" s="17"/>
-      <c r="V62">
-        <v>128573</v>
-      </c>
-      <c r="W62" t="str">
-        <v>😽</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="str">
-        <v>23-Feb</v>
-      </c>
+    </row>
+    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B63" s="13"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3741,17 +4745,9 @@
       <c r="L63" s="10"/>
       <c r="M63" s="6"/>
       <c r="N63" s="17"/>
-      <c r="V63">
-        <v>128574</v>
-      </c>
-      <c r="W63" t="str">
-        <v>😾</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="str">
-        <v>24-Feb</v>
-      </c>
+    </row>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3764,17 +4760,9 @@
       <c r="L64" s="10"/>
       <c r="M64" s="6"/>
       <c r="N64" s="17"/>
-      <c r="V64">
-        <v>128575</v>
-      </c>
-      <c r="W64" t="str">
-        <v>😿</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="str">
-        <v>25-Feb</v>
-      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3787,17 +4775,9 @@
       <c r="L65" s="10"/>
       <c r="M65" s="6"/>
       <c r="N65" s="17"/>
-      <c r="V65">
-        <v>128576</v>
-      </c>
-      <c r="W65" t="str">
-        <v>🙀</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="str">
-        <v>26-Feb</v>
-      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3810,17 +4790,9 @@
       <c r="L66" s="10"/>
       <c r="M66" s="6"/>
       <c r="N66" s="17"/>
-      <c r="V66">
-        <v>128577</v>
-      </c>
-      <c r="W66" t="str">
-        <v>🙁</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="str">
-        <v>27-Feb</v>
-      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="13"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3833,17 +4805,9 @@
       <c r="L67" s="10"/>
       <c r="M67" s="6"/>
       <c r="N67" s="17"/>
-      <c r="V67">
-        <v>128578</v>
-      </c>
-      <c r="W67" t="str">
-        <v>🙂</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="str">
-        <v>28-Feb</v>
-      </c>
+    </row>
+    <row r="68" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3856,108 +4820,6 @@
       <c r="L68" s="11"/>
       <c r="M68" s="8"/>
       <c r="N68" s="20"/>
-      <c r="V68">
-        <v>128579</v>
-      </c>
-      <c r="W68" t="str">
-        <v>🙃</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V69">
-        <v>128580</v>
-      </c>
-      <c r="W69" t="str">
-        <v>🙄</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V70">
-        <v>128581</v>
-      </c>
-      <c r="W70" t="str">
-        <v>🙅</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V71">
-        <v>128582</v>
-      </c>
-      <c r="W71" t="str">
-        <v>🙆</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V72">
-        <v>128583</v>
-      </c>
-      <c r="W72" t="str">
-        <v>🙇</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V73">
-        <v>128584</v>
-      </c>
-      <c r="W73" t="str">
-        <v>🙈</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V74">
-        <v>128585</v>
-      </c>
-      <c r="W74" t="str">
-        <v>🙉</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V75">
-        <v>128586</v>
-      </c>
-      <c r="W75" t="str">
-        <v>🙊</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V76">
-        <v>128587</v>
-      </c>
-      <c r="W76" t="str">
-        <v>🙋</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V77">
-        <v>128588</v>
-      </c>
-      <c r="W77" t="str">
-        <v>🙌</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V78">
-        <v>128589</v>
-      </c>
-      <c r="W78" t="str">
-        <v>🙍</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V79">
-        <v>128590</v>
-      </c>
-      <c r="W79" t="str">
-        <v>🙎</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V80">
-        <v>128591</v>
-      </c>
-      <c r="W80" t="str">
-        <v>🙏</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
@@ -3976,22 +4838,1851 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="8.88671875" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="A2:M35" ca="1">data</f>
+        <v>12-Jan</v>
+      </c>
+      <c r="B2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E2" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J2" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K2" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="str">
+        <f ca="1"/>
+        <v>13-Jan</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E3" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K3" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M3" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="str">
+        <f ca="1"/>
+        <v>14-Jan</v>
+      </c>
+      <c r="B4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L4" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M4" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="str">
+        <f ca="1"/>
+        <v>15-Jan</v>
+      </c>
+      <c r="B5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L5" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M5" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="str">
+        <f ca="1"/>
+        <v>16-Jan</v>
+      </c>
+      <c r="B6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E6" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L6" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M6" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="str">
+        <f ca="1"/>
+        <v>17-Jan</v>
+      </c>
+      <c r="B7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L7" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M7" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
+        <f ca="1"/>
+        <v>18-Jan</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L8" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M8" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
+        <f ca="1"/>
+        <v>19-Jan</v>
+      </c>
+      <c r="B9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L9" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M9" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="str">
+        <f ca="1"/>
+        <v>20-Jan</v>
+      </c>
+      <c r="B10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E10" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L10" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M10" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="str">
+        <f ca="1"/>
+        <v>21-Jan</v>
+      </c>
+      <c r="B11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E11" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L11" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M11" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="str">
+        <f ca="1"/>
+        <v>22-Jan</v>
+      </c>
+      <c r="B12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E12" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L12" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M12" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="str">
+        <f ca="1"/>
+        <v>23-Jan</v>
+      </c>
+      <c r="B13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L13" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M13" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="str">
+        <f ca="1"/>
+        <v>24-Jan</v>
+      </c>
+      <c r="B14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L14" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M14" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="str">
+        <f ca="1"/>
+        <v>25-Jan</v>
+      </c>
+      <c r="B15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L15" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M15" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="str">
+        <f ca="1"/>
+        <v>26-Jan</v>
+      </c>
+      <c r="B16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L16" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="str">
+        <f ca="1"/>
+        <v>27-Jan</v>
+      </c>
+      <c r="B17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L17" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M17" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="str">
+        <f ca="1"/>
+        <v>28-Jan</v>
+      </c>
+      <c r="B18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E18" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L18" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M18" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="str">
+        <f ca="1"/>
+        <v>29-Jan</v>
+      </c>
+      <c r="B19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E19" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L19" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M19" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="str">
+        <f ca="1"/>
+        <v>30-Jan</v>
+      </c>
+      <c r="B20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E20" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L20" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M20" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="str">
+        <f ca="1"/>
+        <v>31-Jan</v>
+      </c>
+      <c r="B21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L21" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M21" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="str">
+        <f ca="1"/>
+        <v>01-Feb</v>
+      </c>
+      <c r="B22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L22" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M22" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="str">
+        <f ca="1"/>
+        <v>02-Feb</v>
+      </c>
+      <c r="B23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L23" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M23" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="str">
+        <f ca="1"/>
+        <v>03-Feb</v>
+      </c>
+      <c r="B24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E24" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L24" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M24" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="str">
+        <f ca="1"/>
+        <v>04-Feb</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E25" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L25" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M25" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="str">
+        <f ca="1"/>
+        <v>05-Feb</v>
+      </c>
+      <c r="B26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E26" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L26" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M26" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="str">
+        <f ca="1"/>
+        <v>06-Feb</v>
+      </c>
+      <c r="B27" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E27" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L27" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M27" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="str">
+        <f ca="1"/>
+        <v>07-Feb</v>
+      </c>
+      <c r="B28" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C28" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E28" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L28" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M28" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="str">
+        <f ca="1"/>
+        <v>08-Feb</v>
+      </c>
+      <c r="B29" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C29" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L29" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M29" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="str">
+        <f ca="1"/>
+        <v>09-Feb</v>
+      </c>
+      <c r="B30" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E30" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L30" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M30" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="str">
+        <f ca="1"/>
+        <v>10-Feb</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E31" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L31" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M31" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="str">
+        <f ca="1"/>
+        <v>11-Feb</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L32" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M32" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="str">
+        <f ca="1"/>
+        <v>12-Feb</v>
+      </c>
+      <c r="B33" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M33" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="str">
+        <f ca="1"/>
+        <v>13-Feb</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="E34" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M34" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="str">
+        <f ca="1"/>
+        <v>14-Feb</v>
+      </c>
+      <c r="B35" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="C35" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="D35" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="F35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="G35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="H35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="I35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="J35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="K35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="L35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
+      </c>
+      <c r="M35" s="16" t="str">
+        <f ca="1"/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00ACBC-8526-4887-A6DA-F2C8D2A5CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464B3CB-4165-4ABD-8B2D-E62C2B2466F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -57,16 +58,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -105,9 +120,6 @@
   </si>
   <si>
     <t>Excel Drill</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Figma</t>
@@ -494,7 +506,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -556,6 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -911,6 +924,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>2</v>
+    <v>32</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert_Standard">
   <a:themeElements>
@@ -1098,7 +1169,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="10">
+  <wetp:taskpane dockstate="right" visibility="0" width="793" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1131,12 +1202,12 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:AH68"/>
+  <dimension ref="A7:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1218,6 +1289,10 @@
       <c r="L10" s="10"/>
       <c r="M10" s="19"/>
       <c r="N10" s="18"/>
+      <c r="O10">
+        <f ca="1">WEEKNUM(B10)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="str">
@@ -1236,6 +1311,10 @@
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
+      <c r="O11">
+        <f t="shared" ref="O11:O54" ca="1" si="0">WEEKNUM(B11)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
@@ -1254,6 +1333,10 @@
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="17"/>
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
@@ -1272,6 +1355,10 @@
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="17"/>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
       <c r="T13">
         <f ca="1">_xlfn.DAYS(TODAY(),DATE(2025,1,1))</f>
         <v>44</v>
@@ -1294,6 +1381,10 @@
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
       <c r="N14" s="17"/>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
@@ -1312,6 +1403,10 @@
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
       <c r="N15" s="17"/>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
@@ -1330,8 +1425,12 @@
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
       <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -1348,8 +1447,12 @@
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
       <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
@@ -1366,8 +1469,12 @@
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
       <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
@@ -1384,8 +1491,12 @@
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
       <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
@@ -1402,8 +1513,49 @@
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
       <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S20" s="21" t="str" cm="1">
+        <f t="array" ref="S20:AD20">C9:N9</f>
+        <v>Javascript Class</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Power Automate Class</v>
+      </c>
+      <c r="U20" t="str">
+        <v>Excel Drill</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Weight Lift</v>
+      </c>
+      <c r="W20" t="str">
+        <v>Walk</v>
+      </c>
+      <c r="X20" t="str">
+        <v>German Grammar</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>German Vocab</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>German Story Audio</v>
+      </c>
+      <c r="AA20" t="str">
+        <v>German Story Reading</v>
+      </c>
+      <c r="AB20" t="str">
+        <v>Stat Drill</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>CSS Drill</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>Figma</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
@@ -1417,7 +1569,9 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
@@ -1433,11 +1587,77 @@
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f>SUM(C21:N21)</f>
+        <v>8</v>
+      </c>
+      <c r="R21" cm="1">
+        <f t="array" aca="1" ref="R21:R25" ca="1">_xlfn.UNIQUE(O21:O54)</f>
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <f ca="1">SUMIFS(C$21:C$54,$O$21:$O$54,$R21)</f>
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:AD25" ca="1" si="1">SUMIFS(D$21:D$54,$O$21:$O$54,$R21)</f>
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -1451,7 +1671,9 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -1467,13 +1689,77 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
       <c r="M22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P54" si="2">SUM(C22:N22)</f>
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S25" ca="1" si="3">SUMIFS(C$21:C$54,$O$21:$O$54,$R22)</f>
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -1511,61 +1797,71 @@
       <c r="M23" s="6">
         <v>1</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="V23" t="str" cm="1">
-        <f t="array" aca="1" ref="V23:AH56" ca="1">_xlfn.TRIMRANGE(B21:N1000,2)</f>
-        <v>12-Jan</v>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="W23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="X23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="Y23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="Z23">
-        <f ca="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AA23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AB23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AC23">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -1603,61 +1899,71 @@
       <c r="M24" s="6">
         <v>1</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="V24" t="str">
-        <f ca="1"/>
-        <v>13-Jan</v>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="W24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="X24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="Y24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="Z24">
-        <f ca="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AA24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AB24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AC24">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="AD24">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -1671,7 +1977,9 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
       <c r="G25" s="6">
         <v>1</v>
       </c>
@@ -1693,61 +2001,71 @@
       <c r="M25" s="6">
         <v>1</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="V25" t="str">
-        <f ca="1"/>
-        <v>14-Jan</v>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="W25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="X25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="Y25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="Z25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="AA25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="AB25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="AC25">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="AD25">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -1785,61 +2103,67 @@
       <c r="M26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="V26" t="str">
-        <f ca="1"/>
-        <v>15-Jan</v>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <f ca="1">SUM(S21:S25)</f>
+        <v>25</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:AD26" ca="1" si="4">SUM(T21:T25)</f>
+        <v>19</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="W26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="X26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="Y26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="Z26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="AA26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="AB26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
       </c>
       <c r="AC26">
-        <f ca="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
       </c>
       <c r="AD26">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -1877,61 +2201,71 @@
       <c r="M27" s="6">
         <v>1</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="V27" t="str">
-        <f ca="1"/>
-        <v>16-Jan</v>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R27" cm="1">
+        <f t="array" aca="1" ref="R27:AD32" ca="1">_xlfn.PIVOTBY(O21:O54,,C21:N54,_xleta.SUM)</f>
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <f ca="1"/>
+        <v>4</v>
       </c>
       <c r="W27">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X27">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y27">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z27">
         <f ca="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA27">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB27">
         <f ca="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC27">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD27">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH27">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -1969,61 +2303,71 @@
       <c r="M28" s="6">
         <v>1</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="V28" t="str">
-        <f ca="1"/>
-        <v>17-Jan</v>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V28">
+        <f ca="1"/>
+        <v>4</v>
       </c>
       <c r="W28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC28">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD28">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH28">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -2037,7 +2381,9 @@
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
       <c r="G29" s="6">
         <v>1</v>
       </c>
@@ -2059,61 +2405,71 @@
       <c r="M29" s="6">
         <v>1</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="V29" t="str">
-        <f ca="1"/>
-        <v>18-Jan</v>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V29">
+        <f ca="1"/>
+        <v>4</v>
       </c>
       <c r="W29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC29">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD29">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -2127,7 +2483,9 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <v>1</v>
       </c>
@@ -2149,61 +2507,71 @@
       <c r="M30" s="6">
         <v>1</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="V30" t="str">
-        <f ca="1"/>
-        <v>19-Jan</v>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <f ca="1"/>
+        <v>2</v>
       </c>
       <c r="W30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC30">
         <f ca="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD30">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -2217,7 +2585,9 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
       <c r="G31" s="6">
         <v>1</v>
       </c>
@@ -2239,61 +2609,71 @@
       <c r="M31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="V31" t="str">
-        <f ca="1"/>
-        <v>20-Jan</v>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <f ca="1"/>
+        <v>3</v>
       </c>
       <c r="W31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z31">
         <f ca="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC31">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD31">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH31">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -2331,61 +2711,71 @@
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="V32" t="str">
-        <f ca="1"/>
-        <v>21-Jan</v>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="R32" t="str">
+        <f ca="1"/>
+        <v>Total</v>
+      </c>
+      <c r="S32">
+        <f ca="1"/>
+        <v>25</v>
+      </c>
+      <c r="T32">
+        <f ca="1"/>
+        <v>19</v>
+      </c>
+      <c r="U32">
+        <f ca="1"/>
+        <v>34</v>
+      </c>
+      <c r="V32">
+        <f ca="1"/>
+        <v>17</v>
       </c>
       <c r="W32">
         <f ca="1"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X32">
         <f ca="1"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Y32">
         <f ca="1"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Z32">
         <f ca="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA32">
         <f ca="1"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AB32">
         <f ca="1"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AC32">
         <f ca="1"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AD32">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="str">
         <f ca="1"/>
         <v>24-Jan</v>
@@ -2423,61 +2813,19 @@
       <c r="M33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="V33" t="str">
-        <f ca="1"/>
-        <v>22-Jan</v>
-      </c>
-      <c r="W33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="str">
         <f ca="1"/>
         <v>25-Jan</v>
@@ -2515,61 +2863,19 @@
       <c r="M34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="V34" t="str">
-        <f ca="1"/>
-        <v>23-Jan</v>
-      </c>
-      <c r="W34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH34">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="str">
         <f ca="1"/>
         <v>26-Jan</v>
@@ -2607,61 +2913,19 @@
       <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="V35" t="str">
-        <f ca="1"/>
-        <v>24-Jan</v>
-      </c>
-      <c r="W35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH35">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="str">
         <f ca="1"/>
         <v>27-Jan</v>
@@ -2699,61 +2963,19 @@
       <c r="M36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="V36" t="str">
-        <f ca="1"/>
-        <v>25-Jan</v>
-      </c>
-      <c r="W36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH36">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="str">
         <f ca="1"/>
         <v>28-Jan</v>
@@ -2767,7 +2989,9 @@
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
       <c r="G37" s="6">
         <v>1</v>
       </c>
@@ -2789,61 +3013,19 @@
       <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="V37" t="str">
-        <f ca="1"/>
-        <v>26-Jan</v>
-      </c>
-      <c r="W37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH37">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="str">
         <f ca="1"/>
         <v>29-Jan</v>
@@ -2857,7 +3039,9 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
       <c r="G38" s="6">
         <v>1</v>
       </c>
@@ -2879,61 +3063,19 @@
       <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="V38" t="str">
-        <f ca="1"/>
-        <v>27-Jan</v>
-      </c>
-      <c r="W38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG38">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH38">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="str">
         <f ca="1"/>
         <v>30-Jan</v>
@@ -2947,7 +3089,9 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
       <c r="G39" s="6">
         <v>1</v>
       </c>
@@ -2969,61 +3113,19 @@
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="V39" t="str">
-        <f ca="1"/>
-        <v>28-Jan</v>
-      </c>
-      <c r="W39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH39">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="str">
         <f ca="1"/>
         <v>31-Jan</v>
@@ -3031,8 +3133,8 @@
       <c r="C40" s="5">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
+      <c r="D40" s="6">
+        <v>0</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -3061,61 +3163,19 @@
       <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="V40" t="str">
-        <f ca="1"/>
-        <v>29-Jan</v>
-      </c>
-      <c r="W40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH40">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="str">
         <f ca="1"/>
         <v>01-Feb</v>
@@ -3123,8 +3183,8 @@
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>13</v>
+      <c r="D41" s="6">
+        <v>0</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
@@ -3153,61 +3213,19 @@
       <c r="M41" s="6">
         <v>1</v>
       </c>
-      <c r="N41" s="17"/>
-      <c r="V41" t="str">
-        <f ca="1"/>
-        <v>30-Jan</v>
-      </c>
-      <c r="W41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH41">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="str">
         <f ca="1"/>
         <v>02-Feb</v>
@@ -3215,8 +3233,8 @@
       <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
+      <c r="D42" s="6">
+        <v>0</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3245,61 +3263,19 @@
       <c r="M42" s="6">
         <v>1</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="V42" t="str">
-        <f ca="1"/>
-        <v>31-Jan</v>
-      </c>
-      <c r="W42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X42" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH42">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="str">
         <f ca="1"/>
         <v>03-Feb</v>
@@ -3307,13 +3283,15 @@
       <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>13</v>
+      <c r="D43" s="6">
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <v>1</v>
       </c>
@@ -3335,61 +3313,19 @@
       <c r="M43" s="6">
         <v>1</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="V43" t="str">
-        <f ca="1"/>
-        <v>01-Feb</v>
-      </c>
-      <c r="W43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X43" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH43">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="str">
         <f ca="1"/>
         <v>04-Feb</v>
@@ -3397,13 +3333,15 @@
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
+      <c r="D44" s="6">
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
       <c r="G44" s="6">
         <v>1</v>
       </c>
@@ -3425,61 +3363,19 @@
       <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="V44" t="str">
-        <f ca="1"/>
-        <v>02-Feb</v>
-      </c>
-      <c r="W44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X44" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH44">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="str">
         <f ca="1"/>
         <v>05-Feb</v>
@@ -3487,13 +3383,15 @@
       <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>13</v>
+      <c r="D45" s="6">
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
       <c r="G45" s="6">
         <v>1</v>
       </c>
@@ -3515,75 +3413,35 @@
       <c r="M45" s="6">
         <v>1</v>
       </c>
-      <c r="N45" s="17"/>
-      <c r="V45" t="str">
-        <f ca="1"/>
-        <v>03-Feb</v>
-      </c>
-      <c r="W45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X45" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z45">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="str">
         <f ca="1"/>
         <v>06-Feb</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>13</v>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
       <c r="G46" s="6">
         <v>1</v>
       </c>
@@ -3605,75 +3463,35 @@
       <c r="M46" s="6">
         <v>1</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="V46" t="str">
-        <f ca="1"/>
-        <v>04-Feb</v>
-      </c>
-      <c r="W46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X46" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z46">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="str">
         <f ca="1"/>
         <v>07-Feb</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>13</v>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
       <c r="G47" s="6">
         <v>1</v>
       </c>
@@ -3695,70 +3513,28 @@
       <c r="M47" s="6">
         <v>1</v>
       </c>
-      <c r="N47" s="17"/>
-      <c r="V47" t="str">
-        <f ca="1"/>
-        <v>05-Feb</v>
-      </c>
-      <c r="W47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X47" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z47">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH47">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="str">
         <f ca="1"/>
         <v>08-Feb</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3787,75 +3563,35 @@
       <c r="M48" s="6">
         <v>1</v>
       </c>
-      <c r="N48" s="17"/>
-      <c r="V48" t="str">
-        <f ca="1"/>
-        <v>06-Feb</v>
-      </c>
-      <c r="W48" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X48" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z48">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH48">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N48" s="17">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="str">
         <f ca="1"/>
         <v>09-Feb</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>13</v>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
       <c r="G49" s="6">
         <v>1</v>
       </c>
@@ -3877,75 +3613,35 @@
       <c r="M49" s="6">
         <v>1</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="V49" t="str">
-        <f ca="1"/>
-        <v>07-Feb</v>
-      </c>
-      <c r="W49" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X49" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z49">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH49">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="str">
         <f ca="1"/>
         <v>10-Feb</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>13</v>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <v>1</v>
       </c>
@@ -3967,70 +3663,28 @@
       <c r="M50" s="6">
         <v>1</v>
       </c>
-      <c r="N50" s="17"/>
-      <c r="V50" t="str">
-        <f ca="1"/>
-        <v>08-Feb</v>
-      </c>
-      <c r="W50" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X50" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH50">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N50" s="17">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="str">
         <f ca="1"/>
         <v>11-Feb</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>13</v>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -4059,70 +3713,28 @@
       <c r="M51" s="6">
         <v>1</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="V51" t="str">
-        <f ca="1"/>
-        <v>09-Feb</v>
-      </c>
-      <c r="W51" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X51" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH51">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="str">
         <f ca="1"/>
         <v>12-Feb</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>13</v>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -4154,74 +3766,32 @@
       <c r="N52" s="17">
         <v>1</v>
       </c>
-      <c r="V52" t="str">
-        <f ca="1"/>
-        <v>10-Feb</v>
-      </c>
-      <c r="W52" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X52" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH52">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="str">
         <f ca="1"/>
         <v>13-Feb</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>13</v>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <v>1</v>
       </c>
@@ -4246,69 +3816,25 @@
       <c r="N53" s="17">
         <v>1</v>
       </c>
-      <c r="V53" t="str">
-        <f ca="1"/>
-        <v>11-Feb</v>
-      </c>
-      <c r="W53" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X53" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH53">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="str">
         <f ca="1"/>
         <v>14-Feb</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -4340,60 +3866,16 @@
       <c r="N54" s="17">
         <v>1</v>
       </c>
-      <c r="V54" t="str">
-        <f ca="1"/>
-        <v>12-Feb</v>
-      </c>
-      <c r="W54" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X54" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH54">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
@@ -4407,60 +3889,8 @@
       <c r="L55" s="10"/>
       <c r="M55" s="6"/>
       <c r="N55" s="17"/>
-      <c r="V55" t="str">
-        <f ca="1"/>
-        <v>13-Feb</v>
-      </c>
-      <c r="W55" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X55" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z55">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH55">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
@@ -4474,60 +3904,8 @@
       <c r="L56" s="10"/>
       <c r="M56" s="6"/>
       <c r="N56" s="17"/>
-      <c r="V56" t="str">
-        <f ca="1"/>
-        <v>14-Feb</v>
-      </c>
-      <c r="W56" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="X56" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Y56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH56">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
@@ -4542,7 +3920,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
@@ -4557,7 +3935,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
@@ -4572,7 +3950,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
@@ -4587,7 +3965,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
@@ -4602,7 +3980,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -4617,7 +3995,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -4632,7 +4010,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -4711,7 +4089,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B44:N68">
+  <conditionalFormatting sqref="B55:N68 E52:N54 B44:C54 E48:M51 E44:E47 G44:M47">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(B44)-ROW($B$9),2)</formula>
     </cfRule>
@@ -4723,9 +4101,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -4735,8 +4113,45 @@
     <col min="2" max="13" width="3.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="183" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="A2:M35" ca="1">data</f>
         <v>12-Jan</v>
@@ -4793,8 +4208,12 @@
         <f ca="1">WEEKNUM(A2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f ca="1">SUM(B2:M2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -4851,8 +4270,12 @@
         <f t="shared" ref="N3:N35" ca="1" si="0">WEEKNUM(A3)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O35" ca="1" si="1">SUM(B3:M3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -4909,8 +4332,16 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q4" t="e" cm="1" vm="1">
+        <f t="array" ref="Q4">_xlfn.PIVOTBY(N2:N35,S1:AD1,B2:M35,_xleta.SUM)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -4967,8 +4398,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -5025,8 +4460,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -5083,8 +4522,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -5141,8 +4584,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -5199,8 +4646,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -5257,8 +4708,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -5315,8 +4770,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -5373,8 +4832,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -5431,8 +4894,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="str">
         <f ca="1"/>
         <v>24-Jan</v>
@@ -5489,8 +4956,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="str">
         <f ca="1"/>
         <v>25-Jan</v>
@@ -5547,8 +5018,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="str">
         <f ca="1"/>
         <v>26-Jan</v>
@@ -5605,8 +5080,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="str">
         <f ca="1"/>
         <v>27-Jan</v>
@@ -5663,8 +5142,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="str">
         <f ca="1"/>
         <v>28-Jan</v>
@@ -5721,8 +5204,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="str">
         <f ca="1"/>
         <v>29-Jan</v>
@@ -5779,8 +5266,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="str">
         <f ca="1"/>
         <v>30-Jan</v>
@@ -5837,8 +5328,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="str">
         <f ca="1"/>
         <v>31-Jan</v>
@@ -5847,9 +5342,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C21" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C21" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D21" s="16">
         <f ca="1"/>
@@ -5895,8 +5390,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="str">
         <f ca="1"/>
         <v>01-Feb</v>
@@ -5905,9 +5404,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C22" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C22" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D22" s="16">
         <f ca="1"/>
@@ -5953,8 +5452,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="str">
         <f ca="1"/>
         <v>02-Feb</v>
@@ -5963,9 +5466,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C23" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C23" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D23" s="16">
         <f ca="1"/>
@@ -6011,8 +5514,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="str">
         <f ca="1"/>
         <v>03-Feb</v>
@@ -6021,9 +5528,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C24" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D24" s="16">
         <f ca="1"/>
@@ -6069,8 +5576,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="str">
         <f ca="1"/>
         <v>04-Feb</v>
@@ -6079,9 +5590,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C25" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D25" s="16">
         <f ca="1"/>
@@ -6127,8 +5638,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="str">
         <f ca="1"/>
         <v>05-Feb</v>
@@ -6137,9 +5652,9 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="C26" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D26" s="16">
         <f ca="1"/>
@@ -6185,19 +5700,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f ca="1"/>
         <v>06-Feb</v>
       </c>
-      <c r="B27" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C27" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B27" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D27" s="16">
         <f ca="1"/>
@@ -6243,19 +5762,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="str">
         <f ca="1"/>
         <v>07-Feb</v>
       </c>
-      <c r="B28" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C28" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B28" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D28" s="16">
         <f ca="1"/>
@@ -6301,19 +5824,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="str">
         <f ca="1"/>
         <v>08-Feb</v>
       </c>
-      <c r="B29" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C29" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B29" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D29" s="16">
         <f ca="1"/>
@@ -6359,19 +5886,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="str">
         <f ca="1"/>
         <v>09-Feb</v>
       </c>
-      <c r="B30" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C30" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B30" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D30" s="16">
         <f ca="1"/>
@@ -6417,19 +5948,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="str">
         <f ca="1"/>
         <v>10-Feb</v>
       </c>
-      <c r="B31" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C31" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B31" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D31" s="16">
         <f ca="1"/>
@@ -6475,19 +6010,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="str">
         <f ca="1"/>
         <v>11-Feb</v>
       </c>
-      <c r="B32" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C32" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B32" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D32" s="16">
         <f ca="1"/>
@@ -6533,19 +6072,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="str">
         <f ca="1"/>
         <v>12-Feb</v>
       </c>
-      <c r="B33" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C33" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B33" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D33" s="16">
         <f ca="1"/>
@@ -6591,19 +6134,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="str">
         <f ca="1"/>
         <v>13-Feb</v>
       </c>
-      <c r="B34" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C34" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B34" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D34" s="16">
         <f ca="1"/>
@@ -6649,19 +6196,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="str">
         <f ca="1"/>
         <v>14-Feb</v>
       </c>
-      <c r="B35" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="C35" s="16" t="str">
-        <f ca="1"/>
-        <v>D</v>
+      <c r="B35" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="D35" s="16">
         <f ca="1"/>
@@ -6706,6 +6257,10 @@
       <c r="N35">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464B3CB-4165-4ABD-8B2D-E62C2B2466F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A018F1D9-52E2-4629-9435-729FC0359CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="data">_xlfn.TRIMRANGE(Report!B20:N999,2)</definedName>
+    <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
@@ -1204,10 +1205,10 @@
   </sheetPr>
   <dimension ref="A7:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomLeft" activeCell="AD30" sqref="T30:AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1271,10 +1272,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
+      <c r="T9" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">T9:T36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B54" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B55" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1312,7 +1317,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
       <c r="O11">
-        <f t="shared" ref="O11:O54" ca="1" si="0">WEEKNUM(B11)</f>
+        <f t="shared" ref="O11:O55" ca="1" si="0">WEEKNUM(B11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1361,7 +1366,7 @@
       </c>
       <c r="T13">
         <f ca="1">_xlfn.DAYS(TODAY(),DATE(2025,1,1))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1517,43 +1522,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="S20" s="21" t="str" cm="1">
-        <f t="array" ref="S20:AD20">C9:N9</f>
-        <v>Javascript Class</v>
-      </c>
-      <c r="T20" t="str">
-        <v>Power Automate Class</v>
-      </c>
-      <c r="U20" t="str">
-        <v>Excel Drill</v>
-      </c>
-      <c r="V20" t="str">
-        <v>Weight Lift</v>
-      </c>
-      <c r="W20" t="str">
-        <v>Walk</v>
-      </c>
-      <c r="X20" t="str">
-        <v>German Grammar</v>
-      </c>
-      <c r="Y20" t="str">
-        <v>German Vocab</v>
-      </c>
-      <c r="Z20" t="str">
-        <v>German Story Audio</v>
-      </c>
-      <c r="AA20" t="str">
-        <v>German Story Reading</v>
-      </c>
-      <c r="AB20" t="str">
-        <v>Stat Drill</v>
-      </c>
-      <c r="AC20" t="str">
-        <v>CSS Drill</v>
-      </c>
-      <c r="AD20" t="str">
-        <v>Figma</v>
-      </c>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="str">
@@ -1604,58 +1573,6 @@
         <f>SUM(C21:N21)</f>
         <v>8</v>
       </c>
-      <c r="R21" cm="1">
-        <f t="array" aca="1" ref="R21:R25" ca="1">_xlfn.UNIQUE(O21:O54)</f>
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <f ca="1">SUMIFS(C$21:C$54,$O$21:$O$54,$R21)</f>
-        <v>7</v>
-      </c>
-      <c r="T21">
-        <f t="shared" ref="T21:AD25" ca="1" si="1">SUMIFS(D$21:D$54,$O$21:$O$54,$R21)</f>
-        <v>7</v>
-      </c>
-      <c r="U21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="str">
@@ -1703,60 +1620,8 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P54" si="2">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P55" si="1">SUM(C22:N22)</f>
         <v>9</v>
-      </c>
-      <c r="R22">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22:S25" ca="1" si="3">SUMIFS(C$21:C$54,$O$21:$O$54,$R22)</f>
-        <v>7</v>
-      </c>
-      <c r="T22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
@@ -1805,60 +1670,8 @@
         <v>3</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="R23">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="S23">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V23">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
@@ -1907,60 +1720,8 @@
         <v>3</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="R24">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="S24">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="T24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
@@ -2009,60 +1770,8 @@
         <v>3</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
-      </c>
-      <c r="R25">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="S25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="X25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
@@ -2111,56 +1820,8 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="S26">
-        <f ca="1">SUM(S21:S25)</f>
-        <v>25</v>
-      </c>
-      <c r="T26">
-        <f t="shared" ref="T26:AD26" ca="1" si="4">SUM(T21:T25)</f>
-        <v>19</v>
-      </c>
-      <c r="U26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="V26">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="W26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" ca="1" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
@@ -2209,11 +1870,11 @@
         <v>3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R27" cm="1">
-        <f t="array" aca="1" ref="R27:AD32" ca="1">_xlfn.PIVOTBY(O21:O54,,C21:N54,_xleta.SUM)</f>
+        <f t="array" aca="1" ref="R27:AD32" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM)</f>
         <v>3</v>
       </c>
       <c r="S27">
@@ -2311,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R28">
@@ -2413,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R29">
@@ -2515,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R30">
@@ -2617,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R31">
@@ -2638,39 +2299,39 @@
       </c>
       <c r="V31">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31">
         <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AB31">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
       <c r="AC31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD31">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
@@ -2719,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R32" t="str">
@@ -2740,39 +2401,39 @@
       </c>
       <c r="V32">
         <f ca="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W32">
         <f ca="1"/>
+        <v>35</v>
+      </c>
+      <c r="X32">
+        <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+      <c r="AC32">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="AB32">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AC32">
-        <f ca="1"/>
-        <v>33</v>
-      </c>
       <c r="AD32">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2821,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2871,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2921,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2971,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3021,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3071,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3121,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3171,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3221,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3271,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3321,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3371,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3421,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3471,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3521,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3571,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3621,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3671,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3721,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3771,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3821,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3871,24 +3532,49 @@
         <v>7</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="13" t="str">
+        <f ca="1"/>
+        <v>15-Feb</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="17"/>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="17">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
@@ -4089,7 +3775,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B55:N68 E52:N54 B44:C54 E48:M51 E44:E47 G44:M47">
+  <conditionalFormatting sqref="E44:E47 G44:M47 B44:C54 E48:M51 E52:N54 B55:N68">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(B44)-ROW($B$9),2)</formula>
     </cfRule>
@@ -4101,7 +3787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4153,7 +3839,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="str" cm="1">
-        <f t="array" aca="1" ref="A2:M35" ca="1">data</f>
+        <f t="array" aca="1" ref="A2:M36" ca="1">data</f>
         <v>12-Jan</v>
       </c>
       <c r="B2" s="16">
@@ -6261,6 +5947,60 @@
       <c r="O35">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="str">
+        <f ca="1"/>
+        <v>15-Feb</v>
+      </c>
+      <c r="B36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="16">
+        <f ca="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A018F1D9-52E2-4629-9435-729FC0359CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3FF0E-65B3-46E5-8ACB-1B8EA4F298D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
+    <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
     <definedName name="data">_xlfn.TRIMRANGE(Report!B20:N999,2)</definedName>
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>Figma</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -258,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -491,6 +495,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,7 +535,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -570,6 +598,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -586,7 +624,14 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -833,27 +878,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
-      <tableStyleElement type="pageFieldValues" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1206,9 +1251,9 @@
   <dimension ref="A7:AD68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AD30" sqref="T30:AD30"/>
+      <selection pane="bottomLeft" activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1220,13 +1265,12 @@
     <col min="11" max="13" width="3.33203125" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" style="16" customWidth="1"/>
     <col min="18" max="18" width="19.109375" customWidth="1"/>
-    <col min="19" max="19" width="24.5546875" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" customWidth="1"/>
+    <col min="19" max="30" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:20" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:20" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1272,12 +1316,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="T9" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">T9:T36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="B10:B55" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
@@ -1299,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -1321,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -1343,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -1364,12 +1404,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="T13">
-        <f ca="1">_xlfn.DAYS(TODAY(),DATE(2025,1,1))</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -1391,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -1413,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
@@ -1724,7 +1760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -1774,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -1823,8 +1859,47 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="R26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -1873,8 +1948,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R27" cm="1">
-        <f t="array" aca="1" ref="R27:AD32" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM)</f>
+      <c r="R27" s="24" cm="1">
+        <f t="array" aca="1" ref="R27:AD31" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="S27">
@@ -1975,7 +2050,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="24">
         <f ca="1"/>
         <v>4</v>
       </c>
@@ -2077,7 +2152,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="24">
         <f ca="1"/>
         <v>5</v>
       </c>
@@ -2179,7 +2254,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="24">
         <f ca="1"/>
         <v>6</v>
       </c>
@@ -2281,7 +2356,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="24">
         <f ca="1"/>
         <v>7</v>
       </c>
@@ -2295,7 +2370,7 @@
       </c>
       <c r="U31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V31">
         <f ca="1"/>
@@ -2307,23 +2382,23 @@
       </c>
       <c r="X31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB31">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC31">
         <f ca="1"/>
@@ -2383,58 +2458,6 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R32" t="str">
-        <f ca="1"/>
-        <v>Total</v>
-      </c>
-      <c r="S32">
-        <f ca="1"/>
-        <v>25</v>
-      </c>
-      <c r="T32">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="U32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="V32">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="W32">
-        <f ca="1"/>
-        <v>35</v>
-      </c>
-      <c r="X32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="Y32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="Z32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AA32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AB32">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AC32">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AD32">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="str">
@@ -3548,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="6">
         <v>1</v>
@@ -3556,11 +3579,21 @@
       <c r="G55" s="6">
         <v>1</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+      <c r="J55" s="22">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="10">
+        <v>1</v>
+      </c>
       <c r="M55" s="6">
         <v>1</v>
       </c>
@@ -3573,7 +3606,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -3775,9 +3808,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="E44:E47 G44:M47 B44:C54 E48:M51 E52:N54 B55:N68">
+  <conditionalFormatting sqref="B10:N55">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(B44)-ROW($B$9),2)</formula>
+      <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5964,7 +5997,7 @@
       </c>
       <c r="D36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="16">
         <f ca="1"/>
@@ -5976,23 +6009,23 @@
       </c>
       <c r="G36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="16">
         <f ca="1"/>
@@ -6005,7 +6038,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3FF0E-65B3-46E5-8ACB-1B8EA4F298D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BAA5B-E8AC-4F83-9C2A-8744A193A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
+    <definedName name="Banded2">_xlfn.DROP(_xlfn._TRO_ALL(Report!$R:$AD),1)</definedName>
     <definedName name="data">_xlfn.TRIMRANGE(Report!B20:N999,2)</definedName>
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
@@ -624,7 +625,21 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -878,27 +893,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
-      <tableStyleElement type="pageFieldValues" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="lastColumn" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1251,9 +1266,9 @@
   <dimension ref="A7:AD68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AG26" sqref="AG26"/>
+      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1268,9 +1283,9 @@
     <col min="19" max="30" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:17" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:30" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1316,8 +1331,47 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="B10:B55" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
@@ -1338,8 +1392,60 @@
         <f ca="1">WEEKNUM(B10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="24" cm="1">
+        <f t="array" aca="1" ref="R10:AD14" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM,0,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -1360,8 +1466,60 @@
         <f t="shared" ref="O11:O55" ca="1" si="0">WEEKNUM(B11)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="24">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -1382,8 +1540,60 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="24">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -1404,8 +1614,60 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="24">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -1426,8 +1688,60 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="24">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -1449,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
@@ -1471,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -1493,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
@@ -1515,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
@@ -1537,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
@@ -1560,7 +1874,7 @@
       </c>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
@@ -1610,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -1660,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -1710,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -1760,7 +2074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -1810,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -1859,47 +2173,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD26" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -1948,60 +2223,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R27" s="24" cm="1">
-        <f t="array" aca="1" ref="R27:AD31" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM,0,0)</f>
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="T27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="U27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="V27">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="X27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA27">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB27">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC27">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD27">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -2050,60 +2273,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R28" s="24">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="S28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="T28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="U28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="V28">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="X28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC28">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD28">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -2152,60 +2323,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R29" s="24">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="S29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="T29">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="V29">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="X29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC29">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -2254,60 +2373,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R30" s="24">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="S30">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="T30">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="V30">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="X30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC30">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD30">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -2356,60 +2423,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R31" s="24">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="S31">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="V31">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="X31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="Z31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AB31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC31">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD31">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -3809,8 +3824,13 @@
     <sortCondition ref="T24:T60"/>
   </sortState>
   <conditionalFormatting sqref="B10:N55">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:AD14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(R10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6038,7 +6058,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BAA5B-E8AC-4F83-9C2A-8744A193A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A225A4E-1E4E-4684-9B67-FF7202F20212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to come up with a general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">format that allows me to complete </t>
+  </si>
+  <si>
+    <t>courses and not take a penalty.</t>
   </si>
 </sst>
 </file>
@@ -1263,12 +1272,12 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:AD68"/>
+  <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1283,9 +1292,9 @@
     <col min="19" max="30" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:30" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:30" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:30" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:33" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:33" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="B10:B55" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
@@ -1445,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -1518,8 +1527,11 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -1592,8 +1604,11 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -1666,8 +1681,11 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -1741,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -1763,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
         <f ca="1"/>
         <v>07-Jan</v>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A225A4E-1E4E-4684-9B67-FF7202F20212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36324FC6-E676-48B2-9DC6-082D983337F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -20,10 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
     <definedName name="Banded2">_xlfn.DROP(_xlfn._TRO_ALL(Report!$R:$AD),1)</definedName>
-    <definedName name="data">_xlfn.TRIMRANGE(Report!B20:N999,2)</definedName>
+    <definedName name="data">_xlfn.DROP(Banded,11,1)</definedName>
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+    <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!XFB:XFB),11)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -272,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -529,6 +530,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -608,15 +620,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -634,28 +646,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -902,27 +893,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
+      <tableStyleElement type="pageFieldValues" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1277,7 +1268,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AG13" sqref="AG13"/>
+      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1340,10 +1331,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3" t="s">
@@ -1382,7 +1373,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B55" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B56" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1401,8 +1392,8 @@
         <f ca="1">WEEKNUM(B10)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="24" cm="1">
-        <f t="array" aca="1" ref="R10:AD14" ca="1">_xlfn.PIVOTBY(O21:O55,,fmt,_xleta.SUM,0,0)</f>
+      <c r="R10" s="23" cm="1">
+        <f t="array" aca="1" ref="R10:AD15" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="S10">
@@ -1472,10 +1463,10 @@
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
       <c r="O11">
-        <f t="shared" ref="O11:O55" ca="1" si="0">WEEKNUM(B11)</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="24">
+        <f t="shared" ref="O11:O56" ca="1" si="0">WEEKNUM(B11)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="23">
         <f ca="1"/>
         <v>4</v>
       </c>
@@ -1552,7 +1543,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="23">
         <f ca="1"/>
         <v>5</v>
       </c>
@@ -1629,7 +1620,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="23">
         <f ca="1"/>
         <v>6</v>
       </c>
@@ -1706,7 +1697,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="23">
         <f ca="1"/>
         <v>7</v>
       </c>
@@ -1780,6 +1771,58 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
+      <c r="R15" s="23">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
@@ -1988,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P55" si="1">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P56" si="1">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3618,7 +3661,7 @@
       <c r="I55" s="6">
         <v>1</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="6">
         <v>1</v>
       </c>
       <c r="K55" s="6">
@@ -3643,19 +3686,54 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="17"/>
+      <c r="B56" s="13" t="str">
+        <f ca="1"/>
+        <v>16-Feb</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="N56" s="25">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
@@ -3841,14 +3919,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:N55">
+  <conditionalFormatting sqref="B10:N56">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(B10)-ROW($B$9),2)</formula>
+      <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:AD14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(R10)-ROW($R$9),2)</formula>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3858,7 +3941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -3909,189 +3992,142 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="str" cm="1">
-        <f t="array" aca="1" ref="A2:M36" ca="1">data</f>
-        <v>12-Jan</v>
+      <c r="A2" s="16" cm="1">
+        <f t="array" ref="A2:L37">data</f>
+        <v>1</v>
       </c>
       <c r="B2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D2" s="16">
-        <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="16">
-        <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I2" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J2" s="16">
-        <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="L2" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f ca="1">WEEKNUM(A2)</f>
-        <v>3</v>
+        <f>WEEKNUM(A2)</f>
+        <v>1</v>
       </c>
       <c r="O2">
-        <f ca="1">SUM(B2:M2)</f>
+        <f>SUM(B2:M2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N35" si="0">WEEKNUM(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O35" si="1">SUM(B3:M3)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="str">
-        <f ca="1"/>
-        <v>13-Jan</v>
-      </c>
-      <c r="B3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N35" ca="1" si="0">WEEKNUM(A3)</f>
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O35" ca="1" si="1">SUM(B3:M3)</f>
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="str">
-        <f ca="1"/>
-        <v>14-Jan</v>
+      <c r="A4" s="16">
+        <v>1</v>
       </c>
       <c r="B4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K4" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L4" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O4">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="Q4" t="e" cm="1" vm="1">
         <f t="array" ref="Q4">_xlfn.PIVOTBY(N2:N35,S1:AD1,B2:M35,_xleta.SUM)</f>
@@ -4099,1984 +4135,1510 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="str">
-        <f ca="1"/>
-        <v>15-Jan</v>
+      <c r="A5" s="16">
+        <v>1</v>
       </c>
       <c r="B5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K5" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L5" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O5">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="str">
-        <f ca="1"/>
-        <v>16-Jan</v>
+      <c r="A6" s="16">
+        <v>1</v>
       </c>
       <c r="B6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D6" s="16">
-        <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16">
-        <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K6" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="str">
-        <f ca="1"/>
-        <v>17-Jan</v>
-      </c>
-      <c r="B7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="str">
-        <f ca="1"/>
-        <v>18-Jan</v>
+      <c r="A8" s="16">
+        <v>1</v>
       </c>
       <c r="B8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K8" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
-        <f ca="1"/>
-        <v>19-Jan</v>
+      <c r="A9" s="16">
+        <v>1</v>
       </c>
       <c r="B9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="str">
-        <f ca="1"/>
-        <v>20-Jan</v>
+      <c r="A10" s="16">
+        <v>1</v>
       </c>
       <c r="B10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D10" s="16">
-        <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
-        <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>1</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="str">
-        <f ca="1"/>
-        <v>21-Jan</v>
-      </c>
-      <c r="B11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="1"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="str">
-        <f ca="1"/>
-        <v>22-Jan</v>
-      </c>
-      <c r="B12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="1"/>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
-        <f ca="1"/>
-        <v>23-Jan</v>
-      </c>
-      <c r="B13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="str">
-        <f ca="1"/>
-        <v>24-Jan</v>
-      </c>
-      <c r="B14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
-        <f ca="1"/>
-        <v>25-Jan</v>
-      </c>
-      <c r="B15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="str">
-        <f ca="1"/>
-        <v>26-Jan</v>
+      <c r="A16" s="16">
+        <v>1</v>
       </c>
       <c r="B16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K16" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
-        <f ca="1"/>
-        <v>27-Jan</v>
+      <c r="A17" s="16">
+        <v>1</v>
       </c>
       <c r="B17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L17" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="str">
-        <f ca="1"/>
-        <v>28-Jan</v>
+      <c r="A18" s="16">
+        <v>1</v>
       </c>
       <c r="B18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="C18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="D18" s="16">
-        <f ca="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="16">
-        <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L18" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="O18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>0</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>0</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>0</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>0</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>0</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
-        <f ca="1"/>
-        <v>29-Jan</v>
-      </c>
-      <c r="B19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="1"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="16">
+        <v>1</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="str">
-        <f ca="1"/>
-        <v>30-Jan</v>
-      </c>
-      <c r="B20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
-        <f ca="1"/>
-        <v>31-Jan</v>
-      </c>
-      <c r="B21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
-        <f ca="1"/>
-        <v>01-Feb</v>
-      </c>
-      <c r="B22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="str">
-        <f ca="1"/>
-        <v>02-Feb</v>
-      </c>
-      <c r="B23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C23" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="str">
-        <f ca="1"/>
-        <v>03-Feb</v>
-      </c>
-      <c r="B24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E24" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
-        <f ca="1"/>
-        <v>04-Feb</v>
-      </c>
-      <c r="B25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="str">
-        <f ca="1"/>
-        <v>05-Feb</v>
-      </c>
-      <c r="B26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C26" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="str">
-        <f ca="1"/>
-        <v>06-Feb</v>
-      </c>
-      <c r="B27" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="str">
-        <f ca="1"/>
-        <v>07-Feb</v>
-      </c>
-      <c r="B28" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="str">
-        <f ca="1"/>
-        <v>08-Feb</v>
-      </c>
-      <c r="B29" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="str">
-        <f ca="1"/>
-        <v>09-Feb</v>
-      </c>
-      <c r="B30" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="str">
-        <f ca="1"/>
-        <v>10-Feb</v>
-      </c>
-      <c r="B31" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="str">
-        <f ca="1"/>
-        <v>11-Feb</v>
-      </c>
-      <c r="B32" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="str">
-        <f ca="1"/>
-        <v>12-Feb</v>
-      </c>
-      <c r="B33" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M33" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="str">
-        <f ca="1"/>
-        <v>13-Feb</v>
-      </c>
-      <c r="B34" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="str">
-        <f ca="1"/>
-        <v>14-Feb</v>
-      </c>
-      <c r="B35" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="str">
-        <f ca="1"/>
-        <v>15-Feb</v>
+      <c r="A36" s="16">
+        <v>0</v>
       </c>
       <c r="B36" s="16">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="C36" s="16">
-        <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="E36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="F36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="G36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="I36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="J36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="K36" s="16">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="L36" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="M36" s="16">
-        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>1</v>
+      </c>
+      <c r="L37" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36324FC6-E676-48B2-9DC6-082D983337F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F8FA3-FA6C-4BF1-B731-F626EAB6C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
     <definedName name="Banded2">_xlfn.DROP(_xlfn._TRO_ALL(Report!$R:$AD),1)</definedName>
     <definedName name="data">_xlfn.DROP(Banded,11,1)</definedName>
+    <definedName name="Dynamic">_xlfn.VSTACK(Report!$R$9:$AD$9,Banded2)</definedName>
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -646,7 +647,21 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,27 +908,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
-      <tableStyleElement type="pageFieldValues" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -937,6 +952,77 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>30</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C580AA-3614-ECFD-1AC8-7A7A416D4E34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5798820" y="9311640"/>
+              <a:ext cx="4061460" cy="2545080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1259,16 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
   <dimension ref="A7:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="AG60" sqref="AG60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1869,7 @@
       </c>
       <c r="U15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <f ca="1"/>
@@ -1793,27 +1877,27 @@
       </c>
       <c r="W15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <f ca="1"/>
@@ -3697,28 +3781,28 @@
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="6">
         <v>1</v>
@@ -3732,7 +3816,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -3920,12 +4004,12 @@
     <sortCondition ref="T24:T60"/>
   </sortState>
   <conditionalFormatting sqref="B10:N56">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q58">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3934,8 +4018,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R10:AD15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(F5)-ROW($R$9),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5606,28 +5697,28 @@
         <v>0</v>
       </c>
       <c r="C37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="16">
         <v>0</v>
       </c>
       <c r="E37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="16">
         <v>1</v>
@@ -5638,7 +5729,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F8FA3-FA6C-4BF1-B731-F626EAB6C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C5C38-275C-48C6-A035-6677D00A28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -647,14 +647,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -908,27 +901,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -981,7 +974,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2055"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2056"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1351,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A7:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="AG60" sqref="AG60"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1866,7 @@
       </c>
       <c r="V15">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <f ca="1"/>
@@ -3784,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="6">
         <v>1</v>
@@ -3816,7 +3809,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -4004,7 +3997,7 @@
     <sortCondition ref="T24:T60"/>
   </sortState>
   <conditionalFormatting sqref="B10:N56">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4019,7 +4012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:AD15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(F5)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="16">
         <v>1</v>
@@ -5729,7 +5722,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C5C38-275C-48C6-A035-6677D00A28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7B2AD-EAF1-4038-AADC-61A1EB0B267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_date">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$B),12)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
     <definedName name="Banded2">_xlfn.DROP(_xlfn._TRO_ALL(Report!$R:$AD),1)</definedName>
@@ -25,7 +26,7 @@
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
-    <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!XFB:XFB),11)</definedName>
+    <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$O:$O),0)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -974,7 +975,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2056"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2063"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1344,8 +1345,10 @@
   </sheetPr>
   <dimension ref="A7:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B56" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B57" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1465,10 +1468,6 @@
       <c r="L10" s="10"/>
       <c r="M10" s="19"/>
       <c r="N10" s="18"/>
-      <c r="O10">
-        <f ca="1">WEEKNUM(B10)</f>
-        <v>1</v>
-      </c>
       <c r="R10" s="23" cm="1">
         <f t="array" aca="1" ref="R10:AD15" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
@@ -1539,10 +1538,6 @@
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
-      <c r="O11">
-        <f t="shared" ref="O11:O56" ca="1" si="0">WEEKNUM(B11)</f>
-        <v>1</v>
-      </c>
       <c r="R11" s="23">
         <f ca="1"/>
         <v>4</v>
@@ -1616,10 +1611,6 @@
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="17"/>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="R12" s="23">
         <f ca="1"/>
         <v>5</v>
@@ -1693,10 +1684,6 @@
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="17"/>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
       <c r="R13" s="23">
         <f ca="1"/>
         <v>6</v>
@@ -1770,10 +1757,6 @@
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
       <c r="N14" s="17"/>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="R14" s="23">
         <f ca="1"/>
         <v>7</v>
@@ -1844,61 +1827,57 @@
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
       <c r="N15" s="17"/>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R15" s="23">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="R15" s="23">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="S15">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
       <c r="V15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -1918,10 +1897,6 @@
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
       <c r="N16" s="17"/>
-      <c r="O16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
@@ -1940,10 +1915,6 @@
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
       <c r="N17" s="17"/>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
@@ -1962,10 +1933,6 @@
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
       <c r="N18" s="17"/>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="str">
@@ -1984,10 +1951,6 @@
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
       <c r="N19" s="17"/>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="str">
@@ -2006,10 +1969,6 @@
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
       <c r="N20" s="17"/>
-      <c r="O20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -2053,8 +2012,8 @@
       <c r="N21" s="17">
         <v>0</v>
       </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O21" cm="1">
+        <f t="array" aca="1" ref="O21:O57" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2104,11 +2063,11 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P56" si="1">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P57" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -2154,11 +2113,11 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2204,11 +2163,11 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2254,11 +2213,11 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2304,11 +2263,11 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2354,11 +2313,11 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2404,11 +2363,11 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2454,11 +2413,11 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2504,11 +2463,11 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2554,11 +2513,11 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2604,11 +2563,11 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2654,11 +2613,11 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2704,11 +2663,11 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>4</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2754,11 +2713,11 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2804,11 +2763,11 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2854,11 +2813,11 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2904,11 +2863,11 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2954,11 +2913,11 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3004,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3054,11 +3013,11 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>5</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3104,11 +3063,11 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3154,11 +3113,11 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3204,11 +3163,11 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3254,11 +3213,11 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3304,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3354,11 +3313,11 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3404,11 +3363,11 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>6</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3454,11 +3413,11 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3504,11 +3463,11 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3554,11 +3513,11 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3604,11 +3563,11 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3654,11 +3613,11 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3704,11 +3663,11 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3754,11 +3713,11 @@
         <v>1</v>
       </c>
       <c r="O55">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>7</v>
       </c>
       <c r="P55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3804,28 +3763,63 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1"/>
         <v>8</v>
       </c>
       <c r="P56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="17"/>
+      <c r="B57" s="13" t="str">
+        <f ca="1"/>
+        <v>17-Feb</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="K57" s="10">
+        <v>1</v>
+      </c>
+      <c r="L57" s="10">
+        <v>1</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="17">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
@@ -4025,7 +4019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4077,7 +4071,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L37">data</f>
+        <f t="array" ref="A2:L38">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -5717,6 +5711,44 @@
         <v>1</v>
       </c>
       <c r="L37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="16">
+        <v>1</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1</v>
+      </c>
+      <c r="K38" s="16">
+        <v>1</v>
+      </c>
+      <c r="L38" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7B2AD-EAF1-4038-AADC-61A1EB0B267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982111B8-208C-4BEA-BC92-E92D49A76523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -621,7 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -630,6 +629,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2063"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2068"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1346,9 +1348,9 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1362,7 @@
     <col min="11" max="13" width="3.33203125" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" style="16" customWidth="1"/>
     <col min="18" max="18" width="19.109375" customWidth="1"/>
-    <col min="19" max="30" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="3.33203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:33" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1411,10 +1413,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3" t="s">
@@ -1453,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B57" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B58" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1468,55 +1470,55 @@
       <c r="L10" s="10"/>
       <c r="M10" s="19"/>
       <c r="N10" s="18"/>
-      <c r="R10" s="23" cm="1">
+      <c r="R10" s="22" cm="1">
         <f t="array" aca="1" ref="R10:AD15" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="16">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="16">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1538,55 +1540,55 @@
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
       <c r="N11" s="17"/>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1611,55 +1613,55 @@
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
       <c r="N12" s="17"/>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="16">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1684,55 +1686,55 @@
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
       <c r="N13" s="17"/>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T13">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="T13" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="16">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1757,55 +1759,55 @@
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
       <c r="N14" s="17"/>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="S14">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="S14" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="16">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="16">
         <f ca="1"/>
         <v>4</v>
       </c>
@@ -1827,57 +1829,57 @@
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
       <c r="N15" s="17"/>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="S15">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
+      <c r="S15" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="16">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="V15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <f ca="1"/>
-        <v>2</v>
+      <c r="W15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="16">
+        <f ca="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -1969,7 +1971,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
       <c r="N20" s="17"/>
-      <c r="S20" s="21"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="str">
@@ -2013,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O57" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O58" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2067,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P57" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P58" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3759,7 +3761,7 @@
       <c r="M56" s="6">
         <v>1</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="24">
         <v>1</v>
       </c>
       <c r="O56">
@@ -3822,19 +3824,54 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="17"/>
+      <c r="B58" s="13" t="str">
+        <f ca="1"/>
+        <v>18-Feb</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="10">
+        <v>1</v>
+      </c>
+      <c r="L58" s="10">
+        <v>1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1</v>
+      </c>
+      <c r="N58" s="17">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
@@ -4019,7 +4056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4071,7 +4108,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L38">data</f>
+        <f t="array" ref="A2:L39">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -5749,6 +5786,44 @@
         <v>1</v>
       </c>
       <c r="L38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>1</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16">
+        <v>1</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1</v>
+      </c>
+      <c r="J39" s="16">
+        <v>1</v>
+      </c>
+      <c r="K39" s="16">
+        <v>1</v>
+      </c>
+      <c r="L39" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982111B8-208C-4BEA-BC92-E92D49A76523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007CA83-CFB6-42F9-9D2C-B046775C45FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -977,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2068"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1348,9 +1348,9 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AE6" sqref="AE6"/>
+      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B58" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B59" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="U15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" s="16">
         <f ca="1"/>
@@ -1851,35 +1851,35 @@
       </c>
       <c r="W15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O58" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O59" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P58" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P59" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3874,19 +3874,54 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="17"/>
+      <c r="B59" s="13" t="str">
+        <f ca="1"/>
+        <v>19-Feb</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="10">
+        <v>1</v>
+      </c>
+      <c r="L59" s="10">
+        <v>1</v>
+      </c>
+      <c r="M59" s="6">
+        <v>1</v>
+      </c>
+      <c r="N59" s="17">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
@@ -4056,7 +4091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4108,7 +4143,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L39">data</f>
+        <f t="array" ref="A2:L40">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -5824,6 +5859,44 @@
         <v>1</v>
       </c>
       <c r="L39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>0</v>
+      </c>
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <v>1</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1</v>
+      </c>
+      <c r="J40" s="16">
+        <v>1</v>
+      </c>
+      <c r="K40" s="16">
+        <v>1</v>
+      </c>
+      <c r="L40" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007CA83-CFB6-42F9-9D2C-B046775C45FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60002512-F9D3-4E80-BE06-34115E9CB163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -977,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2073"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1348,9 +1348,9 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B59" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B60" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1839,11 +1839,11 @@
       </c>
       <c r="T15" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" s="16">
         <f ca="1"/>
@@ -1851,35 +1851,35 @@
       </c>
       <c r="W15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O59" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O60" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P59" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P60" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3924,19 +3924,54 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="17"/>
+      <c r="B60" s="13" t="str">
+        <f ca="1"/>
+        <v>20-Feb</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="10">
+        <v>1</v>
+      </c>
+      <c r="L60" s="10">
+        <v>1</v>
+      </c>
+      <c r="M60" s="6">
+        <v>1</v>
+      </c>
+      <c r="N60" s="17">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
@@ -4091,7 +4126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4143,7 +4178,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L40">data</f>
+        <f t="array" ref="A2:L41">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -5897,6 +5932,44 @@
         <v>1</v>
       </c>
       <c r="L40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>0</v>
+      </c>
+      <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1</v>
+      </c>
+      <c r="H41" s="16">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1</v>
+      </c>
+      <c r="J41" s="16">
+        <v>1</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+      <c r="L41" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60002512-F9D3-4E80-BE06-34115E9CB163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C6437-CE0B-4C02-975D-82FFC49625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -977,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2078"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2085"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1350,7 +1350,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B60" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B61" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1843,43 +1843,43 @@
       </c>
       <c r="U15" s="16">
         <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="V15" s="16">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="W15" s="16">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="X15" s="16">
+        <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="V15" s="16">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W15" s="16">
+      <c r="Y15" s="16">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="X15" s="16">
+      <c r="Z15" s="16">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="AA15" s="16">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="Y15" s="16">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="Z15" s="16">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="AA15" s="16">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
       <c r="AB15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O60" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O61" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P60" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P61" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3974,19 +3974,54 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="17"/>
+      <c r="B61" s="13" t="str">
+        <f ca="1"/>
+        <v>21-Feb</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
+        <v>1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1</v>
+      </c>
+      <c r="N61" s="17">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
@@ -4126,7 +4161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4178,7 +4213,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L41">data</f>
+        <f t="array" ref="A2:L42">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -5970,6 +6005,44 @@
         <v>1</v>
       </c>
       <c r="L41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>0</v>
+      </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>1</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>1</v>
+      </c>
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C6437-CE0B-4C02-975D-82FFC49625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{72BD2B2A-D3EC-4F8F-BF9D-B19C3196ED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-27045" yWindow="1875" windowWidth="21720" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -902,7 +903,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
@@ -954,15 +955,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -977,7 +978,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2085"/>
+                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2094"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -991,8 +992,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5798820" y="9311640"/>
-              <a:ext cx="4061460" cy="2545080"/>
+              <a:off x="5800725" y="9477375"/>
+              <a:ext cx="4057650" cy="2552700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1348,9 +1349,9 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1456,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B61" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B62" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1847,39 +1848,39 @@
       </c>
       <c r="V15" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA15" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -2015,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O61" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O62" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2069,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P61" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P62" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -3994,16 +3995,16 @@
         <v>1</v>
       </c>
       <c r="H61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <v>1</v>
       </c>
       <c r="K61" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="10">
         <v>1</v>
@@ -4020,23 +4021,58 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="17"/>
+      <c r="B62" s="13" t="str">
+        <f ca="1"/>
+        <v>22-Feb</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1</v>
+      </c>
+      <c r="K62" s="10">
+        <v>1</v>
+      </c>
+      <c r="L62" s="10">
+        <v>1</v>
+      </c>
+      <c r="M62" s="6">
+        <v>1</v>
+      </c>
+      <c r="N62" s="17">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
@@ -4161,7 +4197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4213,7 +4249,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L42">data</f>
+        <f t="array" ref="A2:L43">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6025,16 +6061,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="16">
         <v>1</v>
       </c>
       <c r="I42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="16">
         <v>1</v>
@@ -6043,6 +6079,44 @@
         <v>1</v>
       </c>
       <c r="L42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>0</v>
+      </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <v>1</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1</v>
+      </c>
+      <c r="J43" s="16">
+        <v>1</v>
+      </c>
+      <c r="K43" s="16">
+        <v>1</v>
+      </c>
+      <c r="L43" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{72BD2B2A-D3EC-4F8F-BF9D-B19C3196ED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{88C23459-CB65-4AD4-AF11-0D5C7CEF7E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="1875" windowWidth="21720" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$O:$O),0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$B$9:$M$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn._TRO_ALL(Report!$R:$AD)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -955,14 +955,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>11430</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -978,7 +978,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$9:$AD$15" spid="_x0000_s2094"/>
+                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -992,8 +992,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5800725" y="9477375"/>
-              <a:ext cx="4057650" cy="2552700"/>
+              <a:off x="5802630" y="9479280"/>
+              <a:ext cx="4057650" cy="2724150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1348,10 +1348,9 @@
   </sheetPr>
   <dimension ref="A7:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B62" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B63" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1472,7 +1471,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="18"/>
       <c r="R10" s="22" cm="1">
-        <f t="array" aca="1" ref="R10:AD15" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
+        <f t="array" aca="1" ref="R10:AD16" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="S10" s="16">
@@ -1900,6 +1899,58 @@
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
       <c r="N16" s="17"/>
+      <c r="R16" s="22">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="S16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
@@ -2016,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O62" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O63" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2070,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P62" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P63" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4075,19 +4126,54 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="17"/>
+      <c r="B63" s="13" t="str">
+        <f ca="1"/>
+        <v>23-Feb</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="10">
+        <v>1</v>
+      </c>
+      <c r="L63" s="10">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="17">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
@@ -4197,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4249,7 +4335,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L43">data</f>
+        <f t="array" ref="A2:L44">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6117,6 +6203,44 @@
         <v>1</v>
       </c>
       <c r="L43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>0</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{88C23459-CB65-4AD4-AF11-0D5C7CEF7E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B99E0-C183-4302-A803-BF5EBE216FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11244" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn._TRO_ALL(Report!$R:$AD)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -978,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2100"/>
+                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2104"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1349,8 +1348,8 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
+      <pane ySplit="9" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1912,7 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="16">
         <f ca="1"/>
@@ -1925,11 +1924,11 @@
       </c>
       <c r="X16" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="16">
         <f ca="1"/>
@@ -1941,7 +1940,7 @@
       </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
@@ -4137,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="6">
         <v>1</v>
@@ -4146,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4158,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
@@ -4172,7 +4171,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -6214,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
@@ -6223,10 +6222,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="16">
         <v>1</v>
@@ -6235,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="16">
         <v>1</v>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B99E0-C183-4302-A803-BF5EBE216FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935E265-5676-439E-916C-E7EC7CF5DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11244" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2104"/>
+                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2111"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1348,8 +1348,8 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <pane ySplit="9" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B63" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B64" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="U15" s="16">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15" s="16">
         <f ca="1"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="16">
         <f ca="1"/>
@@ -1920,35 +1920,35 @@
       </c>
       <c r="W16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O63" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O64" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P63" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P64" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6">
         <v>1</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
@@ -4175,19 +4175,54 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="17"/>
+      <c r="B64" s="13" t="str">
+        <f ca="1"/>
+        <v>24-Feb</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="10">
+        <v>1</v>
+      </c>
+      <c r="L64" s="10">
+        <v>1</v>
+      </c>
+      <c r="M64" s="6">
+        <v>1</v>
+      </c>
+      <c r="N64" s="17">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
@@ -4282,7 +4317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4334,7 +4369,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L44">data</f>
+        <f t="array" ref="A2:L45">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6175,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
@@ -6240,6 +6275,44 @@
         <v>1</v>
       </c>
       <c r="L44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>0</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1</v>
+      </c>
+      <c r="L45" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935E265-5676-439E-916C-E7EC7CF5DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC9C1BB-4265-4DE5-84B6-491AE477014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -977,7 +977,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2111"/>
+                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2120"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1349,7 +1349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B64" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B65" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V16" s="16">
         <f ca="1"/>
@@ -1920,35 +1920,35 @@
       </c>
       <c r="W16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="16">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O64" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O65" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P64" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P65" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4224,22 +4224,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="17"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="str">
+        <f ca="1"/>
+        <v>25-Feb</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="10">
+        <v>1</v>
+      </c>
+      <c r="L65" s="10">
+        <v>1</v>
+      </c>
+      <c r="M65" s="6">
+        <v>1</v>
+      </c>
+      <c r="N65" s="17">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -4254,7 +4289,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -4269,7 +4304,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="14"/>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -4317,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4369,7 +4404,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L45">data</f>
+        <f t="array" ref="A2:L46">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6313,6 +6348,44 @@
         <v>1</v>
       </c>
       <c r="L45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>0</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="16">
+        <v>1</v>
+      </c>
+      <c r="J46" s="16">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+      <c r="L46" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC9C1BB-4265-4DE5-84B6-491AE477014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{618424EE-1304-4ECB-B6D2-586F8720510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="10212" yWindow="0" windowWidth="23304" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn._TRO_ALL(Report!$R:$AD)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -977,7 +978,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2120"/>
+                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1348,8 +1349,8 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B65" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B66" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1912,43 +1913,43 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="V16" s="16">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="16">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="X16" s="16">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="V16" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="16">
+      <c r="Y16" s="16">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="X16" s="16">
+      <c r="Z16" s="16">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA16" s="16">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="Y16" s="16">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="Z16" s="16">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="AA16" s="16">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O65" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O66" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2120,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P65" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P66" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4275,19 +4276,54 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="17"/>
+      <c r="B66" s="13" t="str">
+        <f ca="1"/>
+        <v>26-Feb</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
+        <v>1</v>
+      </c>
+      <c r="M66" s="6">
+        <v>1</v>
+      </c>
+      <c r="N66" s="17">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
@@ -4352,7 +4388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4404,7 +4440,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L46">data</f>
+        <f t="array" ref="A2:L47">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6386,6 +6422,44 @@
         <v>1</v>
       </c>
       <c r="L46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>0</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+      <c r="L47" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{618424EE-1304-4ECB-B6D2-586F8720510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCE07A-3E7E-4261-9EE2-2F79FF401150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="0" windowWidth="23304" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,16 @@
     <definedName name="_date">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$B),12)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$R$24:$R$60</definedName>
     <definedName name="Banded">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
-    <definedName name="Banded2">_xlfn.DROP(_xlfn._TRO_ALL(Report!$R:$AD),1)</definedName>
+    <definedName name="Banded2">_xlfn._TRO_ALL(Report!$R:$AD)</definedName>
     <definedName name="data">_xlfn.DROP(Banded,11,1)</definedName>
     <definedName name="Dynamic">_xlfn.VSTACK(Report!$R$9:$AD$9,Banded2)</definedName>
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$N),12)</definedName>
     <definedName name="fmt" localSheetId="1">_xlfn._TRO_ALL(Summary!$A:$M)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$O:$O),0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn._TRO_ALL(Report!$R:$AD)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$N),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,7 +559,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -635,6 +634,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -651,7 +653,21 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -905,27 +921,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
-      <tableStyleElement type="pageFieldValues" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="lastColumn" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -955,22 +971,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>11430</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>11430</xdr:rowOff>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Picture 1">
+            <xdr:cNvPr id="3" name="Picture 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C580AA-3614-ECFD-1AC8-7A7A416D4E34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6478622-C192-87A1-49BB-E0E23BECEFCE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -978,7 +994,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="_xlnm.Print_Area" spid="_x0000_s2123"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2132"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -992,8 +1008,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5802630" y="9479280"/>
-              <a:ext cx="4057650" cy="2724150"/>
+              <a:off x="5821680" y="4953000"/>
+              <a:ext cx="4053840" cy="2705100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1349,8 +1365,8 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1471,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B66" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B67" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1913,43 +1929,43 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" s="16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="16">
         <f ca="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="16">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -2067,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O66" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O67" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2121,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P66" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P68" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4296,16 +4312,16 @@
         <v>1</v>
       </c>
       <c r="H66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="6">
         <v>1</v>
       </c>
       <c r="K66" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="10">
         <v>1</v>
@@ -4322,23 +4338,58 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="17"/>
+      <c r="B67" s="13" t="str">
+        <f ca="1"/>
+        <v>27-Feb</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1</v>
+      </c>
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="26">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="14"/>
@@ -4354,13 +4405,17 @@
       <c r="L68" s="11"/>
       <c r="M68" s="8"/>
       <c r="N68" s="20"/>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:N56">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="B10:N67">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4375,7 +4430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:AD15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(F5)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4388,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4440,7 +4495,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L47">data</f>
+        <f t="array" ref="A2:L48">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6442,16 +6497,16 @@
         <v>1</v>
       </c>
       <c r="F47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="16">
         <v>1</v>
       </c>
       <c r="I47" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="16">
         <v>1</v>
@@ -6460,12 +6515,50 @@
         <v>1</v>
       </c>
       <c r="L47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>0</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16">
+        <v>1</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1</v>
+      </c>
+      <c r="J48" s="16">
+        <v>1</v>
+      </c>
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+      <c r="L48" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCE07A-3E7E-4261-9EE2-2F79FF401150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FC25F6-6DD3-4640-AABA-E3BBCA1BFC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -653,21 +653,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -921,27 +907,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -971,15 +957,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>33020</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>5080</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>34290</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -994,7 +980,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2132"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2140"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1008,8 +994,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5821680" y="4953000"/>
-              <a:ext cx="4053840" cy="2705100"/>
+              <a:off x="5824220" y="4907280"/>
+              <a:ext cx="4051300" cy="2692400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1365,8 +1351,8 @@
   <dimension ref="A7:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <pane ySplit="9" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD52" sqref="AD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1457,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B67" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B68" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1929,7 +1915,7 @@
       </c>
       <c r="U16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V16" s="16">
         <f ca="1"/>
@@ -1937,35 +1923,35 @@
       </c>
       <c r="W16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="16">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -2083,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O67" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O68" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -4392,22 +4378,53 @@
       </c>
     </row>
     <row r="68" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="20"/>
+      <c r="B68" s="14" t="str">
+        <f ca="1"/>
+        <v>28-Feb</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
+      <c r="H68" s="8">
+        <v>1</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1</v>
+      </c>
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+      <c r="K68" s="11">
+        <v>1</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1</v>
+      </c>
+      <c r="M68" s="8">
+        <v>1</v>
+      </c>
+      <c r="N68" s="20">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
       <c r="P68">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4432,7 @@
     <sortCondition ref="T24:T60"/>
   </sortState>
   <conditionalFormatting sqref="B10:N67">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4430,7 +4447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:AD15">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(F5)-ROW($R$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4443,7 +4460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4495,7 +4512,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L48">data</f>
+        <f t="array" ref="A2:L49">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6556,9 +6573,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>0</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16">
+        <v>1</v>
+      </c>
+      <c r="J49" s="16">
+        <v>1</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+      <c r="L49" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M35">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(A2)-ROW($A$1),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FC25F6-6DD3-4640-AABA-E3BBCA1BFC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B6863-35F7-4FF4-A701-66393D680DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-31970" yWindow="550" windowWidth="28800" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -441,34 +441,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,6 +521,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -559,7 +550,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -579,19 +570,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,39 +585,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -957,15 +943,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>33020</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>5080</xdr:rowOff>
+          <xdr:colOff>8890</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>156210</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>34290</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>8890</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>11430</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -980,7 +966,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2140"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -994,8 +980,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5824220" y="4907280"/>
-              <a:ext cx="4051300" cy="2692400"/>
+              <a:off x="5800090" y="9795510"/>
+              <a:ext cx="4053840" cy="2705100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1348,11 +1334,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:AG68"/>
+  <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD52" sqref="AD52"/>
+      <pane ySplit="9" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1362,9 +1348,9 @@
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="8" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="3.33203125" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="13" customWidth="1"/>
     <col min="18" max="18" width="19.109375" customWidth="1"/>
-    <col min="19" max="30" width="3.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="3.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:33" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1400,25 +1386,25 @@
       <c r="J9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="17" t="s">
         <v>2</v>
       </c>
       <c r="T9" s="3" t="s">
@@ -1442,22 +1428,22 @@
       <c r="Z9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="AB9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD9" s="15" t="s">
+      <c r="AD9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B68" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+      <c r="B10" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B10:B69" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1468,65 +1454,65 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="R10" s="22" cm="1">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="R10" s="18" cm="1">
         <f t="array" aca="1" ref="R10:AD16" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="13">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AD10" s="13">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="10" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
       </c>
@@ -1538,59 +1524,59 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="17"/>
-      <c r="R11" s="22">
+      <c r="N11" s="14"/>
+      <c r="R11" s="18">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AD11" s="13">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1599,7 +1585,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="10" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
       </c>
@@ -1611,59 +1597,59 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="17"/>
-      <c r="R12" s="22">
+      <c r="N12" s="14"/>
+      <c r="R12" s="18">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="13">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AD12" s="13">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1672,7 +1658,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="10" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
       </c>
@@ -1684,59 +1670,59 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="17"/>
-      <c r="R13" s="22">
+      <c r="N13" s="14"/>
+      <c r="R13" s="18">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T13" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="16">
+      <c r="T13" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="13">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AD13" s="13">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1745,7 +1731,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="str">
+      <c r="B14" s="10" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
       </c>
@@ -1757,65 +1743,65 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="17"/>
-      <c r="R14" s="22">
+      <c r="N14" s="14"/>
+      <c r="R14" s="18">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="S14" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="16">
+      <c r="S14" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AD14" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="10" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
       </c>
@@ -1827,65 +1813,65 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="17"/>
-      <c r="R15" s="22">
+      <c r="N15" s="14"/>
+      <c r="R15" s="18">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="S15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="16">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="16">
+      <c r="S15" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="13">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="Z15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AB15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AC15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AD15" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="str">
+      <c r="B16" s="10" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
       </c>
@@ -1897,65 +1883,65 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="17"/>
-      <c r="R16" s="22">
+      <c r="N16" s="14"/>
+      <c r="R16" s="18">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="S16" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="16">
+      <c r="S16" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="V16" s="16">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W16" s="16">
+      <c r="V16" s="13">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="W16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AB16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="13">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="AD16" s="16">
-        <f ca="1"/>
-        <v>6</v>
+      <c r="AD16" s="13">
+        <f ca="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="10" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
       </c>
@@ -1967,13 +1953,13 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="17"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="10" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
       </c>
@@ -1985,13 +1971,13 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="17"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="10" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
       </c>
@@ -2003,13 +1989,13 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="17"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="10" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
       </c>
@@ -2021,14 +2007,14 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="17"/>
-      <c r="S20" s="25"/>
+      <c r="N20" s="14"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="10" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
       </c>
@@ -2056,20 +2042,20 @@
       <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
         <v>0</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="14">
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O68" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O69" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2078,7 +2064,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="str">
+      <c r="B22" s="10" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
       </c>
@@ -2106,16 +2092,16 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
         <v>0</v>
       </c>
       <c r="M22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="14">
         <v>0</v>
       </c>
       <c r="O22">
@@ -2128,7 +2114,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="str">
+      <c r="B23" s="10" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
       </c>
@@ -2156,16 +2142,16 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
         <v>1</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="14">
         <v>0</v>
       </c>
       <c r="O23">
@@ -2178,7 +2164,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="str">
+      <c r="B24" s="10" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
       </c>
@@ -2206,16 +2192,16 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
         <v>1</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="14">
         <v>0</v>
       </c>
       <c r="O24">
@@ -2228,7 +2214,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="str">
+      <c r="B25" s="10" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
       </c>
@@ -2256,16 +2242,16 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
         <v>1</v>
       </c>
       <c r="M25" s="6">
         <v>1</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="14">
         <v>0</v>
       </c>
       <c r="O25">
@@ -2278,7 +2264,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="str">
+      <c r="B26" s="10" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
       </c>
@@ -2306,16 +2292,16 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
         <v>1</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="14">
         <v>0</v>
       </c>
       <c r="O26">
@@ -2328,7 +2314,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="str">
+      <c r="B27" s="10" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
       </c>
@@ -2356,16 +2342,16 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8">
         <v>1</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="14">
         <v>0</v>
       </c>
       <c r="O27">
@@ -2378,7 +2364,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="str">
+      <c r="B28" s="10" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
       </c>
@@ -2406,16 +2392,16 @@
       <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8">
         <v>1</v>
       </c>
       <c r="M28" s="6">
         <v>1</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="14">
         <v>0</v>
       </c>
       <c r="O28">
@@ -2428,7 +2414,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="str">
+      <c r="B29" s="10" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
       </c>
@@ -2456,16 +2442,16 @@
       <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10">
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
         <v>1</v>
       </c>
       <c r="M29" s="6">
         <v>1</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="14">
         <v>0</v>
       </c>
       <c r="O29">
@@ -2478,7 +2464,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="str">
+      <c r="B30" s="10" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
       </c>
@@ -2506,16 +2492,16 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
         <v>1</v>
       </c>
       <c r="M30" s="6">
         <v>1</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="14">
         <v>0</v>
       </c>
       <c r="O30">
@@ -2528,7 +2514,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="str">
+      <c r="B31" s="10" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
       </c>
@@ -2556,16 +2542,16 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
         <v>1</v>
       </c>
       <c r="M31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="14">
         <v>0</v>
       </c>
       <c r="O31">
@@ -2578,7 +2564,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="str">
+      <c r="B32" s="10" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
       </c>
@@ -2606,16 +2592,16 @@
       <c r="J32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
         <v>1</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="14">
         <v>0</v>
       </c>
       <c r="O32">
@@ -2628,7 +2614,7 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="str">
+      <c r="B33" s="10" t="str">
         <f ca="1"/>
         <v>24-Jan</v>
       </c>
@@ -2656,16 +2642,16 @@
       <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
         <v>1</v>
       </c>
       <c r="M33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="14">
         <v>0</v>
       </c>
       <c r="O33">
@@ -2678,7 +2664,7 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="str">
+      <c r="B34" s="10" t="str">
         <f ca="1"/>
         <v>25-Jan</v>
       </c>
@@ -2706,16 +2692,16 @@
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10">
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8">
         <v>1</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="14">
         <v>0</v>
       </c>
       <c r="O34">
@@ -2728,7 +2714,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="str">
+      <c r="B35" s="10" t="str">
         <f ca="1"/>
         <v>26-Jan</v>
       </c>
@@ -2756,16 +2742,16 @@
       <c r="J35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
         <v>1</v>
       </c>
       <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="14">
         <v>0</v>
       </c>
       <c r="O35">
@@ -2778,7 +2764,7 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="str">
+      <c r="B36" s="10" t="str">
         <f ca="1"/>
         <v>27-Jan</v>
       </c>
@@ -2806,16 +2792,16 @@
       <c r="J36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8">
         <v>1</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="14">
         <v>0</v>
       </c>
       <c r="O36">
@@ -2828,7 +2814,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="str">
+      <c r="B37" s="10" t="str">
         <f ca="1"/>
         <v>28-Jan</v>
       </c>
@@ -2856,16 +2842,16 @@
       <c r="J37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8">
         <v>1</v>
       </c>
       <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="14">
         <v>0</v>
       </c>
       <c r="O37">
@@ -2878,7 +2864,7 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="str">
+      <c r="B38" s="10" t="str">
         <f ca="1"/>
         <v>29-Jan</v>
       </c>
@@ -2906,16 +2892,16 @@
       <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10">
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8">
         <v>1</v>
       </c>
       <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="14">
         <v>0</v>
       </c>
       <c r="O38">
@@ -2928,7 +2914,7 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="str">
+      <c r="B39" s="10" t="str">
         <f ca="1"/>
         <v>30-Jan</v>
       </c>
@@ -2956,16 +2942,16 @@
       <c r="J39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="10">
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8">
         <v>1</v>
       </c>
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="14">
         <v>0</v>
       </c>
       <c r="O39">
@@ -2978,7 +2964,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="str">
+      <c r="B40" s="10" t="str">
         <f ca="1"/>
         <v>31-Jan</v>
       </c>
@@ -3006,16 +2992,16 @@
       <c r="J40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8">
         <v>1</v>
       </c>
       <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="14">
         <v>0</v>
       </c>
       <c r="O40">
@@ -3028,7 +3014,7 @@
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="str">
+      <c r="B41" s="10" t="str">
         <f ca="1"/>
         <v>01-Feb</v>
       </c>
@@ -3056,16 +3042,16 @@
       <c r="J41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
         <v>1</v>
       </c>
       <c r="M41" s="6">
         <v>1</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="14">
         <v>0</v>
       </c>
       <c r="O41">
@@ -3078,7 +3064,7 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="str">
+      <c r="B42" s="10" t="str">
         <f ca="1"/>
         <v>02-Feb</v>
       </c>
@@ -3106,16 +3092,16 @@
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="10">
-        <v>1</v>
-      </c>
-      <c r="L42" s="10">
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8">
         <v>1</v>
       </c>
       <c r="M42" s="6">
         <v>1</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <v>0</v>
       </c>
       <c r="O42">
@@ -3128,7 +3114,7 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="str">
+      <c r="B43" s="10" t="str">
         <f ca="1"/>
         <v>03-Feb</v>
       </c>
@@ -3141,7 +3127,7 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="6">
@@ -3156,16 +3142,16 @@
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="10">
-        <v>1</v>
-      </c>
-      <c r="L43" s="10">
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
         <v>1</v>
       </c>
       <c r="M43" s="6">
         <v>1</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="14">
         <v>0</v>
       </c>
       <c r="O43">
@@ -3178,7 +3164,7 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="str">
+      <c r="B44" s="10" t="str">
         <f ca="1"/>
         <v>04-Feb</v>
       </c>
@@ -3191,7 +3177,7 @@
       <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44" s="6">
@@ -3206,16 +3192,16 @@
       <c r="J44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="10">
-        <v>1</v>
-      </c>
-      <c r="L44" s="10">
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
         <v>1</v>
       </c>
       <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="14">
         <v>0</v>
       </c>
       <c r="O44">
@@ -3228,7 +3214,7 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="str">
+      <c r="B45" s="10" t="str">
         <f ca="1"/>
         <v>05-Feb</v>
       </c>
@@ -3241,7 +3227,7 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="13">
         <v>0</v>
       </c>
       <c r="G45" s="6">
@@ -3256,16 +3242,16 @@
       <c r="J45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="10">
-        <v>1</v>
-      </c>
-      <c r="L45" s="10">
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
         <v>1</v>
       </c>
       <c r="M45" s="6">
         <v>1</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="14">
         <v>0</v>
       </c>
       <c r="O45">
@@ -3278,7 +3264,7 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="str">
+      <c r="B46" s="10" t="str">
         <f ca="1"/>
         <v>06-Feb</v>
       </c>
@@ -3291,7 +3277,7 @@
       <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46" s="6">
@@ -3306,16 +3292,16 @@
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="10">
-        <v>1</v>
-      </c>
-      <c r="L46" s="10">
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
         <v>1</v>
       </c>
       <c r="M46" s="6">
         <v>1</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="14">
         <v>0</v>
       </c>
       <c r="O46">
@@ -3328,7 +3314,7 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="str">
+      <c r="B47" s="10" t="str">
         <f ca="1"/>
         <v>07-Feb</v>
       </c>
@@ -3341,7 +3327,7 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="13">
         <v>0</v>
       </c>
       <c r="G47" s="6">
@@ -3356,16 +3342,16 @@
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="10">
-        <v>1</v>
-      </c>
-      <c r="L47" s="10">
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
         <v>1</v>
       </c>
       <c r="M47" s="6">
         <v>1</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="14">
         <v>0</v>
       </c>
       <c r="O47">
@@ -3378,7 +3364,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="str">
+      <c r="B48" s="10" t="str">
         <f ca="1"/>
         <v>08-Feb</v>
       </c>
@@ -3406,16 +3392,16 @@
       <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="10">
-        <v>1</v>
-      </c>
-      <c r="L48" s="10">
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
         <v>1</v>
       </c>
       <c r="M48" s="6">
         <v>1</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="14">
         <v>0</v>
       </c>
       <c r="O48">
@@ -3428,7 +3414,7 @@
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="str">
+      <c r="B49" s="10" t="str">
         <f ca="1"/>
         <v>09-Feb</v>
       </c>
@@ -3456,16 +3442,16 @@
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="10">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10">
+      <c r="K49" s="8">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8">
         <v>1</v>
       </c>
       <c r="M49" s="6">
         <v>1</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="14">
         <v>0</v>
       </c>
       <c r="O49">
@@ -3478,7 +3464,7 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="str">
+      <c r="B50" s="10" t="str">
         <f ca="1"/>
         <v>10-Feb</v>
       </c>
@@ -3506,16 +3492,16 @@
       <c r="J50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="10">
-        <v>1</v>
-      </c>
-      <c r="L50" s="10">
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
         <v>1</v>
       </c>
       <c r="M50" s="6">
         <v>1</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="14">
         <v>0</v>
       </c>
       <c r="O50">
@@ -3528,7 +3514,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="str">
+      <c r="B51" s="10" t="str">
         <f ca="1"/>
         <v>11-Feb</v>
       </c>
@@ -3556,16 +3542,16 @@
       <c r="J51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="10">
-        <v>1</v>
-      </c>
-      <c r="L51" s="10">
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8">
         <v>1</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="14">
         <v>0</v>
       </c>
       <c r="O51">
@@ -3578,7 +3564,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="str">
+      <c r="B52" s="10" t="str">
         <f ca="1"/>
         <v>12-Feb</v>
       </c>
@@ -3606,16 +3592,16 @@
       <c r="J52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="10">
-        <v>1</v>
-      </c>
-      <c r="L52" s="10">
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
         <v>1</v>
       </c>
       <c r="M52" s="6">
         <v>1</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="14">
         <v>1</v>
       </c>
       <c r="O52">
@@ -3628,7 +3614,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="str">
+      <c r="B53" s="10" t="str">
         <f ca="1"/>
         <v>13-Feb</v>
       </c>
@@ -3656,16 +3642,16 @@
       <c r="J53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="10">
-        <v>1</v>
-      </c>
-      <c r="L53" s="10">
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
         <v>1</v>
       </c>
       <c r="M53" s="6">
         <v>1</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="14">
         <v>1</v>
       </c>
       <c r="O53">
@@ -3678,7 +3664,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="str">
+      <c r="B54" s="10" t="str">
         <f ca="1"/>
         <v>14-Feb</v>
       </c>
@@ -3706,16 +3692,16 @@
       <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="10">
-        <v>1</v>
-      </c>
-      <c r="L54" s="10">
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8">
         <v>1</v>
       </c>
       <c r="M54" s="6">
         <v>1</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="14">
         <v>1</v>
       </c>
       <c r="O54">
@@ -3728,7 +3714,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="str">
+      <c r="B55" s="10" t="str">
         <f ca="1"/>
         <v>15-Feb</v>
       </c>
@@ -3759,13 +3745,13 @@
       <c r="K55" s="6">
         <v>1</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="8">
         <v>1</v>
       </c>
       <c r="M55" s="6">
         <v>1</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="14">
         <v>1</v>
       </c>
       <c r="O55">
@@ -3778,7 +3764,7 @@
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="str">
+      <c r="B56" s="10" t="str">
         <f ca="1"/>
         <v>16-Feb</v>
       </c>
@@ -3815,7 +3801,7 @@
       <c r="M56" s="6">
         <v>1</v>
       </c>
-      <c r="N56" s="24">
+      <c r="N56" s="20">
         <v>1</v>
       </c>
       <c r="O56">
@@ -3828,7 +3814,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="str">
+      <c r="B57" s="10" t="str">
         <f ca="1"/>
         <v>17-Feb</v>
       </c>
@@ -3856,16 +3842,16 @@
       <c r="J57" s="6">
         <v>1</v>
       </c>
-      <c r="K57" s="10">
-        <v>1</v>
-      </c>
-      <c r="L57" s="10">
+      <c r="K57" s="8">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8">
         <v>1</v>
       </c>
       <c r="M57" s="6">
         <v>1</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="14">
         <v>1</v>
       </c>
       <c r="O57">
@@ -3878,7 +3864,7 @@
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="str">
+      <c r="B58" s="10" t="str">
         <f ca="1"/>
         <v>18-Feb</v>
       </c>
@@ -3906,16 +3892,16 @@
       <c r="J58" s="6">
         <v>1</v>
       </c>
-      <c r="K58" s="10">
-        <v>1</v>
-      </c>
-      <c r="L58" s="10">
+      <c r="K58" s="8">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8">
         <v>1</v>
       </c>
       <c r="M58" s="6">
         <v>1</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="14">
         <v>1</v>
       </c>
       <c r="O58">
@@ -3928,7 +3914,7 @@
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="str">
+      <c r="B59" s="10" t="str">
         <f ca="1"/>
         <v>19-Feb</v>
       </c>
@@ -3956,16 +3942,16 @@
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="10">
-        <v>1</v>
-      </c>
-      <c r="L59" s="10">
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8">
         <v>1</v>
       </c>
       <c r="M59" s="6">
         <v>1</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="14">
         <v>1</v>
       </c>
       <c r="O59">
@@ -3978,7 +3964,7 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="str">
+      <c r="B60" s="10" t="str">
         <f ca="1"/>
         <v>20-Feb</v>
       </c>
@@ -4006,16 +3992,16 @@
       <c r="J60" s="6">
         <v>1</v>
       </c>
-      <c r="K60" s="10">
-        <v>1</v>
-      </c>
-      <c r="L60" s="10">
+      <c r="K60" s="8">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8">
         <v>1</v>
       </c>
       <c r="M60" s="6">
         <v>1</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="14">
         <v>1</v>
       </c>
       <c r="O60">
@@ -4028,7 +4014,7 @@
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="str">
+      <c r="B61" s="10" t="str">
         <f ca="1"/>
         <v>21-Feb</v>
       </c>
@@ -4056,16 +4042,16 @@
       <c r="J61" s="6">
         <v>1</v>
       </c>
-      <c r="K61" s="10">
-        <v>1</v>
-      </c>
-      <c r="L61" s="10">
+      <c r="K61" s="8">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8">
         <v>1</v>
       </c>
       <c r="M61" s="6">
         <v>1</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="14">
         <v>1</v>
       </c>
       <c r="O61">
@@ -4078,7 +4064,7 @@
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="str">
+      <c r="B62" s="10" t="str">
         <f ca="1"/>
         <v>22-Feb</v>
       </c>
@@ -4106,16 +4092,16 @@
       <c r="J62" s="6">
         <v>1</v>
       </c>
-      <c r="K62" s="10">
-        <v>1</v>
-      </c>
-      <c r="L62" s="10">
+      <c r="K62" s="8">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8">
         <v>1</v>
       </c>
       <c r="M62" s="6">
         <v>1</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="14">
         <v>1</v>
       </c>
       <c r="O62">
@@ -4128,7 +4114,7 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="str">
+      <c r="B63" s="10" t="str">
         <f ca="1"/>
         <v>23-Feb</v>
       </c>
@@ -4156,16 +4142,16 @@
       <c r="J63" s="6">
         <v>1</v>
       </c>
-      <c r="K63" s="10">
-        <v>1</v>
-      </c>
-      <c r="L63" s="10">
+      <c r="K63" s="8">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8">
         <v>1</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="14">
         <v>1</v>
       </c>
       <c r="O63">
@@ -4178,7 +4164,7 @@
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="str">
+      <c r="B64" s="10" t="str">
         <f ca="1"/>
         <v>24-Feb</v>
       </c>
@@ -4206,16 +4192,16 @@
       <c r="J64" s="6">
         <v>1</v>
       </c>
-      <c r="K64" s="10">
-        <v>1</v>
-      </c>
-      <c r="L64" s="10">
+      <c r="K64" s="8">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8">
         <v>1</v>
       </c>
       <c r="M64" s="6">
         <v>1</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="14">
         <v>1</v>
       </c>
       <c r="O64">
@@ -4228,7 +4214,7 @@
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="str">
+      <c r="B65" s="10" t="str">
         <f ca="1"/>
         <v>25-Feb</v>
       </c>
@@ -4256,16 +4242,16 @@
       <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="10">
-        <v>1</v>
-      </c>
-      <c r="L65" s="10">
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
         <v>1</v>
       </c>
       <c r="M65" s="6">
         <v>1</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="14">
         <v>1</v>
       </c>
       <c r="O65">
@@ -4278,7 +4264,7 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="str">
+      <c r="B66" s="10" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
       </c>
@@ -4306,16 +4292,16 @@
       <c r="J66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="10">
-        <v>1</v>
-      </c>
-      <c r="L66" s="10">
+      <c r="K66" s="8">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8">
         <v>1</v>
       </c>
       <c r="M66" s="6">
         <v>1</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="14">
         <v>1</v>
       </c>
       <c r="O66">
@@ -4328,7 +4314,7 @@
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="str">
+      <c r="B67" s="10" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
       </c>
@@ -4365,7 +4351,7 @@
       <c r="M67" s="6">
         <v>1</v>
       </c>
-      <c r="N67" s="26">
+      <c r="N67" s="22">
         <v>1</v>
       </c>
       <c r="O67">
@@ -4377,45 +4363,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="str">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
       </c>
-      <c r="C68" s="7">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8">
-        <v>0</v>
-      </c>
-      <c r="E68" s="8">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1</v>
-      </c>
-      <c r="H68" s="8">
-        <v>1</v>
-      </c>
-      <c r="I68" s="8">
-        <v>1</v>
-      </c>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
-      <c r="K68" s="11">
-        <v>1</v>
-      </c>
-      <c r="L68" s="11">
-        <v>1</v>
-      </c>
-      <c r="M68" s="8">
-        <v>1</v>
-      </c>
-      <c r="N68" s="20">
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+      <c r="M68" s="6">
+        <v>1</v>
+      </c>
+      <c r="N68" s="14">
         <v>1</v>
       </c>
       <c r="O68">
@@ -4424,14 +4410,488 @@
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="str">
+        <f ca="1"/>
+        <v>01-Mar</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="20">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f ca="1"/>
         <v>9</v>
       </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="20"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="20"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="20"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="20"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="20"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="20"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="20"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="20"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="20"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="20"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="20"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="20"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="20"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="20"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="10"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="10"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="20"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="20"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="20"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="20"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="20"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="20"/>
+    </row>
+    <row r="99" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="11"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:N67">
+  <conditionalFormatting sqref="B10:N68">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
@@ -4460,7 +4920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD49"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4468,8 +4928,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="13" width="3.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="13" width="3.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="183" customHeight="1" x14ac:dyDescent="0.25">
@@ -4511,41 +4971,41 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" cm="1">
-        <f t="array" ref="A2:L49">data</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>0</v>
-      </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16">
+      <c r="A2" s="13" cm="1">
+        <f t="array" ref="A2:L50">data</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
         <v>0</v>
       </c>
       <c r="N2">
@@ -4558,40 +5018,40 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>1</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
         <v>0</v>
       </c>
       <c r="N3">
@@ -4604,40 +5064,40 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
         <v>0</v>
       </c>
       <c r="N4">
@@ -4654,40 +5114,40 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
         <v>0</v>
       </c>
       <c r="N5">
@@ -4700,40 +5160,40 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
         <v>0</v>
       </c>
       <c r="N6">
@@ -4746,40 +5206,40 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
         <v>0</v>
       </c>
       <c r="N7">
@@ -4792,40 +5252,40 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
         <v>0</v>
       </c>
       <c r="N8">
@@ -4838,40 +5298,40 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
         <v>0</v>
       </c>
       <c r="N9">
@@ -4884,40 +5344,40 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
         <v>0</v>
       </c>
       <c r="N10">
@@ -4930,40 +5390,40 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
         <v>0</v>
       </c>
       <c r="N11">
@@ -4976,40 +5436,40 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
         <v>0</v>
       </c>
       <c r="N12">
@@ -5022,40 +5482,40 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>1</v>
-      </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
         <v>0</v>
       </c>
       <c r="N13">
@@ -5068,40 +5528,40 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>1</v>
-      </c>
-      <c r="K14" s="16">
-        <v>1</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
         <v>0</v>
       </c>
       <c r="N14">
@@ -5114,40 +5574,40 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
         <v>0</v>
       </c>
       <c r="N15">
@@ -5160,40 +5620,40 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="16">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
         <v>0</v>
       </c>
       <c r="N16">
@@ -5206,40 +5666,40 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="16">
-        <v>1</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
         <v>0</v>
       </c>
       <c r="N17">
@@ -5252,40 +5712,40 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>1</v>
-      </c>
-      <c r="B18" s="16">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="16">
-        <v>1</v>
-      </c>
-      <c r="K18" s="16">
-        <v>1</v>
-      </c>
-      <c r="L18" s="16">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
         <v>0</v>
       </c>
       <c r="N18">
@@ -5298,40 +5758,40 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-      <c r="K19" s="16">
-        <v>1</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
         <v>0</v>
       </c>
       <c r="N19">
@@ -5344,40 +5804,40 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
-        <v>1</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="16">
-        <v>1</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
         <v>0</v>
       </c>
       <c r="N20">
@@ -5390,40 +5850,40 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>1</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
-        <v>1</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
         <v>0</v>
       </c>
       <c r="N21">
@@ -5436,40 +5896,40 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="16">
-        <v>1</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13">
         <v>0</v>
       </c>
       <c r="N22">
@@ -5482,40 +5942,40 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
-        <v>1</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
         <v>0</v>
       </c>
       <c r="N23">
@@ -5528,40 +5988,40 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>1</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
         <v>0</v>
       </c>
       <c r="N24">
@@ -5574,40 +6034,40 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>1</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
-        <v>1</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
         <v>0</v>
       </c>
       <c r="N25">
@@ -5620,40 +6080,40 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>1</v>
-      </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
-        <v>1</v>
-      </c>
-      <c r="K26" s="16">
-        <v>1</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
         <v>0</v>
       </c>
       <c r="N26">
@@ -5666,40 +6126,40 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>0</v>
-      </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="16">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16">
-        <v>1</v>
-      </c>
-      <c r="K27" s="16">
-        <v>1</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="A27" s="13">
+        <v>0</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
         <v>0</v>
       </c>
       <c r="N27">
@@ -5712,40 +6172,40 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>0</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="16">
-        <v>1</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="16">
-        <v>1</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="A28" s="13">
+        <v>0</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
         <v>0</v>
       </c>
       <c r="N28">
@@ -5758,40 +6218,40 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>0</v>
-      </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16">
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
-        <v>1</v>
-      </c>
-      <c r="I29" s="16">
-        <v>1</v>
-      </c>
-      <c r="J29" s="16">
-        <v>1</v>
-      </c>
-      <c r="K29" s="16">
-        <v>1</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="A29" s="13">
+        <v>0</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
         <v>0</v>
       </c>
       <c r="N29">
@@ -5804,40 +6264,40 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
-        <v>0</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>1</v>
-      </c>
-      <c r="I30" s="16">
-        <v>1</v>
-      </c>
-      <c r="J30" s="16">
-        <v>1</v>
-      </c>
-      <c r="K30" s="16">
-        <v>1</v>
-      </c>
-      <c r="L30" s="16">
+      <c r="A30" s="13">
+        <v>0</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
         <v>0</v>
       </c>
       <c r="N30">
@@ -5850,40 +6310,40 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
-        <v>0</v>
-      </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16">
-        <v>1</v>
-      </c>
-      <c r="I31" s="16">
-        <v>1</v>
-      </c>
-      <c r="J31" s="16">
-        <v>1</v>
-      </c>
-      <c r="K31" s="16">
-        <v>1</v>
-      </c>
-      <c r="L31" s="16">
+      <c r="A31" s="13">
+        <v>0</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
         <v>0</v>
       </c>
       <c r="N31">
@@ -5896,40 +6356,40 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
-        <v>0</v>
-      </c>
-      <c r="B32" s="16">
-        <v>0</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>1</v>
-      </c>
-      <c r="H32" s="16">
-        <v>1</v>
-      </c>
-      <c r="I32" s="16">
-        <v>1</v>
-      </c>
-      <c r="J32" s="16">
-        <v>1</v>
-      </c>
-      <c r="K32" s="16">
-        <v>1</v>
-      </c>
-      <c r="L32" s="16">
+      <c r="A32" s="13">
+        <v>0</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
         <v>0</v>
       </c>
       <c r="N32">
@@ -5942,40 +6402,40 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>0</v>
-      </c>
-      <c r="B33" s="16">
-        <v>0</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1</v>
-      </c>
-      <c r="D33" s="16">
-        <v>1</v>
-      </c>
-      <c r="E33" s="16">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1</v>
-      </c>
-      <c r="H33" s="16">
-        <v>1</v>
-      </c>
-      <c r="I33" s="16">
-        <v>1</v>
-      </c>
-      <c r="J33" s="16">
-        <v>1</v>
-      </c>
-      <c r="K33" s="16">
-        <v>1</v>
-      </c>
-      <c r="L33" s="16">
+      <c r="A33" s="13">
+        <v>0</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="13">
         <v>1</v>
       </c>
       <c r="N33">
@@ -5988,40 +6448,40 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>0</v>
-      </c>
-      <c r="B34" s="16">
-        <v>0</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16">
-        <v>1</v>
-      </c>
-      <c r="J34" s="16">
-        <v>1</v>
-      </c>
-      <c r="K34" s="16">
-        <v>1</v>
-      </c>
-      <c r="L34" s="16">
+      <c r="A34" s="13">
+        <v>0</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
         <v>1</v>
       </c>
       <c r="N34">
@@ -6034,40 +6494,40 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>0</v>
-      </c>
-      <c r="B35" s="16">
-        <v>0</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="16">
-        <v>1</v>
-      </c>
-      <c r="E35" s="16">
-        <v>1</v>
-      </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1</v>
-      </c>
-      <c r="H35" s="16">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
-        <v>1</v>
-      </c>
-      <c r="J35" s="16">
-        <v>1</v>
-      </c>
-      <c r="K35" s="16">
-        <v>1</v>
-      </c>
-      <c r="L35" s="16">
+      <c r="A35" s="13">
+        <v>0</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
         <v>1</v>
       </c>
       <c r="N35">
@@ -6080,534 +6540,572 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>0</v>
-      </c>
-      <c r="B36" s="16">
-        <v>0</v>
-      </c>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16">
-        <v>1</v>
-      </c>
-      <c r="I36" s="16">
-        <v>1</v>
-      </c>
-      <c r="J36" s="16">
-        <v>1</v>
-      </c>
-      <c r="K36" s="16">
-        <v>1</v>
-      </c>
-      <c r="L36" s="16">
+      <c r="A36" s="13">
+        <v>0</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>0</v>
-      </c>
-      <c r="B37" s="16">
-        <v>0</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1</v>
-      </c>
-      <c r="D37" s="16">
-        <v>1</v>
-      </c>
-      <c r="E37" s="16">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16">
-        <v>1</v>
-      </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="16">
-        <v>1</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="A37" s="13">
+        <v>0</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>0</v>
-      </c>
-      <c r="B38" s="16">
-        <v>0</v>
-      </c>
-      <c r="C38" s="16">
-        <v>1</v>
-      </c>
-      <c r="D38" s="16">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="16">
-        <v>1</v>
-      </c>
-      <c r="I38" s="16">
-        <v>1</v>
-      </c>
-      <c r="J38" s="16">
-        <v>1</v>
-      </c>
-      <c r="K38" s="16">
-        <v>1</v>
-      </c>
-      <c r="L38" s="16">
+      <c r="A38" s="13">
+        <v>0</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="J38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <v>1</v>
-      </c>
-      <c r="B39" s="16">
-        <v>0</v>
-      </c>
-      <c r="C39" s="16">
-        <v>1</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="16">
-        <v>1</v>
-      </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16">
-        <v>1</v>
-      </c>
-      <c r="I39" s="16">
-        <v>1</v>
-      </c>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="K39" s="16">
-        <v>1</v>
-      </c>
-      <c r="L39" s="16">
+      <c r="A39" s="13">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13">
+        <v>1</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <v>0</v>
-      </c>
-      <c r="B40" s="16">
-        <v>0</v>
-      </c>
-      <c r="C40" s="16">
-        <v>1</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="16">
-        <v>1</v>
-      </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
-        <v>1</v>
-      </c>
-      <c r="H40" s="16">
-        <v>1</v>
-      </c>
-      <c r="I40" s="16">
-        <v>1</v>
-      </c>
-      <c r="J40" s="16">
-        <v>1</v>
-      </c>
-      <c r="K40" s="16">
-        <v>1</v>
-      </c>
-      <c r="L40" s="16">
+      <c r="A40" s="13">
+        <v>0</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="13">
+        <v>1</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
-        <v>0</v>
-      </c>
-      <c r="B41" s="16">
-        <v>1</v>
-      </c>
-      <c r="C41" s="16">
-        <v>1</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
-        <v>1</v>
-      </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
-        <v>1</v>
-      </c>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="K41" s="16">
-        <v>1</v>
-      </c>
-      <c r="L41" s="16">
+      <c r="A41" s="13">
+        <v>0</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="13">
+        <v>1</v>
+      </c>
+      <c r="J41" s="13">
+        <v>1</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
-        <v>0</v>
-      </c>
-      <c r="B42" s="16">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16">
-        <v>1</v>
-      </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16">
-        <v>1</v>
-      </c>
-      <c r="I42" s="16">
-        <v>1</v>
-      </c>
-      <c r="J42" s="16">
-        <v>1</v>
-      </c>
-      <c r="K42" s="16">
-        <v>1</v>
-      </c>
-      <c r="L42" s="16">
+      <c r="A42" s="13">
+        <v>0</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="13">
+        <v>1</v>
+      </c>
+      <c r="J42" s="13">
+        <v>1</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
-        <v>0</v>
-      </c>
-      <c r="B43" s="16">
-        <v>0</v>
-      </c>
-      <c r="C43" s="16">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16">
-        <v>1</v>
-      </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
-        <v>1</v>
-      </c>
-      <c r="I43" s="16">
-        <v>1</v>
-      </c>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
-      <c r="K43" s="16">
-        <v>1</v>
-      </c>
-      <c r="L43" s="16">
+      <c r="A43" s="13">
+        <v>0</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
-        <v>0</v>
-      </c>
-      <c r="B44" s="16">
-        <v>0</v>
-      </c>
-      <c r="C44" s="16">
-        <v>1</v>
-      </c>
-      <c r="D44" s="16">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16">
-        <v>1</v>
-      </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="16">
-        <v>1</v>
-      </c>
-      <c r="I44" s="16">
-        <v>1</v>
-      </c>
-      <c r="J44" s="16">
-        <v>1</v>
-      </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-      <c r="L44" s="16">
+      <c r="A44" s="13">
+        <v>0</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1</v>
+      </c>
+      <c r="I44" s="13">
+        <v>1</v>
+      </c>
+      <c r="J44" s="13">
+        <v>1</v>
+      </c>
+      <c r="K44" s="13">
+        <v>1</v>
+      </c>
+      <c r="L44" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
-        <v>0</v>
-      </c>
-      <c r="B45" s="16">
-        <v>0</v>
-      </c>
-      <c r="C45" s="16">
-        <v>1</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <v>1</v>
-      </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
-        <v>1</v>
-      </c>
-      <c r="H45" s="16">
-        <v>1</v>
-      </c>
-      <c r="I45" s="16">
-        <v>1</v>
-      </c>
-      <c r="J45" s="16">
-        <v>1</v>
-      </c>
-      <c r="K45" s="16">
-        <v>1</v>
-      </c>
-      <c r="L45" s="16">
+      <c r="A45" s="13">
+        <v>0</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13">
+        <v>1</v>
+      </c>
+      <c r="K45" s="13">
+        <v>1</v>
+      </c>
+      <c r="L45" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <v>0</v>
-      </c>
-      <c r="B46" s="16">
-        <v>0</v>
-      </c>
-      <c r="C46" s="16">
-        <v>1</v>
-      </c>
-      <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="16">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16">
-        <v>1</v>
-      </c>
-      <c r="H46" s="16">
-        <v>1</v>
-      </c>
-      <c r="I46" s="16">
-        <v>1</v>
-      </c>
-      <c r="J46" s="16">
-        <v>1</v>
-      </c>
-      <c r="K46" s="16">
-        <v>1</v>
-      </c>
-      <c r="L46" s="16">
+      <c r="A46" s="13">
+        <v>0</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13">
+        <v>1</v>
+      </c>
+      <c r="J46" s="13">
+        <v>1</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1</v>
+      </c>
+      <c r="L46" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>0</v>
-      </c>
-      <c r="B47" s="16">
-        <v>0</v>
-      </c>
-      <c r="C47" s="16">
-        <v>1</v>
-      </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="16">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16">
-        <v>1</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1</v>
-      </c>
-      <c r="H47" s="16">
-        <v>1</v>
-      </c>
-      <c r="I47" s="16">
-        <v>1</v>
-      </c>
-      <c r="J47" s="16">
-        <v>1</v>
-      </c>
-      <c r="K47" s="16">
-        <v>1</v>
-      </c>
-      <c r="L47" s="16">
+      <c r="A47" s="13">
+        <v>0</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13">
+        <v>1</v>
+      </c>
+      <c r="J47" s="13">
+        <v>1</v>
+      </c>
+      <c r="K47" s="13">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>0</v>
-      </c>
-      <c r="B48" s="16">
-        <v>0</v>
-      </c>
-      <c r="C48" s="16">
-        <v>1</v>
-      </c>
-      <c r="D48" s="16">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16">
-        <v>1</v>
-      </c>
-      <c r="F48" s="16">
-        <v>1</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16">
-        <v>1</v>
-      </c>
-      <c r="I48" s="16">
-        <v>1</v>
-      </c>
-      <c r="J48" s="16">
-        <v>1</v>
-      </c>
-      <c r="K48" s="16">
-        <v>1</v>
-      </c>
-      <c r="L48" s="16">
+      <c r="A48" s="13">
+        <v>0</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13">
+        <v>1</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1</v>
+      </c>
+      <c r="K48" s="13">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>0</v>
-      </c>
-      <c r="B49" s="16">
-        <v>0</v>
-      </c>
-      <c r="C49" s="16">
-        <v>1</v>
-      </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1</v>
-      </c>
-      <c r="F49" s="16">
-        <v>1</v>
-      </c>
-      <c r="G49" s="16">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16">
-        <v>1</v>
-      </c>
-      <c r="I49" s="16">
-        <v>1</v>
-      </c>
-      <c r="J49" s="16">
-        <v>1</v>
-      </c>
-      <c r="K49" s="16">
-        <v>1</v>
-      </c>
-      <c r="L49" s="16">
+      <c r="A49" s="13">
+        <v>0</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+      <c r="I49" s="13">
+        <v>1</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>0</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B6863-35F7-4FF4-A701-66393D680DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CC0C0-A8C5-486B-88F1-4D8571605CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31970" yWindow="550" windowWidth="28800" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -616,11 +616,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,15 +951,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>8890</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>156210</xdr:rowOff>
+          <xdr:rowOff>154940</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>8890</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>11430</xdr:rowOff>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>10160</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -966,7 +974,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2145"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2156"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -980,8 +988,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5800090" y="9795510"/>
-              <a:ext cx="4053840" cy="2705100"/>
+              <a:off x="5798820" y="9794240"/>
+              <a:ext cx="4053840" cy="2872740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1337,8 +1345,8 @@
   <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q94" sqref="Q94"/>
+      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1451,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B69" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B70" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1459,7 +1467,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="15"/>
       <c r="R10" s="18" cm="1">
-        <f t="array" aca="1" ref="R10:AD16" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
+        <f t="array" aca="1" ref="R10:AD17" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="S10" s="13">
@@ -1901,46 +1909,46 @@
       </c>
       <c r="U16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16" s="13">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="13">
         <f ca="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -1957,8 +1965,60 @@
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
       <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R17" s="18">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="S17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="13">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
@@ -1976,7 +2036,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
@@ -1994,7 +2054,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
@@ -2013,7 +2073,7 @@
       <c r="N20" s="14"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
@@ -2055,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O69" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O70" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2063,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -2109,11 +2169,11 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P68" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P70" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -2163,7 +2223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -2213,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -2263,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -2313,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -2363,7 +2423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -2413,7 +2473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -2463,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -2513,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -2563,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -4418,17 +4478,39 @@
         <f ca="1"/>
         <v>01-Mar</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
+      <c r="C69" s="24">
+        <v>0</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0</v>
+      </c>
+      <c r="E69" s="25">
+        <v>1</v>
+      </c>
+      <c r="F69" s="25">
+        <v>1</v>
+      </c>
+      <c r="G69" s="25">
+        <v>1</v>
+      </c>
+      <c r="H69" s="25">
+        <v>1</v>
+      </c>
+      <c r="I69" s="25">
+        <v>1</v>
+      </c>
+      <c r="J69" s="25">
+        <v>1</v>
+      </c>
+      <c r="K69" s="25">
+        <v>1</v>
+      </c>
+      <c r="L69" s="25">
+        <v>1</v>
+      </c>
+      <c r="M69" s="25">
+        <v>1</v>
+      </c>
       <c r="N69" s="20">
         <v>1</v>
       </c>
@@ -4436,456 +4518,495 @@
         <f ca="1"/>
         <v>9</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="20"/>
+      <c r="B70" s="10" t="str">
+        <f ca="1"/>
+        <v>02-Mar</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0</v>
+      </c>
+      <c r="D70" s="25">
+        <v>0</v>
+      </c>
+      <c r="E70" s="25">
+        <v>1</v>
+      </c>
+      <c r="F70" s="25">
+        <v>1</v>
+      </c>
+      <c r="G70" s="25">
+        <v>0</v>
+      </c>
+      <c r="H70" s="25">
+        <v>0</v>
+      </c>
+      <c r="I70" s="25">
+        <v>0</v>
+      </c>
+      <c r="J70" s="25">
+        <v>0</v>
+      </c>
+      <c r="K70" s="25">
+        <v>0</v>
+      </c>
+      <c r="L70" s="25">
+        <v>1</v>
+      </c>
+      <c r="M70" s="25">
+        <v>0</v>
+      </c>
+      <c r="N70" s="20">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
       <c r="N71" s="20"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
       <c r="N72" s="20"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
       <c r="N73" s="20"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
       <c r="N74" s="20"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
       <c r="N75" s="20"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
       <c r="N76" s="20"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
       <c r="N77" s="20"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
       <c r="N78" s="20"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
       <c r="N79" s="20"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
       <c r="N80" s="20"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
       <c r="N81" s="20"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
       <c r="N82" s="20"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
       <c r="N83" s="20"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
       <c r="N84" s="20"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
       <c r="N85" s="20"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
       <c r="N86" s="20"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
       <c r="N87" s="20"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="20"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
       <c r="N89" s="20"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
       <c r="N90" s="20"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
       <c r="N91" s="20"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
       <c r="N92" s="20"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
       <c r="N93" s="20"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
       <c r="N94" s="20"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
       <c r="N95" s="20"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
       <c r="N96" s="20"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
       <c r="N97" s="20"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
       <c r="N98" s="20"/>
     </row>
     <row r="99" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="27"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
@@ -4920,7 +5041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -4972,7 +5093,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L50">data</f>
+        <f t="array" ref="A2:L51">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7079,33 +7200,71 @@
         <v>0</v>
       </c>
       <c r="C50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>0</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <v>1</v>
+      </c>
+      <c r="K51" s="13">
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CC0C0-A8C5-486B-88F1-4D8571605CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D511CE-0764-4345-B5F7-9028CD96FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -974,7 +974,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2156"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2162"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1345,8 +1345,8 @@
   <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R75" sqref="R75"/>
+      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1987,23 +1987,23 @@
       </c>
       <c r="W17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="13">
         <f ca="1"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
@@ -4541,25 +4541,25 @@
         <v>1</v>
       </c>
       <c r="G70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="25">
         <v>1</v>
       </c>
       <c r="M70" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="20">
         <v>1</v>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -7244,25 +7244,25 @@
         <v>1</v>
       </c>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="13">
         <v>1</v>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D511CE-0764-4345-B5F7-9028CD96FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66386E-B6B0-4EAC-BBAE-0FD0A671B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="17280" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2162"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2165"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1345,8 +1345,8 @@
   <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R73" sqref="R73"/>
+      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B70" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B71" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="W17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17" s="13">
         <f ca="1"/>
@@ -2007,15 +2007,15 @@
       </c>
       <c r="AB17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O70" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O71" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P70" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P71" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4574,19 +4574,54 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="20"/>
+      <c r="B71" s="10" t="str">
+        <f ca="1"/>
+        <v>03-Mar</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0</v>
+      </c>
+      <c r="D71" s="25">
+        <v>0</v>
+      </c>
+      <c r="E71" s="25">
+        <v>0</v>
+      </c>
+      <c r="F71" s="25">
+        <v>0</v>
+      </c>
+      <c r="G71" s="25">
+        <v>1</v>
+      </c>
+      <c r="H71" s="25">
+        <v>0</v>
+      </c>
+      <c r="I71" s="25">
+        <v>0</v>
+      </c>
+      <c r="J71" s="25">
+        <v>0</v>
+      </c>
+      <c r="K71" s="25">
+        <v>0</v>
+      </c>
+      <c r="L71" s="25">
+        <v>1</v>
+      </c>
+      <c r="M71" s="25">
+        <v>1</v>
+      </c>
+      <c r="N71" s="20">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
@@ -5041,7 +5076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -5093,7 +5128,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L51">data</f>
+        <f t="array" ref="A2:L52">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7265,6 +7300,44 @@
         <v>1</v>
       </c>
       <c r="L51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>0</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <v>1</v>
+      </c>
+      <c r="K52" s="13">
+        <v>1</v>
+      </c>
+      <c r="L52" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66386E-B6B0-4EAC-BBAE-0FD0A671B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C2623-6805-487F-BC38-C763F8B4965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="17280" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="LongTermTraining" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_date">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$B),12)</definedName>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
@@ -141,6 +142,15 @@
   </si>
   <si>
     <t>courses and not take a penalty.</t>
+  </si>
+  <si>
+    <t>A/B Testing</t>
+  </si>
+  <si>
+    <t>Kalman</t>
+  </si>
+  <si>
+    <t>Daily CSS Drill</t>
   </si>
 </sst>
 </file>
@@ -550,7 +560,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -630,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -974,7 +987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2165"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2184"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1345,8 +1358,8 @@
   <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1464,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B71" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B73" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1979,43 +1992,43 @@
       </c>
       <c r="U17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="13">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA17" s="13">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="13">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2115,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O71" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O73" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2169,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P71" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P73" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4585,25 +4598,25 @@
         <v>0</v>
       </c>
       <c r="E71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="25">
         <v>1</v>
       </c>
       <c r="H71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="25">
         <v>1</v>
@@ -4620,38 +4633,108 @@
       </c>
       <c r="P71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="20"/>
+      <c r="B72" s="10" t="str">
+        <f ca="1"/>
+        <v>04-Mar</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0</v>
+      </c>
+      <c r="D72" s="25">
+        <v>0</v>
+      </c>
+      <c r="E72" s="25">
+        <v>1</v>
+      </c>
+      <c r="F72" s="25">
+        <v>0</v>
+      </c>
+      <c r="G72" s="25">
+        <v>1</v>
+      </c>
+      <c r="H72" s="25">
+        <v>1</v>
+      </c>
+      <c r="I72" s="25">
+        <v>1</v>
+      </c>
+      <c r="J72" s="25">
+        <v>1</v>
+      </c>
+      <c r="K72" s="25">
+        <v>1</v>
+      </c>
+      <c r="L72" s="25">
+        <v>1</v>
+      </c>
+      <c r="M72" s="25">
+        <v>1</v>
+      </c>
+      <c r="N72" s="20">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="20"/>
+      <c r="B73" s="10" t="str">
+        <f ca="1"/>
+        <v>05-Mar</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0</v>
+      </c>
+      <c r="D73" s="25">
+        <v>0</v>
+      </c>
+      <c r="E73" s="25">
+        <v>1</v>
+      </c>
+      <c r="F73" s="25">
+        <v>0</v>
+      </c>
+      <c r="G73" s="25">
+        <v>1</v>
+      </c>
+      <c r="H73" s="25">
+        <v>1</v>
+      </c>
+      <c r="I73" s="25">
+        <v>1</v>
+      </c>
+      <c r="J73" s="25">
+        <v>1</v>
+      </c>
+      <c r="K73" s="25">
+        <v>1</v>
+      </c>
+      <c r="L73" s="25">
+        <v>1</v>
+      </c>
+      <c r="M73" s="25">
+        <v>1</v>
+      </c>
+      <c r="N73" s="20">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
@@ -5076,9 +5159,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -5128,7 +5211,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L52">data</f>
+        <f t="array" ref="A2:L54">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7311,25 +7394,25 @@
         <v>0</v>
       </c>
       <c r="C52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="13">
         <v>1</v>
       </c>
       <c r="F52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="13">
         <v>1</v>
@@ -7338,6 +7421,82 @@
         <v>1</v>
       </c>
       <c r="L52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>0</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1</v>
+      </c>
+      <c r="J53" s="13">
+        <v>1</v>
+      </c>
+      <c r="K53" s="13">
+        <v>1</v>
+      </c>
+      <c r="L53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>0</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1</v>
+      </c>
+      <c r="J54" s="13">
+        <v>1</v>
+      </c>
+      <c r="K54" s="13">
+        <v>1</v>
+      </c>
+      <c r="L54" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7350,4 +7509,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
+  <dimension ref="E7:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="14" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:10" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C2623-6805-487F-BC38-C763F8B4965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AAABA-1D80-48C7-B783-5A35BC150D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -987,7 +987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2184"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2188"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1358,8 +1358,8 @@
   <dimension ref="A7:AG99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG4" sqref="AG4"/>
+      <pane ySplit="9" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE73" sqref="AE73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B73" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B74" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="U17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" s="13">
         <f ca="1"/>
@@ -2000,35 +2000,35 @@
       </c>
       <c r="W17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O73" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O74" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2182,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P73" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P74" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4737,19 +4737,54 @@
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="20"/>
+      <c r="B74" s="10" t="str">
+        <f ca="1"/>
+        <v>06-Mar</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0</v>
+      </c>
+      <c r="D74" s="25">
+        <v>0</v>
+      </c>
+      <c r="E74" s="25">
+        <v>1</v>
+      </c>
+      <c r="F74" s="25">
+        <v>0</v>
+      </c>
+      <c r="G74" s="25">
+        <v>1</v>
+      </c>
+      <c r="H74" s="25">
+        <v>1</v>
+      </c>
+      <c r="I74" s="25">
+        <v>1</v>
+      </c>
+      <c r="J74" s="25">
+        <v>1</v>
+      </c>
+      <c r="K74" s="25">
+        <v>1</v>
+      </c>
+      <c r="L74" s="25">
+        <v>1</v>
+      </c>
+      <c r="M74" s="25">
+        <v>1</v>
+      </c>
+      <c r="N74" s="20">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
@@ -5159,7 +5194,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -5211,7 +5246,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L54">data</f>
+        <f t="array" ref="A2:L55">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7497,6 +7532,44 @@
         <v>1</v>
       </c>
       <c r="L54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>0</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1</v>
+      </c>
+      <c r="I55" s="13">
+        <v>1</v>
+      </c>
+      <c r="J55" s="13">
+        <v>1</v>
+      </c>
+      <c r="K55" s="13">
+        <v>1</v>
+      </c>
+      <c r="L55" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AAABA-1D80-48C7-B783-5A35BC150D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F1103-941B-4C08-9AAA-0079D9F2D2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -965,14 +965,14 @@
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>154940</xdr:rowOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>147320</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>10160</xdr:rowOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -987,7 +987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2188"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2197"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1001,7 +1001,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5798820" y="9794240"/>
+              <a:off x="5798820" y="10792460"/>
               <a:ext cx="4053840" cy="2872740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1359,7 +1359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE73" sqref="AE73"/>
+      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B74" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B75" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1973,7 +1973,6 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
@@ -1992,43 +1991,43 @@
       </c>
       <c r="U17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V17" s="13">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2128,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O74" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O75" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2182,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P74" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P75" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4787,19 +4786,54 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="20"/>
+      <c r="B75" s="10" t="str">
+        <f ca="1"/>
+        <v>07-Mar</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0</v>
+      </c>
+      <c r="D75" s="25">
+        <v>0</v>
+      </c>
+      <c r="E75" s="25">
+        <v>1</v>
+      </c>
+      <c r="F75" s="25">
+        <v>1</v>
+      </c>
+      <c r="G75" s="25">
+        <v>1</v>
+      </c>
+      <c r="H75" s="25">
+        <v>1</v>
+      </c>
+      <c r="I75" s="25">
+        <v>1</v>
+      </c>
+      <c r="J75" s="25">
+        <v>1</v>
+      </c>
+      <c r="K75" s="25">
+        <v>1</v>
+      </c>
+      <c r="L75" s="25">
+        <v>1</v>
+      </c>
+      <c r="M75" s="25">
+        <v>1</v>
+      </c>
+      <c r="N75" s="20">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
@@ -5165,7 +5199,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:N68">
+  <conditionalFormatting sqref="B18:N68 B17:I17 K17:N17 B10:N16">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
@@ -5194,7 +5228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -5246,7 +5280,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L55">data</f>
+        <f t="array" ref="A2:L56">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7570,6 +7604,44 @@
         <v>1</v>
       </c>
       <c r="L55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>0</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="I56" s="13">
+        <v>1</v>
+      </c>
+      <c r="J56" s="13">
+        <v>1</v>
+      </c>
+      <c r="K56" s="13">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F1103-941B-4C08-9AAA-0079D9F2D2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD4A49-89D0-4039-8B06-90E6C3F62198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-37470" yWindow="930" windowWidth="28800" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>30</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>2540</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
@@ -987,7 +987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2197"/>
+                  <a14:cameraTool cellRange="Banded2" spid="_x0000_s2203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1359,7 +1359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomLeft" activeCell="AI73" sqref="AI73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="10" spans="1:33" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B75" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B76" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1991,43 +1991,43 @@
       </c>
       <c r="U17" s="13">
         <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="V17" s="13">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W17" s="13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="X17" s="13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y17" s="13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z17" s="13">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA17" s="13">
+        <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="V17" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="W17" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="X17" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="Y17" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="Z17" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="AA17" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
       <c r="AB17" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="13">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21:O75" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="O21:O76" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="P21">
@@ -2181,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P75" si="0">SUM(C22:N22)</f>
+        <f t="shared" ref="P22:P76" si="0">SUM(C22:N22)</f>
         <v>9</v>
       </c>
     </row>
@@ -4836,19 +4836,54 @@
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="20"/>
+      <c r="B76" s="10" t="str">
+        <f ca="1"/>
+        <v>08-Mar</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0</v>
+      </c>
+      <c r="D76" s="25">
+        <v>0</v>
+      </c>
+      <c r="E76" s="25">
+        <v>1</v>
+      </c>
+      <c r="F76" s="25">
+        <v>1</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1</v>
+      </c>
+      <c r="H76" s="25">
+        <v>1</v>
+      </c>
+      <c r="I76" s="25">
+        <v>1</v>
+      </c>
+      <c r="J76" s="25">
+        <v>1</v>
+      </c>
+      <c r="K76" s="25">
+        <v>0</v>
+      </c>
+      <c r="L76" s="25">
+        <v>1</v>
+      </c>
+      <c r="M76" s="25">
+        <v>1</v>
+      </c>
+      <c r="N76" s="20">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
@@ -5199,7 +5234,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T24:T60">
     <sortCondition ref="T24:T60"/>
   </sortState>
-  <conditionalFormatting sqref="B18:N68 B17:I17 K17:N17 B10:N16">
+  <conditionalFormatting sqref="B10:N16 B17:I17 K17:N17 B18:N68">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(B10)-ROW($R$9),2)</formula>
     </cfRule>
@@ -5228,7 +5263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971042-F2FB-49FE-B9A5-F243354847EE}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -5280,7 +5315,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" cm="1">
-        <f t="array" ref="A2:L56">data</f>
+        <f t="array" ref="A2:L57">data</f>
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -7642,6 +7677,44 @@
         <v>1</v>
       </c>
       <c r="L56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>0</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1</v>
+      </c>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7670,7 +7743,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:10" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:10" ht="120.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB37FB-3791-43CC-9BD4-FAB0CFBEE766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856584C-924C-4A3C-AE1A-3D5C644D7245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36760" yWindow="1280" windowWidth="28800" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-38340" yWindow="140" windowWidth="16440" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -562,14 +562,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -830,27 +823,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -886,9 +879,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>34290</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>154940</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -903,7 +896,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2216"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2228"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1166,8 +1159,10 @@
   </sheetPr>
   <dimension ref="A7:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1715,7 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="11">
         <f ca="1"/>
@@ -1728,31 +1723,31 @@
       </c>
       <c r="R18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -4089,39 +4084,39 @@
         <v>09-Mar</v>
       </c>
       <c r="C77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="16">
         <v>0</v>
       </c>
       <c r="E77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <f ca="1"/>
         <v>11</v>
       </c>
       <c r="M77">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C77:K77)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4393,17 +4388,17 @@
     <sortCondition ref="Q24:Q60"/>
   </sortState>
   <conditionalFormatting sqref="B10:B77">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7328,7 +7323,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9:O76">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856584C-924C-4A3C-AE1A-3D5C644D7245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C71CDC-07C6-4361-A56E-67EAF794678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="140" windowWidth="16440" windowHeight="15410" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-22200" yWindow="3220" windowWidth="16440" windowHeight="15410" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$K),12)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$L:$L),0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$O),1)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$P),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Power Automate Project</t>
+  </si>
+  <si>
+    <t>Bayesian Text</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2228"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2229"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1159,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A7:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
     </sheetView>
@@ -3131,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M77" si="1">SUM(C53:K53)</f>
+        <f t="shared" ref="M53:M76" si="1">SUM(C53:K53)</f>
         <v>8</v>
       </c>
     </row>
@@ -4411,19 +4414,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:W76"/>
+  <dimension ref="D7:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="18" width="3.33203125" customWidth="1"/>
+    <col min="5" max="19" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:23" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:24" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4452,16 +4455,19 @@
         <v>19</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:24" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9:D76" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
@@ -4499,12 +4505,15 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="Q9" cm="1">
-        <f t="array" ref="Q9:Q76">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9" cm="1">
+        <f t="array" ref="R9:R76">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -4542,11 +4551,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -4584,14 +4596,17 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -4629,11 +4644,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -4671,11 +4689,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -4713,11 +4734,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
@@ -4755,11 +4779,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -4797,11 +4824,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
@@ -4839,11 +4869,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
@@ -4881,11 +4914,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
@@ -4923,11 +4959,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
@@ -4965,11 +5004,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -5007,11 +5049,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -5049,11 +5094,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -5091,11 +5139,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -5133,11 +5184,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -5175,11 +5229,14 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -5217,11 +5274,14 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -5259,11 +5319,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -5301,11 +5364,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -5343,11 +5409,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="Q29">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -5385,11 +5454,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="Q30">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -5427,11 +5499,14 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f ca="1"/>
         <v>24-Jan</v>
@@ -5469,11 +5544,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f ca="1"/>
         <v>25-Jan</v>
@@ -5511,11 +5589,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="Q33">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f ca="1"/>
         <v>26-Jan</v>
@@ -5553,11 +5634,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="Q34">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
         <f ca="1"/>
         <v>27-Jan</v>
@@ -5595,11 +5679,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
         <f ca="1"/>
         <v>28-Jan</v>
@@ -5637,11 +5724,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="Q36">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" t="str">
         <f ca="1"/>
         <v>29-Jan</v>
@@ -5679,11 +5769,14 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="Q37">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" t="str">
         <f ca="1"/>
         <v>30-Jan</v>
@@ -5721,11 +5814,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="Q38">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
         <f ca="1"/>
         <v>31-Jan</v>
@@ -5763,11 +5859,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
         <f ca="1"/>
         <v>01-Feb</v>
@@ -5805,11 +5904,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
         <f ca="1"/>
         <v>02-Feb</v>
@@ -5847,11 +5949,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" t="str">
         <f ca="1"/>
         <v>03-Feb</v>
@@ -5889,11 +5994,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" t="str">
         <f ca="1"/>
         <v>04-Feb</v>
@@ -5931,11 +6039,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" t="str">
         <f ca="1"/>
         <v>05-Feb</v>
@@ -5973,11 +6084,14 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" t="str">
         <f ca="1"/>
         <v>06-Feb</v>
@@ -6015,11 +6129,14 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" t="str">
         <f ca="1"/>
         <v>07-Feb</v>
@@ -6057,11 +6174,14 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" t="str">
         <f ca="1"/>
         <v>08-Feb</v>
@@ -6099,11 +6219,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" t="str">
         <f ca="1"/>
         <v>09-Feb</v>
@@ -6141,11 +6264,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49" t="str">
         <f ca="1"/>
         <v>10-Feb</v>
@@ -6183,11 +6309,14 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50" t="str">
         <f ca="1"/>
         <v>11-Feb</v>
@@ -6225,11 +6354,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51" t="str">
         <f ca="1"/>
         <v>12-Feb</v>
@@ -6267,11 +6399,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52" t="str">
         <f ca="1"/>
         <v>13-Feb</v>
@@ -6309,11 +6444,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53" t="str">
         <f ca="1"/>
         <v>14-Feb</v>
@@ -6351,11 +6489,14 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D54" t="str">
         <f ca="1"/>
         <v>15-Feb</v>
@@ -6393,11 +6534,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D55" t="str">
         <f ca="1"/>
         <v>16-Feb</v>
@@ -6435,11 +6579,14 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D56" t="str">
         <f ca="1"/>
         <v>17-Feb</v>
@@ -6477,11 +6624,14 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="Q56">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D57" t="str">
         <f ca="1"/>
         <v>18-Feb</v>
@@ -6519,11 +6669,14 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="Q57">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D58" t="str">
         <f ca="1"/>
         <v>19-Feb</v>
@@ -6561,11 +6714,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="Q58">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D59" t="str">
         <f ca="1"/>
         <v>20-Feb</v>
@@ -6603,11 +6759,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="Q59">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D60" t="str">
         <f ca="1"/>
         <v>21-Feb</v>
@@ -6645,11 +6804,14 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="Q60">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D61" t="str">
         <f ca="1"/>
         <v>22-Feb</v>
@@ -6687,11 +6849,14 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="Q61">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D62" t="str">
         <f ca="1"/>
         <v>23-Feb</v>
@@ -6729,11 +6894,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="Q62">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D63" t="str">
         <f ca="1"/>
         <v>24-Feb</v>
@@ -6771,11 +6939,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="Q63">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D64" t="str">
         <f ca="1"/>
         <v>25-Feb</v>
@@ -6813,11 +6984,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="Q64">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
@@ -6855,11 +7029,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="Q65">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D66" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
@@ -6897,11 +7074,14 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="Q66">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D67" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
@@ -6939,11 +7119,14 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="Q67">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D68" t="str">
         <f ca="1"/>
         <v>01-Mar</v>
@@ -6981,11 +7164,14 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="Q68">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D69" t="str">
         <f ca="1"/>
         <v>02-Mar</v>
@@ -7023,11 +7209,14 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="Q69">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="R69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D70" t="str">
         <f ca="1"/>
         <v>03-Mar</v>
@@ -7065,11 +7254,14 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="Q70">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D71" t="str">
         <f ca="1"/>
         <v>04-Mar</v>
@@ -7107,11 +7299,14 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="Q71">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D72" t="str">
         <f ca="1"/>
         <v>05-Mar</v>
@@ -7149,11 +7344,14 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="Q72">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D73" t="str">
         <f ca="1"/>
         <v>06-Mar</v>
@@ -7191,11 +7389,14 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="Q73">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D74" t="str">
         <f ca="1"/>
         <v>07-Mar</v>
@@ -7233,11 +7434,14 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="Q74">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D75" t="str">
         <f ca="1"/>
         <v>08-Mar</v>
@@ -7275,11 +7479,14 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="Q75">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="R75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D76" t="str">
         <f ca="1"/>
         <v>09-Mar</v>
@@ -7317,12 +7524,15 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="Q76">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:O76">
+  <conditionalFormatting sqref="D9:P76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C71CDC-07C6-4361-A56E-67EAF794678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F0CF8-5DB2-4886-871C-1E0A67633AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22200" yWindow="3220" windowWidth="16440" windowHeight="15410" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-18020" yWindow="2270" windowWidth="16420" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="LongTermTraining" sheetId="3" r:id="rId2"/>
+    <sheet name="PointTraining" sheetId="4" r:id="rId2"/>
+    <sheet name="LongTermTraining" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_date">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$B),12)</definedName>
@@ -27,7 +28,7 @@
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$K),12)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$L:$L),0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$P),1)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$P),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -154,6 +155,18 @@
   </si>
   <si>
     <t>Bayesian Text</t>
+  </si>
+  <si>
+    <t>Daily Task Count</t>
+  </si>
+  <si>
+    <t>Recipe cards from Ken Puls</t>
+  </si>
+  <si>
+    <t>Setup work on Bayesian text</t>
+  </si>
+  <si>
+    <t>PQ:25</t>
   </si>
 </sst>
 </file>
@@ -256,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +514,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -548,6 +567,16 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -876,15 +905,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>10160</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>81280</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>34290</xdr:colOff>
+          <xdr:colOff>3810</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>154940</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -899,7 +928,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2229"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2243"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -913,8 +942,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5118100" y="10763250"/>
-              <a:ext cx="3378200" cy="3048000"/>
+              <a:off x="4353560" y="10761980"/>
+              <a:ext cx="3365500" cy="3022600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -937,7 +966,95 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D9D0EE-AE4F-F07C-FF1E-682E12701F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1059180"/>
+          <a:ext cx="175260" cy="1531620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t> Week Num</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,7 +1282,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1291,7 @@
     <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
     <col min="6" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3.33203125" customWidth="1"/>
+    <col min="9" max="13" width="3.33203125" customWidth="1"/>
     <col min="15" max="15" width="19.109375" customWidth="1"/>
     <col min="16" max="24" width="3.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1216,7 +1333,9 @@
         <v>7</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="4" t="s">
         <v>14</v>
@@ -1252,7 +1371,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B77" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B78" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1264,6 +1383,10 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10:M78">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <v>0</v>
+      </c>
       <c r="O10" s="14" cm="1">
         <f t="array" aca="1" ref="O10:X18" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
@@ -1319,6 +1442,9 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="5"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
       <c r="O11" s="14">
         <f ca="1"/>
         <v>4</v>
@@ -1377,6 +1503,9 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="5"/>
+      <c r="M12">
+        <v>0</v>
+      </c>
       <c r="O12" s="14">
         <f ca="1"/>
         <v>5</v>
@@ -1435,6 +1564,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="5"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
       <c r="O13" s="14">
         <f ca="1"/>
         <v>6</v>
@@ -1493,6 +1625,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="O14" s="14">
         <f ca="1"/>
         <v>7</v>
@@ -1548,6 +1683,9 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
+      <c r="M15">
+        <v>0</v>
+      </c>
       <c r="O15" s="14">
         <f ca="1"/>
         <v>8</v>
@@ -1603,6 +1741,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="5"/>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="O16" s="14">
         <f ca="1"/>
         <v>9</v>
@@ -1657,6 +1798,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="5"/>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="O17" s="14">
         <f ca="1"/>
         <v>10</v>
@@ -1712,6 +1856,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="O18" s="14">
         <f ca="1"/>
         <v>11</v>
@@ -1722,7 +1869,7 @@
       </c>
       <c r="Q18" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="11">
         <f ca="1"/>
@@ -1730,11 +1877,11 @@
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
@@ -1746,11 +1893,11 @@
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1767,6 +1914,9 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="5"/>
+      <c r="M19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
@@ -1782,6 +1932,9 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="5"/>
+      <c r="M20">
+        <v>0</v>
+      </c>
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -1817,11 +1970,10 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L77" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L78" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M52" si="0">SUM(C21:K21)</f>
         <v>6</v>
       </c>
     </row>
@@ -1862,7 +2014,6 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1903,7 +2054,6 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="P23" s="15"/>
@@ -1945,7 +2095,6 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1986,7 +2135,6 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2027,7 +2175,6 @@
         <v>3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2068,7 +2215,6 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2109,7 +2255,6 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2150,7 +2295,6 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2191,7 +2335,6 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2232,7 +2375,6 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2273,7 +2415,6 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2314,7 +2455,6 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2355,7 +2495,6 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2396,7 +2535,6 @@
         <v>5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2437,7 +2575,6 @@
         <v>5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2478,7 +2615,6 @@
         <v>5</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2519,7 +2655,6 @@
         <v>5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2560,7 +2695,6 @@
         <v>5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2601,7 +2735,6 @@
         <v>5</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2642,7 +2775,6 @@
         <v>5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2683,7 +2815,6 @@
         <v>6</v>
       </c>
       <c r="M42">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2724,7 +2855,6 @@
         <v>6</v>
       </c>
       <c r="M43">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2765,7 +2895,6 @@
         <v>6</v>
       </c>
       <c r="M44">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2806,7 +2935,6 @@
         <v>6</v>
       </c>
       <c r="M45">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2847,7 +2975,6 @@
         <v>6</v>
       </c>
       <c r="M46">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2888,7 +3015,6 @@
         <v>6</v>
       </c>
       <c r="M47">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2929,7 +3055,6 @@
         <v>6</v>
       </c>
       <c r="M48">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2970,7 +3095,6 @@
         <v>7</v>
       </c>
       <c r="M49">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3011,7 +3135,6 @@
         <v>7</v>
       </c>
       <c r="M50">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3052,7 +3175,6 @@
         <v>7</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3093,7 +3215,6 @@
         <v>7</v>
       </c>
       <c r="M52">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -3134,7 +3255,6 @@
         <v>7</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M76" si="1">SUM(C53:K53)</f>
         <v>8</v>
       </c>
     </row>
@@ -3175,7 +3295,6 @@
         <v>7</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3216,7 +3335,6 @@
         <v>7</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3257,7 +3375,6 @@
         <v>8</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3298,7 +3415,6 @@
         <v>8</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3339,7 +3455,6 @@
         <v>8</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3380,7 +3495,6 @@
         <v>8</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3421,7 +3535,6 @@
         <v>8</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3462,7 +3575,6 @@
         <v>8</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3503,7 +3615,6 @@
         <v>8</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3544,7 +3655,6 @@
         <v>9</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3585,7 +3695,6 @@
         <v>9</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3626,7 +3735,6 @@
         <v>9</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3667,7 +3775,6 @@
         <v>9</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3708,7 +3815,6 @@
         <v>9</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3749,7 +3855,6 @@
         <v>9</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3790,7 +3895,6 @@
         <v>9</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3831,7 +3935,6 @@
         <v>10</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3872,7 +3975,6 @@
         <v>10</v>
       </c>
       <c r="M71">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3913,7 +4015,6 @@
         <v>10</v>
       </c>
       <c r="M72">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3954,7 +4055,6 @@
         <v>10</v>
       </c>
       <c r="M73">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3995,7 +4095,6 @@
         <v>10</v>
       </c>
       <c r="M74">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -4036,7 +4135,6 @@
         <v>10</v>
       </c>
       <c r="M75">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -4077,7 +4175,6 @@
         <v>10</v>
       </c>
       <c r="M76">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -4090,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="16">
         <v>1</v>
@@ -4118,21 +4215,48 @@
         <v>11</v>
       </c>
       <c r="M77">
-        <f>SUM(C77:K77)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
+      <c r="B78" s="9" t="str">
+        <f ca="1"/>
+        <v>10-Mar</v>
+      </c>
+      <c r="C78" s="16">
+        <v>0</v>
+      </c>
+      <c r="D78" s="16">
+        <v>0</v>
+      </c>
+      <c r="E78" s="16">
+        <v>0</v>
+      </c>
+      <c r="F78" s="16">
+        <v>1</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1</v>
+      </c>
+      <c r="H78" s="16">
+        <v>0</v>
+      </c>
+      <c r="I78" s="16">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16">
+        <v>1</v>
+      </c>
+      <c r="K78" s="16">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
@@ -4413,11 +4537,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF4EBB-A76D-4834-A49E-430EF56D9D9D}">
+  <dimension ref="A5:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:X76"/>
+  <dimension ref="D7:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4583,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:24" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:24" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4469,7 +4626,7 @@
     </row>
     <row r="9" spans="4:24" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D76" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D77" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9">
@@ -4509,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="R9" cm="1">
-        <f t="array" ref="R9:R76">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="R9:R77">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -6991,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
@@ -7036,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D66" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
@@ -7081,7 +7238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D67" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
@@ -7126,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D68" t="str">
         <f ca="1"/>
         <v>01-Mar</v>
@@ -7171,7 +7328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D69" t="str">
         <f ca="1"/>
         <v>02-Mar</v>
@@ -7216,7 +7373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D70" t="str">
         <f ca="1"/>
         <v>03-Mar</v>
@@ -7261,7 +7418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D71" t="str">
         <f ca="1"/>
         <v>04-Mar</v>
@@ -7306,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D72" t="str">
         <f ca="1"/>
         <v>05-Mar</v>
@@ -7351,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D73" t="str">
         <f ca="1"/>
         <v>06-Mar</v>
@@ -7396,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D74" t="str">
         <f ca="1"/>
         <v>07-Mar</v>
@@ -7441,7 +7598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D75" t="str">
         <f ca="1"/>
         <v>08-Mar</v>
@@ -7486,7 +7643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D76" t="str">
         <f ca="1"/>
         <v>09-Mar</v>
@@ -7531,8 +7688,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="77" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f ca="1"/>
+        <v>10-Mar</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:P76">
+  <conditionalFormatting sqref="D9:P76 E77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F0CF8-5DB2-4886-871C-1E0A67633AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C14C1-1395-4F5E-BCF9-AC1F7D2B1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18020" yWindow="2270" windowWidth="16420" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Setup work on Bayesian text</t>
-  </si>
-  <si>
-    <t>PQ:25</t>
   </si>
 </sst>
 </file>
@@ -911,9 +908,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>3810</xdr:colOff>
+          <xdr:colOff>2540</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>116840</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -928,7 +925,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2243"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2250"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1279,10 +1276,10 @@
   </sheetPr>
   <dimension ref="A7:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1865,15 +1862,15 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
@@ -1885,7 +1882,7 @@
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
@@ -4224,13 +4221,13 @@
         <v>10-Mar</v>
       </c>
       <c r="C78" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="16">
         <v>1</v>
@@ -4239,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="16">
         <v>0</v>
@@ -4255,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4541,7 +4538,7 @@
   <dimension ref="A5:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4571,10 +4568,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
   <dimension ref="D7:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
+      <selection pane="bottomLeft" activeCell="AA61" sqref="AA60:AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4583,7 +4580,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:24" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:24" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4629,40 +4626,40 @@
         <f t="array" aca="1" ref="D9:D77" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
         <v>0</v>
       </c>
       <c r="R9" cm="1">
@@ -4675,40 +4672,40 @@
         <f ca="1"/>
         <v>02-Jan</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
         <v>0</v>
       </c>
       <c r="R10">
@@ -4720,40 +4717,40 @@
         <f ca="1"/>
         <v>03-Jan</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
         <v>0</v>
       </c>
       <c r="R11">
@@ -4768,40 +4765,40 @@
         <f ca="1"/>
         <v>04-Jan</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
         <v>0</v>
       </c>
       <c r="R12">
@@ -4813,40 +4810,40 @@
         <f ca="1"/>
         <v>05-Jan</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
         <v>0</v>
       </c>
       <c r="R13">
@@ -4858,40 +4855,40 @@
         <f ca="1"/>
         <v>06-Jan</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
         <v>0</v>
       </c>
       <c r="R14">
@@ -4903,40 +4900,40 @@
         <f ca="1"/>
         <v>07-Jan</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
         <v>0</v>
       </c>
       <c r="R15">
@@ -4948,40 +4945,40 @@
         <f ca="1"/>
         <v>08-Jan</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
         <v>0</v>
       </c>
       <c r="R16">
@@ -4993,40 +4990,40 @@
         <f ca="1"/>
         <v>09-Jan</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
         <v>0</v>
       </c>
       <c r="R17">
@@ -5038,40 +5035,40 @@
         <f ca="1"/>
         <v>10-Jan</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
         <v>0</v>
       </c>
       <c r="R18">
@@ -5083,40 +5080,40 @@
         <f ca="1"/>
         <v>11-Jan</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
         <v>0</v>
       </c>
       <c r="R19">
@@ -5128,40 +5125,40 @@
         <f ca="1"/>
         <v>12-Jan</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
         <v>0</v>
       </c>
       <c r="R20">
@@ -5173,40 +5170,40 @@
         <f ca="1"/>
         <v>13-Jan</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
         <v>0</v>
       </c>
       <c r="R21">
@@ -5218,40 +5215,40 @@
         <f ca="1"/>
         <v>14-Jan</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
         <v>0</v>
       </c>
       <c r="R22">
@@ -5263,40 +5260,40 @@
         <f ca="1"/>
         <v>15-Jan</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
         <v>0</v>
       </c>
       <c r="R23">
@@ -5308,40 +5305,40 @@
         <f ca="1"/>
         <v>16-Jan</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
         <v>0</v>
       </c>
       <c r="R24">
@@ -5353,40 +5350,40 @@
         <f ca="1"/>
         <v>17-Jan</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
         <v>0</v>
       </c>
       <c r="R25">
@@ -5398,40 +5395,40 @@
         <f ca="1"/>
         <v>18-Jan</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
         <v>0</v>
       </c>
       <c r="R26">
@@ -5443,40 +5440,40 @@
         <f ca="1"/>
         <v>19-Jan</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
         <v>0</v>
       </c>
       <c r="R27">
@@ -5488,40 +5485,40 @@
         <f ca="1"/>
         <v>20-Jan</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
         <v>0</v>
       </c>
       <c r="R28">
@@ -5533,40 +5530,40 @@
         <f ca="1"/>
         <v>21-Jan</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
         <v>0</v>
       </c>
       <c r="R29">
@@ -5578,40 +5575,40 @@
         <f ca="1"/>
         <v>22-Jan</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
         <v>0</v>
       </c>
       <c r="R30">
@@ -5623,40 +5620,40 @@
         <f ca="1"/>
         <v>23-Jan</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
         <v>0</v>
       </c>
       <c r="R31">
@@ -5668,40 +5665,40 @@
         <f ca="1"/>
         <v>24-Jan</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
         <v>0</v>
       </c>
       <c r="R32">
@@ -5713,40 +5710,40 @@
         <f ca="1"/>
         <v>25-Jan</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
         <v>0</v>
       </c>
       <c r="R33">
@@ -5758,40 +5755,40 @@
         <f ca="1"/>
         <v>26-Jan</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
         <v>0</v>
       </c>
       <c r="R34">
@@ -5803,40 +5800,40 @@
         <f ca="1"/>
         <v>27-Jan</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
         <v>0</v>
       </c>
       <c r="R35">
@@ -5848,40 +5845,40 @@
         <f ca="1"/>
         <v>28-Jan</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
         <v>0</v>
       </c>
       <c r="R36">
@@ -5893,40 +5890,40 @@
         <f ca="1"/>
         <v>29-Jan</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
         <v>0</v>
       </c>
       <c r="R37">
@@ -5938,40 +5935,40 @@
         <f ca="1"/>
         <v>30-Jan</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
         <v>0</v>
       </c>
       <c r="R38">
@@ -5983,40 +5980,40 @@
         <f ca="1"/>
         <v>31-Jan</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
         <v>0</v>
       </c>
       <c r="R39">
@@ -6028,40 +6025,40 @@
         <f ca="1"/>
         <v>01-Feb</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
         <v>0</v>
       </c>
       <c r="R40">
@@ -6073,40 +6070,40 @@
         <f ca="1"/>
         <v>02-Feb</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="E41" s="11">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
         <v>0</v>
       </c>
       <c r="R41">
@@ -6118,40 +6115,40 @@
         <f ca="1"/>
         <v>03-Feb</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
         <v>0</v>
       </c>
       <c r="R42">
@@ -6163,40 +6160,40 @@
         <f ca="1"/>
         <v>04-Feb</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
         <v>0</v>
       </c>
       <c r="R43">
@@ -6208,40 +6205,40 @@
         <f ca="1"/>
         <v>05-Feb</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
         <v>0</v>
       </c>
       <c r="R44">
@@ -6253,40 +6250,40 @@
         <f ca="1"/>
         <v>06-Feb</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
         <v>0</v>
       </c>
       <c r="R45">
@@ -6298,40 +6295,40 @@
         <f ca="1"/>
         <v>07-Feb</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
         <v>0</v>
       </c>
       <c r="R46">
@@ -6343,40 +6340,40 @@
         <f ca="1"/>
         <v>08-Feb</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
         <v>0</v>
       </c>
       <c r="R47">
@@ -6388,40 +6385,40 @@
         <f ca="1"/>
         <v>09-Feb</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
         <v>0</v>
       </c>
       <c r="R48">
@@ -6433,40 +6430,40 @@
         <f ca="1"/>
         <v>10-Feb</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
         <v>0</v>
       </c>
       <c r="R49">
@@ -6478,40 +6475,40 @@
         <f ca="1"/>
         <v>11-Feb</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
         <v>0</v>
       </c>
       <c r="R50">
@@ -6523,40 +6520,40 @@
         <f ca="1"/>
         <v>12-Feb</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
         <v>0</v>
       </c>
       <c r="R51">
@@ -6568,40 +6565,40 @@
         <f ca="1"/>
         <v>13-Feb</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
         <v>0</v>
       </c>
       <c r="R52">
@@ -6613,40 +6610,40 @@
         <f ca="1"/>
         <v>14-Feb</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>1</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
         <v>0</v>
       </c>
       <c r="R53">
@@ -6658,40 +6655,40 @@
         <f ca="1"/>
         <v>15-Feb</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>1</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
         <v>0</v>
       </c>
       <c r="R54">
@@ -6703,40 +6700,40 @@
         <f ca="1"/>
         <v>16-Feb</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1</v>
+      </c>
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11">
         <v>0</v>
       </c>
       <c r="R55">
@@ -6748,40 +6745,40 @@
         <f ca="1"/>
         <v>17-Feb</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>1</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
         <v>0</v>
       </c>
       <c r="R56">
@@ -6793,40 +6790,40 @@
         <f ca="1"/>
         <v>18-Feb</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+      <c r="O57" s="11">
+        <v>0</v>
+      </c>
+      <c r="P57" s="11">
         <v>0</v>
       </c>
       <c r="R57">
@@ -6838,40 +6835,40 @@
         <f ca="1"/>
         <v>19-Feb</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>1</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0</v>
+      </c>
+      <c r="P58" s="11">
         <v>0</v>
       </c>
       <c r="R58">
@@ -6883,40 +6880,40 @@
         <f ca="1"/>
         <v>20-Feb</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11">
         <v>0</v>
       </c>
       <c r="R59">
@@ -6928,40 +6925,40 @@
         <f ca="1"/>
         <v>21-Feb</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0</v>
+      </c>
+      <c r="L60" s="11">
+        <v>1</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
+        <v>0</v>
+      </c>
+      <c r="P60" s="11">
         <v>0</v>
       </c>
       <c r="R60">
@@ -6973,40 +6970,40 @@
         <f ca="1"/>
         <v>22-Feb</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>1</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
+        <v>1</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
         <v>0</v>
       </c>
       <c r="R61">
@@ -7018,40 +7015,40 @@
         <f ca="1"/>
         <v>23-Feb</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>1</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
+        <v>1</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11">
         <v>0</v>
       </c>
       <c r="R62">
@@ -7063,40 +7060,40 @@
         <f ca="1"/>
         <v>24-Feb</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
+      <c r="P63" s="11">
         <v>0</v>
       </c>
       <c r="R63">
@@ -7108,632 +7105,629 @@
         <f ca="1"/>
         <v>25-Feb</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>1</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
         <v>0</v>
       </c>
       <c r="R64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>1</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0</v>
+      </c>
+      <c r="P65" s="11">
         <v>0</v>
       </c>
       <c r="R65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D66" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>1</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+      <c r="O66" s="11">
+        <v>0</v>
+      </c>
+      <c r="P66" s="11">
         <v>0</v>
       </c>
       <c r="R66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D67" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>1</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+      <c r="O67" s="11">
+        <v>0</v>
+      </c>
+      <c r="P67" s="11">
         <v>0</v>
       </c>
       <c r="R67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D68" t="str">
         <f ca="1"/>
         <v>01-Mar</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>1</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0</v>
+      </c>
+      <c r="O68" s="11">
+        <v>0</v>
+      </c>
+      <c r="P68" s="11">
         <v>0</v>
       </c>
       <c r="R68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D69" t="str">
         <f ca="1"/>
         <v>02-Mar</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>1</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>1</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0</v>
+      </c>
+      <c r="P69" s="11">
         <v>0</v>
       </c>
       <c r="R69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D70" t="str">
         <f ca="1"/>
         <v>03-Mar</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>1</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>1</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0</v>
+      </c>
+      <c r="P70" s="11">
         <v>0</v>
       </c>
       <c r="R70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D71" t="str">
         <f ca="1"/>
         <v>04-Mar</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>1</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>1</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0</v>
+      </c>
+      <c r="P71" s="11">
         <v>0</v>
       </c>
       <c r="R71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D72" t="str">
         <f ca="1"/>
         <v>05-Mar</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>1</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0</v>
+      </c>
+      <c r="P72" s="11">
         <v>0</v>
       </c>
       <c r="R72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D73" t="str">
         <f ca="1"/>
         <v>06-Mar</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>1</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0</v>
+      </c>
+      <c r="P73" s="11">
         <v>0</v>
       </c>
       <c r="R73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D74" t="str">
         <f ca="1"/>
         <v>07-Mar</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>1</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11">
+        <v>1</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0</v>
+      </c>
+      <c r="O74" s="11">
+        <v>0</v>
+      </c>
+      <c r="P74" s="11">
         <v>0</v>
       </c>
       <c r="R74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D75" t="str">
         <f ca="1"/>
         <v>08-Mar</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11">
+        <v>1</v>
+      </c>
+      <c r="M75" s="11">
+        <v>0</v>
+      </c>
+      <c r="N75" s="11">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11">
+        <v>0</v>
+      </c>
+      <c r="P75" s="11">
         <v>0</v>
       </c>
       <c r="R75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D76" t="str">
         <f ca="1"/>
         <v>09-Mar</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+      <c r="O76" s="11">
+        <v>0</v>
+      </c>
+      <c r="P76" s="11">
         <v>0</v>
       </c>
       <c r="R76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D77" t="str">
         <f ca="1"/>
         <v>10-Mar</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
+      <c r="E77" s="11">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11">
+        <v>1</v>
+      </c>
+      <c r="M77" s="11">
+        <v>0</v>
+      </c>
+      <c r="N77" s="11">
+        <v>0</v>
+      </c>
+      <c r="O77" s="11">
+        <v>0</v>
+      </c>
+      <c r="P77" s="11">
         <v>1</v>
       </c>
       <c r="R77">
-        <v>1</v>
-      </c>
-      <c r="U77" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C14C1-1395-4F5E-BCF9-AC1F7D2B1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A15EF-0387-4C4A-8760-82B74C6C8FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-32760" yWindow="590" windowWidth="27450" windowHeight="12340" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,35 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -852,27 +880,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="22"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="20"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="18"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="17"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="16"/>
+      <tableStyleElement type="pageFieldValues" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -925,7 +953,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2250"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2253"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1276,10 +1304,10 @@
   </sheetPr>
   <dimension ref="A7:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1396,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B78" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B79" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1381,7 +1409,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M78">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M79">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1886,7 +1914,7 @@
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
@@ -1967,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L78" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L79" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4239,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="16">
         <v>1</v>
@@ -4252,20 +4280,48 @@
         <v>11</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
+      <c r="B79" s="9" t="str">
+        <f ca="1"/>
+        <v>11-Mar</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0</v>
+      </c>
+      <c r="G79" s="16">
+        <v>0</v>
+      </c>
+      <c r="H79" s="16">
+        <v>0</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
@@ -4511,18 +4567,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q24:Q60">
     <sortCondition ref="Q24:Q60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:B77">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="B10:K79">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4566,17 +4622,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:X77"/>
+  <dimension ref="D7:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AA61" sqref="AA60:AA61"/>
+      <selection pane="bottomLeft" activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="19" width="3.33203125" customWidth="1"/>
+    <col min="5" max="16" width="3.33203125" style="11" customWidth="1"/>
+    <col min="17" max="19" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4623,7 +4680,7 @@
     </row>
     <row r="9" spans="4:24" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D77" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D78" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4663,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="R9" cm="1">
-        <f t="array" ref="R9:R77">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="R9:R78">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -7730,9 +7787,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f ca="1"/>
+        <v>11-Mar</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>1</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>1</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+      <c r="O78" s="11">
+        <v>0</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:P76 E77">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D9:P78">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A15EF-0387-4C4A-8760-82B74C6C8FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B228F5D-BA49-40A2-B5ED-2ED08B6BBED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32760" yWindow="590" windowWidth="27450" windowHeight="12340" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-32850" yWindow="2230" windowWidth="27450" windowHeight="12340" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="fmt" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$C:$K),12)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="ix">_xlfn.DROP(_xlfn._TRO_ALL(Report!$L:$L),0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$P),1)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">_xlfn.DROP(_xlfn.TRIMRANGE(LongTermTraining!$D:$Q),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Setup work on Bayesian text</t>
+  </si>
+  <si>
+    <t>Writeup Chi-Square notes</t>
+  </si>
+  <si>
+    <t>CSS: Flexbox FroggyPro step 10</t>
+  </si>
+  <si>
+    <t>Power Conversion Class</t>
   </si>
 </sst>
 </file>
@@ -591,35 +600,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -880,27 +861,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="22"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="21"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="20"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="19"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="18"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="17"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="16"/>
-      <tableStyleElement type="pageFieldValues" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -930,15 +911,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>10160</xdr:colOff>
+          <xdr:colOff>8890</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>81280</xdr:rowOff>
+          <xdr:rowOff>80010</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>2540</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>116840</xdr:rowOff>
+          <xdr:colOff>6350</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>62230</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -953,7 +934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2253"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2262"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -967,8 +948,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4353560" y="10761980"/>
-              <a:ext cx="3365500" cy="3022600"/>
+              <a:off x="4352290" y="11021060"/>
+              <a:ext cx="3365500" cy="3282950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1027,11 +1008,7 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1054,7 +1031,11 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
             <a:t> Week Num</a:t>
           </a:r>
         </a:p>
@@ -1305,9 +1286,9 @@
   <dimension ref="A7:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1304,7 @@
   <sheetData>
     <row r="7" spans="1:27" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="140.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1890,39 +1871,39 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="11">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
       <c r="R18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -3723,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="str">
         <f ca="1"/>
         <v>25-Feb</v>
@@ -3763,7 +3744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
@@ -3803,7 +3784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
@@ -3843,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
@@ -3883,7 +3864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="str">
         <f ca="1"/>
         <v>01-Mar</v>
@@ -3923,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="str">
         <f ca="1"/>
         <v>02-Mar</v>
@@ -3963,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="str">
         <f ca="1"/>
         <v>03-Mar</v>
@@ -4003,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="str">
         <f ca="1"/>
         <v>04-Mar</v>
@@ -4043,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="str">
         <f ca="1"/>
         <v>05-Mar</v>
@@ -4083,7 +4064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="str">
         <f ca="1"/>
         <v>06-Mar</v>
@@ -4123,7 +4104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="str">
         <f ca="1"/>
         <v>07-Mar</v>
@@ -4163,7 +4144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="str">
         <f ca="1"/>
         <v>08-Mar</v>
@@ -4203,7 +4184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="str">
         <f ca="1"/>
         <v>09-Mar</v>
@@ -4243,7 +4224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="str">
         <f ca="1"/>
         <v>10-Mar</v>
@@ -4283,47 +4264,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="str">
         <f ca="1"/>
         <v>11-Mar</v>
       </c>
       <c r="C79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="16">
         <v>0</v>
       </c>
       <c r="E79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <f ca="1"/>
         <v>11</v>
       </c>
       <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -4568,17 +4552,17 @@
     <sortCondition ref="Q24:Q60"/>
   </sortState>
   <conditionalFormatting sqref="B10:K79">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4591,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EF4EBB-A76D-4834-A49E-430EF56D9D9D}">
-  <dimension ref="A5:B6"/>
+  <dimension ref="A5:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4613,6 +4597,14 @@
       </c>
       <c r="B6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4622,22 +4614,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:X78"/>
+  <dimension ref="D7:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V75" sqref="V75"/>
+      <selection pane="bottomLeft" activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="16" width="3.33203125" style="11" customWidth="1"/>
-    <col min="17" max="19" width="3.33203125" customWidth="1"/>
+    <col min="5" max="17" width="3.33203125" style="11" customWidth="1"/>
+    <col min="18" max="20" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:24" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:25" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4672,13 +4664,16 @@
         <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:24" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9:D78" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
@@ -4719,12 +4714,15 @@
       <c r="P9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" cm="1">
-        <f t="array" ref="R9:R78">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" cm="1">
+        <f t="array" ref="S9:S78">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -4765,11 +4763,14 @@
       <c r="P10" s="11">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -4810,14 +4811,17 @@
       <c r="P11" s="11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -4858,11 +4862,14 @@
       <c r="P12" s="11">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -4903,11 +4910,14 @@
       <c r="P13" s="11">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -4948,11 +4958,14 @@
       <c r="P14" s="11">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
@@ -4993,11 +5006,14 @@
       <c r="P15" s="11">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -5038,11 +5054,14 @@
       <c r="P16" s="11">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f ca="1"/>
         <v>09-Jan</v>
@@ -5083,11 +5102,14 @@
       <c r="P17" s="11">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f ca="1"/>
         <v>10-Jan</v>
@@ -5128,11 +5150,14 @@
       <c r="P18" s="11">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f ca="1"/>
         <v>11-Jan</v>
@@ -5173,11 +5198,14 @@
       <c r="P19" s="11">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f ca="1"/>
         <v>12-Jan</v>
@@ -5218,11 +5246,14 @@
       <c r="P20" s="11">
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f ca="1"/>
         <v>13-Jan</v>
@@ -5263,11 +5294,14 @@
       <c r="P21" s="11">
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f ca="1"/>
         <v>14-Jan</v>
@@ -5308,11 +5342,14 @@
       <c r="P22" s="11">
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f ca="1"/>
         <v>15-Jan</v>
@@ -5353,11 +5390,14 @@
       <c r="P23" s="11">
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f ca="1"/>
         <v>16-Jan</v>
@@ -5398,11 +5438,14 @@
       <c r="P24" s="11">
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f ca="1"/>
         <v>17-Jan</v>
@@ -5443,11 +5486,14 @@
       <c r="P25" s="11">
         <v>0</v>
       </c>
-      <c r="R25">
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f ca="1"/>
         <v>18-Jan</v>
@@ -5488,11 +5534,14 @@
       <c r="P26" s="11">
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f ca="1"/>
         <v>19-Jan</v>
@@ -5533,11 +5582,14 @@
       <c r="P27" s="11">
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f ca="1"/>
         <v>20-Jan</v>
@@ -5578,11 +5630,14 @@
       <c r="P28" s="11">
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f ca="1"/>
         <v>21-Jan</v>
@@ -5623,11 +5678,14 @@
       <c r="P29" s="11">
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f ca="1"/>
         <v>22-Jan</v>
@@ -5668,11 +5726,14 @@
       <c r="P30" s="11">
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f ca="1"/>
         <v>23-Jan</v>
@@ -5713,11 +5774,14 @@
       <c r="P31" s="11">
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f ca="1"/>
         <v>24-Jan</v>
@@ -5758,11 +5822,14 @@
       <c r="P32" s="11">
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f ca="1"/>
         <v>25-Jan</v>
@@ -5803,11 +5870,14 @@
       <c r="P33" s="11">
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f ca="1"/>
         <v>26-Jan</v>
@@ -5848,11 +5918,14 @@
       <c r="P34" s="11">
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
         <f ca="1"/>
         <v>27-Jan</v>
@@ -5893,11 +5966,14 @@
       <c r="P35" s="11">
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="Q35" s="11">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
         <f ca="1"/>
         <v>28-Jan</v>
@@ -5938,11 +6014,14 @@
       <c r="P36" s="11">
         <v>0</v>
       </c>
-      <c r="R36">
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" t="str">
         <f ca="1"/>
         <v>29-Jan</v>
@@ -5983,11 +6062,14 @@
       <c r="P37" s="11">
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" t="str">
         <f ca="1"/>
         <v>30-Jan</v>
@@ -6028,11 +6110,14 @@
       <c r="P38" s="11">
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
         <f ca="1"/>
         <v>31-Jan</v>
@@ -6073,11 +6158,14 @@
       <c r="P39" s="11">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
         <f ca="1"/>
         <v>01-Feb</v>
@@ -6118,11 +6206,14 @@
       <c r="P40" s="11">
         <v>0</v>
       </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
         <f ca="1"/>
         <v>02-Feb</v>
@@ -6163,11 +6254,14 @@
       <c r="P41" s="11">
         <v>0</v>
       </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D42" t="str">
         <f ca="1"/>
         <v>03-Feb</v>
@@ -6208,11 +6302,14 @@
       <c r="P42" s="11">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D43" t="str">
         <f ca="1"/>
         <v>04-Feb</v>
@@ -6253,11 +6350,14 @@
       <c r="P43" s="11">
         <v>0</v>
       </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="11">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D44" t="str">
         <f ca="1"/>
         <v>05-Feb</v>
@@ -6298,11 +6398,14 @@
       <c r="P44" s="11">
         <v>0</v>
       </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D45" t="str">
         <f ca="1"/>
         <v>06-Feb</v>
@@ -6343,11 +6446,14 @@
       <c r="P45" s="11">
         <v>0</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D46" t="str">
         <f ca="1"/>
         <v>07-Feb</v>
@@ -6388,11 +6494,14 @@
       <c r="P46" s="11">
         <v>0</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D47" t="str">
         <f ca="1"/>
         <v>08-Feb</v>
@@ -6433,11 +6542,14 @@
       <c r="P47" s="11">
         <v>0</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D48" t="str">
         <f ca="1"/>
         <v>09-Feb</v>
@@ -6478,11 +6590,14 @@
       <c r="P48" s="11">
         <v>0</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D49" t="str">
         <f ca="1"/>
         <v>10-Feb</v>
@@ -6523,11 +6638,14 @@
       <c r="P49" s="11">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q49" s="11">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D50" t="str">
         <f ca="1"/>
         <v>11-Feb</v>
@@ -6568,11 +6686,14 @@
       <c r="P50" s="11">
         <v>0</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D51" t="str">
         <f ca="1"/>
         <v>12-Feb</v>
@@ -6613,11 +6734,14 @@
       <c r="P51" s="11">
         <v>0</v>
       </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q51" s="11">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D52" t="str">
         <f ca="1"/>
         <v>13-Feb</v>
@@ -6658,11 +6782,14 @@
       <c r="P52" s="11">
         <v>0</v>
       </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D53" t="str">
         <f ca="1"/>
         <v>14-Feb</v>
@@ -6703,11 +6830,14 @@
       <c r="P53" s="11">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D54" t="str">
         <f ca="1"/>
         <v>15-Feb</v>
@@ -6748,11 +6878,14 @@
       <c r="P54" s="11">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D55" t="str">
         <f ca="1"/>
         <v>16-Feb</v>
@@ -6793,11 +6926,14 @@
       <c r="P55" s="11">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q55" s="11">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D56" t="str">
         <f ca="1"/>
         <v>17-Feb</v>
@@ -6838,11 +6974,14 @@
       <c r="P56" s="11">
         <v>0</v>
       </c>
-      <c r="R56">
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D57" t="str">
         <f ca="1"/>
         <v>18-Feb</v>
@@ -6883,11 +7022,14 @@
       <c r="P57" s="11">
         <v>0</v>
       </c>
-      <c r="R57">
+      <c r="Q57" s="11">
+        <v>0</v>
+      </c>
+      <c r="S57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D58" t="str">
         <f ca="1"/>
         <v>19-Feb</v>
@@ -6928,11 +7070,14 @@
       <c r="P58" s="11">
         <v>0</v>
       </c>
-      <c r="R58">
+      <c r="Q58" s="11">
+        <v>0</v>
+      </c>
+      <c r="S58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D59" t="str">
         <f ca="1"/>
         <v>20-Feb</v>
@@ -6973,11 +7118,14 @@
       <c r="P59" s="11">
         <v>0</v>
       </c>
-      <c r="R59">
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D60" t="str">
         <f ca="1"/>
         <v>21-Feb</v>
@@ -7018,11 +7166,14 @@
       <c r="P60" s="11">
         <v>0</v>
       </c>
-      <c r="R60">
+      <c r="Q60" s="11">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D61" t="str">
         <f ca="1"/>
         <v>22-Feb</v>
@@ -7063,11 +7214,14 @@
       <c r="P61" s="11">
         <v>0</v>
       </c>
-      <c r="R61">
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="S61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D62" t="str">
         <f ca="1"/>
         <v>23-Feb</v>
@@ -7108,11 +7262,14 @@
       <c r="P62" s="11">
         <v>0</v>
       </c>
-      <c r="R62">
+      <c r="Q62" s="11">
+        <v>0</v>
+      </c>
+      <c r="S62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D63" t="str">
         <f ca="1"/>
         <v>24-Feb</v>
@@ -7153,11 +7310,14 @@
       <c r="P63" s="11">
         <v>0</v>
       </c>
-      <c r="R63">
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
+      <c r="S63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D64" t="str">
         <f ca="1"/>
         <v>25-Feb</v>
@@ -7198,11 +7358,14 @@
       <c r="P64" s="11">
         <v>0</v>
       </c>
-      <c r="R64">
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D65" t="str">
         <f ca="1"/>
         <v>26-Feb</v>
@@ -7243,11 +7406,14 @@
       <c r="P65" s="11">
         <v>0</v>
       </c>
-      <c r="R65">
+      <c r="Q65" s="11">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D66" t="str">
         <f ca="1"/>
         <v>27-Feb</v>
@@ -7288,11 +7454,14 @@
       <c r="P66" s="11">
         <v>0</v>
       </c>
-      <c r="R66">
+      <c r="Q66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D67" t="str">
         <f ca="1"/>
         <v>28-Feb</v>
@@ -7333,11 +7502,14 @@
       <c r="P67" s="11">
         <v>0</v>
       </c>
-      <c r="R67">
+      <c r="Q67" s="11">
+        <v>0</v>
+      </c>
+      <c r="S67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D68" t="str">
         <f ca="1"/>
         <v>01-Mar</v>
@@ -7378,11 +7550,14 @@
       <c r="P68" s="11">
         <v>0</v>
       </c>
-      <c r="R68">
+      <c r="Q68" s="11">
+        <v>0</v>
+      </c>
+      <c r="S68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D69" t="str">
         <f ca="1"/>
         <v>02-Mar</v>
@@ -7423,11 +7598,14 @@
       <c r="P69" s="11">
         <v>0</v>
       </c>
-      <c r="R69">
+      <c r="Q69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D70" t="str">
         <f ca="1"/>
         <v>03-Mar</v>
@@ -7468,11 +7646,14 @@
       <c r="P70" s="11">
         <v>0</v>
       </c>
-      <c r="R70">
+      <c r="Q70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D71" t="str">
         <f ca="1"/>
         <v>04-Mar</v>
@@ -7513,11 +7694,14 @@
       <c r="P71" s="11">
         <v>0</v>
       </c>
-      <c r="R71">
+      <c r="Q71" s="11">
+        <v>0</v>
+      </c>
+      <c r="S71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D72" t="str">
         <f ca="1"/>
         <v>05-Mar</v>
@@ -7558,11 +7742,14 @@
       <c r="P72" s="11">
         <v>0</v>
       </c>
-      <c r="R72">
+      <c r="Q72" s="11">
+        <v>0</v>
+      </c>
+      <c r="S72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D73" t="str">
         <f ca="1"/>
         <v>06-Mar</v>
@@ -7603,11 +7790,14 @@
       <c r="P73" s="11">
         <v>0</v>
       </c>
-      <c r="R73">
+      <c r="Q73" s="11">
+        <v>0</v>
+      </c>
+      <c r="S73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D74" t="str">
         <f ca="1"/>
         <v>07-Mar</v>
@@ -7648,11 +7838,14 @@
       <c r="P74" s="11">
         <v>0</v>
       </c>
-      <c r="R74">
+      <c r="Q74" s="11">
+        <v>0</v>
+      </c>
+      <c r="S74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D75" t="str">
         <f ca="1"/>
         <v>08-Mar</v>
@@ -7688,16 +7881,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="11">
         <v>0</v>
       </c>
-      <c r="R75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q75" s="11">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D76" t="str">
         <f ca="1"/>
         <v>09-Mar</v>
@@ -7733,16 +7929,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="11">
         <v>0</v>
       </c>
-      <c r="R76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q76" s="11">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D77" t="str">
         <f ca="1"/>
         <v>10-Mar</v>
@@ -7778,63 +7977,69 @@
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="11">
-        <v>1</v>
-      </c>
-      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f ca="1"/>
+        <v>11-Mar</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>1</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>1</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+      <c r="O78" s="11">
+        <v>1</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>0</v>
+      </c>
+      <c r="S78">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D78" t="str">
-        <f ca="1"/>
-        <v>11-Mar</v>
-      </c>
-      <c r="E78" s="11">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <v>0</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>1</v>
-      </c>
-      <c r="J78" s="11">
-        <v>0</v>
-      </c>
-      <c r="K78" s="11">
-        <v>0</v>
-      </c>
-      <c r="L78" s="11">
-        <v>1</v>
-      </c>
-      <c r="M78" s="11">
-        <v>0</v>
-      </c>
-      <c r="N78" s="11">
-        <v>0</v>
-      </c>
-      <c r="O78" s="11">
-        <v>0</v>
-      </c>
-      <c r="P78" s="11">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:P78">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="D9:Q78">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B228F5D-BA49-40A2-B5ED-2ED08B6BBED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1AEBD-D896-4AD7-85CF-17103D59858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32850" yWindow="2230" windowWidth="27450" windowHeight="12340" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -917,9 +917,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
+          <xdr:colOff>8890</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>62230</xdr:rowOff>
+          <xdr:rowOff>26670</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -934,7 +934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2262"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2265"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -948,8 +948,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4352290" y="11021060"/>
-              <a:ext cx="3365500" cy="3282950"/>
+              <a:off x="4352290" y="11151870"/>
+              <a:ext cx="3368040" cy="3299460"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1286,9 +1286,9 @@
   <dimension ref="A7:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="AC76" sqref="AC76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="Q18" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="11">
         <f ca="1"/>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="16">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>11</v>
       </c>
       <c r="M79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z79" t="s">
         <v>31</v>
@@ -4617,9 +4617,9 @@
   <dimension ref="D7:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V68" sqref="V68"/>
+      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8031,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="Q78" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1AEBD-D896-4AD7-85CF-17103D59858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620DAE2-2C8A-41DB-883B-FB26734682F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -169,10 +169,10 @@
     <t>Writeup Chi-Square notes</t>
   </si>
   <si>
-    <t>CSS: Flexbox FroggyPro step 10</t>
+    <t>Power Conversion Class</t>
   </si>
   <si>
-    <t>Power Conversion Class</t>
+    <t>CSS: Flexbox FroggyPro,Starting Line, Finished</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,14 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -861,27 +868,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -917,9 +924,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>8890</xdr:colOff>
+          <xdr:colOff>2540</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>26670</xdr:rowOff>
+          <xdr:rowOff>34290</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -934,7 +941,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2265"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1286,9 +1293,9 @@
   <dimension ref="A7:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AC76" sqref="AC76"/>
+      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1311,7 @@
   <sheetData>
     <row r="7" spans="1:27" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" ht="140.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1384,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B79" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B80" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1390,7 +1397,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M79">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M80">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1871,39 +1878,39 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="11">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="Q18" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="R18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1976,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L79" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L80" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4304,20 +4311,48 @@
         <v>9</v>
       </c>
       <c r="Z79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
+      <c r="B80" s="9" t="str">
+        <f ca="1"/>
+        <v>12-Mar</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16">
+        <v>1</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16">
+        <v>1</v>
+      </c>
+      <c r="I80" s="16">
+        <v>1</v>
+      </c>
+      <c r="J80" s="16">
+        <v>1</v>
+      </c>
+      <c r="K80" s="16">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M80">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
@@ -4614,12 +4649,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:Y78"/>
+  <dimension ref="D7:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
+      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4628,8 +4663,8 @@
     <col min="18" max="20" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:25" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>21</v>
@@ -4673,9 +4708,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D78" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D79" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4718,11 +4753,11 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S78">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:25" x14ac:dyDescent="0.25">
+        <f t="array" ref="S9:S79">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f ca="1"/>
         <v>02-Jan</v>
@@ -4770,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f ca="1"/>
         <v>03-Jan</v>
@@ -4817,11 +4852,8 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f ca="1"/>
         <v>04-Jan</v>
@@ -4869,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f ca="1"/>
         <v>05-Jan</v>
@@ -4917,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f ca="1"/>
         <v>06-Jan</v>
@@ -4965,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f ca="1"/>
         <v>07-Jan</v>
@@ -5013,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f ca="1"/>
         <v>08-Jan</v>
@@ -8037,8 +8069,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f ca="1"/>
+        <v>12-Mar</v>
+      </c>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1</v>
+      </c>
+      <c r="J79" s="11">
+        <v>0</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11">
+        <v>1</v>
+      </c>
+      <c r="M79" s="11">
+        <v>0</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0</v>
+      </c>
+      <c r="O79" s="11">
+        <v>0</v>
+      </c>
+      <c r="P79" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:Q78">
+  <conditionalFormatting sqref="D9:Q79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620DAE2-2C8A-41DB-883B-FB26734682F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB86780-1469-4376-AA36-BEA77DA4A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -600,14 +600,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -868,27 +861,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -941,7 +934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2275"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2279"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1292,10 +1285,10 @@
   </sheetPr>
   <dimension ref="A7:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4651,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
   <dimension ref="D7:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
     </sheetView>
@@ -4664,7 +4657,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="154.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB86780-1469-4376-AA36-BEA77DA4A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C56EB8-EAF7-4B12-BCDD-125A549C06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -934,7 +935,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2279"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1377,7 +1378,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B80" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B81" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1390,7 +1391,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M80">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M81">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1871,39 +1872,39 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="11">
+        <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="Q18" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="R18" s="11">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="11">
+        <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="S18" s="11">
+      <c r="T18" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T18" s="11">
+      <c r="U18" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="U18" s="11">
+      <c r="V18" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="V18" s="11">
+      <c r="W18" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="W18" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1976,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L80" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L81" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4347,19 +4348,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="str">
+        <f ca="1"/>
+        <v>13-Mar</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1</v>
+      </c>
+      <c r="D81" s="16">
+        <v>1</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1</v>
+      </c>
+      <c r="F81" s="16">
+        <v>0</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0</v>
+      </c>
+      <c r="H81" s="16">
+        <v>0</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -4371,7 +4400,7 @@
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -4383,7 +4412,7 @@
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -4395,7 +4424,7 @@
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -4407,7 +4436,7 @@
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -4419,7 +4448,7 @@
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -4431,7 +4460,7 @@
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -4443,7 +4472,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -4455,7 +4484,7 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -4467,7 +4496,7 @@
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -4479,7 +4508,7 @@
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -4491,7 +4520,7 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -4503,7 +4532,7 @@
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -4515,7 +4544,7 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -4527,7 +4556,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -4642,7 +4671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S79"/>
+  <dimension ref="D7:S80"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
@@ -4703,7 +4732,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D79" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D80" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4746,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S79">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S80">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8108,6 +8137,15 @@
       </c>
       <c r="S79">
         <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f ca="1"/>
+        <v>13-Mar</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C56EB8-EAF7-4B12-BCDD-125A549C06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26EC8D-E592-4634-B179-520A869B785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -309,7 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,15 +575,15 @@
     <xf numFmtId="164" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -601,7 +601,28 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -862,27 +883,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -935,7 +956,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2282"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2292"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1287,9 +1308,9 @@
   <dimension ref="A7:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
+      <selection pane="bottomLeft" activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="1"/>
@@ -1884,23 +1905,23 @@
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
@@ -4363,19 +4384,19 @@
         <v>1</v>
       </c>
       <c r="F81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="16">
         <v>1</v>
@@ -4385,7 +4406,7 @@
         <v>11</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4608,18 +4629,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q24:Q60">
     <sortCondition ref="Q24:Q60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:K79">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="B10:K81">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4641,7 +4662,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="b">
+      <c r="A5" s="19" t="b">
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -4649,7 +4670,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="b">
+      <c r="A6" s="19" t="b">
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -4657,7 +4678,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="b">
+      <c r="A7" s="19" t="b">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -4674,9 +4695,9 @@
   <dimension ref="D7:S80"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80:Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8144,13 +8165,52 @@
         <f ca="1"/>
         <v>13-Mar</v>
       </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>1</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>1</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+      <c r="O80" s="11">
+        <v>0</v>
+      </c>
+      <c r="P80" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>1</v>
+      </c>
       <c r="S80">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9:Q79">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26EC8D-E592-4634-B179-520A869B785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97874637-8369-42E9-9B2F-777B70A5FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -32,7 +32,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -601,28 +600,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -883,27 +861,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="21"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
-      <tableStyleElement type="pageFieldValues" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -956,7 +934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2292"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2299"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1310,7 +1288,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O82" sqref="O82"/>
+      <selection pane="bottomLeft" activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1377,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B81" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B82" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1412,7 +1390,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M81">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M82">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1893,39 +1871,39 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q18" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="R18" s="11">
+        <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="Q18" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="R18" s="11">
+      <c r="S18" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="T18" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="U18" s="11">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="S18" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1998,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L81" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L82" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4410,16 +4388,44 @@
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
+      <c r="B82" s="9" t="str">
+        <f ca="1"/>
+        <v>14-Mar</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16">
+        <v>1</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="16">
+        <v>1</v>
+      </c>
+      <c r="J82" s="16">
+        <v>1</v>
+      </c>
+      <c r="K82" s="16">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M82">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
@@ -4630,17 +4636,17 @@
     <sortCondition ref="Q24:Q60"/>
   </sortState>
   <conditionalFormatting sqref="B10:K81">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4692,12 +4698,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S80"/>
+  <dimension ref="D7:S81"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80:Q80"/>
+      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4707,7 +4713,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="154.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4753,7 +4759,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D80" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D81" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4796,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S80">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S81">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8196,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="11">
         <v>0</v>
@@ -8205,12 +8211,60 @@
         <v>1</v>
       </c>
       <c r="S80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D81" t="str">
+        <f ca="1"/>
+        <v>14-Mar</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>1</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+      <c r="O81" s="11">
+        <v>0</v>
+      </c>
+      <c r="P81" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>1</v>
+      </c>
+      <c r="S81">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9:Q79">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97874637-8369-42E9-9B2F-777B70A5FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C6F7A-E4BF-45FF-B570-56B8E176CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;\ @"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -273,6 +274,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -505,7 +513,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -519,8 +527,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -584,9 +593,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
+    <cellStyle name="Explanatory Text" xfId="13" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -934,7 +945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2299"/>
+                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2314"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1283,12 +1294,12 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A7:AA99"/>
+  <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V81" sqref="V81"/>
+      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1313,9 @@
     <col min="16" max="24" width="3.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="O5" s="21"/>
+    </row>
     <row r="7" spans="1:27" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:27" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,7 +1391,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B82" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B83" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1390,7 +1404,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M82">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M83">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1871,39 +1885,39 @@
       </c>
       <c r="P18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X18" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1976,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L82" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L83" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4396,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="16">
         <v>1</v>
@@ -4408,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="16">
         <v>1</v>
@@ -4424,20 +4438,48 @@
         <v>11</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
+      <c r="B83" s="9" t="str">
+        <f ca="1"/>
+        <v>15-Mar</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16">
+        <v>0</v>
+      </c>
+      <c r="E83" s="16">
+        <v>1</v>
+      </c>
+      <c r="F83" s="16">
+        <v>1</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16">
+        <v>1</v>
+      </c>
+      <c r="I83" s="16">
+        <v>1</v>
+      </c>
+      <c r="J83" s="16">
+        <v>1</v>
+      </c>
+      <c r="K83" s="16">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
@@ -4698,12 +4740,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S81"/>
+  <dimension ref="D7:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4713,7 +4755,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4801,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D81" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D82" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4802,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S81">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S82">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8260,6 +8302,54 @@
       </c>
       <c r="S81">
         <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f ca="1"/>
+        <v>15-Mar</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>1</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11">
+        <v>1</v>
+      </c>
+      <c r="M82" s="11">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0</v>
+      </c>
+      <c r="O82" s="11">
+        <v>1</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C6F7A-E4BF-45FF-B570-56B8E176CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C495BD-B56B-4F33-B8DF-D96B8F4C56EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -922,15 +921,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>8890</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>80010</xdr:rowOff>
+          <xdr:colOff>26035</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>27305</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>2540</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>34290</xdr:rowOff>
+          <xdr:colOff>26035</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>132080</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -945,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$18" spid="_x0000_s2314"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2325"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -959,8 +958,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4352290" y="11151870"/>
-              <a:ext cx="3368040" cy="3299460"/>
+              <a:off x="4369435" y="12362180"/>
+              <a:ext cx="3371850" cy="3533775"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1296,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1317,7 @@
     </row>
     <row r="7" spans="1:27" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="143.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B83" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B84" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1404,11 +1403,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M83">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M84">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
-        <f t="array" aca="1" ref="O10:X18" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
+        <f t="array" aca="1" ref="O10:X19" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="P10" s="11">
@@ -1937,6 +1936,46 @@
       <c r="M19">
         <v>0</v>
       </c>
+      <c r="O19" s="14">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="P19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
@@ -1990,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L83" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L84" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4482,16 +4521,44 @@
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
+      <c r="B84" s="9" t="str">
+        <f ca="1"/>
+        <v>16-Mar</v>
+      </c>
+      <c r="C84" s="16">
+        <v>1</v>
+      </c>
+      <c r="D84" s="16">
+        <v>0</v>
+      </c>
+      <c r="E84" s="16">
+        <v>1</v>
+      </c>
+      <c r="F84" s="16">
+        <v>1</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1</v>
+      </c>
+      <c r="H84" s="16">
+        <v>1</v>
+      </c>
+      <c r="I84" s="16">
+        <v>1</v>
+      </c>
+      <c r="J84" s="16">
+        <v>1</v>
+      </c>
+      <c r="K84" s="16">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M84">
+        <v>8</v>
+      </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
@@ -4740,12 +4807,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S82"/>
+  <dimension ref="D7:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomLeft" activeCell="V92" sqref="V92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4868,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D82" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D83" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4844,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S82">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S83">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8349,6 +8416,54 @@
         <v>1</v>
       </c>
       <c r="S82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f ca="1"/>
+        <v>16-Mar</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>1</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
+        <v>1</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+      <c r="O83" s="11">
+        <v>1</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>1</v>
+      </c>
+      <c r="S83">
         <v>4</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C495BD-B56B-4F33-B8DF-D96B8F4C56EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A5E9EE-F1FB-44A6-B07E-3733F978D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -927,9 +928,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>26035</xdr:colOff>
+          <xdr:colOff>34925</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>132080</xdr:rowOff>
+          <xdr:rowOff>116840</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -944,7 +945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2325"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2337"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,9 +1297,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O93" sqref="O93"/>
+      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1391,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B84" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B85" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1404,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M84">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M85">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1942,39 +1943,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2029,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L84" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L85" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4561,16 +4562,44 @@
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
+      <c r="B85" s="9" t="str">
+        <f ca="1"/>
+        <v>17-Mar</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="16">
+        <v>1</v>
+      </c>
+      <c r="E85" s="16">
+        <v>1</v>
+      </c>
+      <c r="F85" s="16">
+        <v>1</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1</v>
+      </c>
+      <c r="H85" s="16">
+        <v>1</v>
+      </c>
+      <c r="I85" s="16">
+        <v>1</v>
+      </c>
+      <c r="J85" s="16">
+        <v>1</v>
+      </c>
+      <c r="K85" s="16">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M85">
+        <v>9</v>
+      </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
@@ -4807,12 +4836,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S83"/>
+  <dimension ref="D7:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V92" sqref="V92"/>
+      <selection pane="bottomLeft" activeCell="S89" sqref="S89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4851,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +4897,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D83" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D84" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4911,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S83">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S84">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8464,6 +8493,54 @@
         <v>1</v>
       </c>
       <c r="S83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D84" t="str">
+        <f ca="1"/>
+        <v>17-Mar</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>1</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11">
+        <v>1</v>
+      </c>
+      <c r="M84" s="11">
+        <v>0</v>
+      </c>
+      <c r="N84" s="11">
+        <v>0</v>
+      </c>
+      <c r="O84" s="11">
+        <v>1</v>
+      </c>
+      <c r="P84" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>1</v>
+      </c>
+      <c r="S84">
         <v>4</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A5E9EE-F1FB-44A6-B07E-3733F978D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{037874D4-C90A-4993-B8AA-3B0EEADF59EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2337"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2339"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,10 +1296,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
+      <selection pane="bottomLeft" activeCell="O88" sqref="O87:O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4838,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
   <dimension ref="D7:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="S89" sqref="S89"/>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{037874D4-C90A-4993-B8AA-3B0EEADF59EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09143AF5-787C-4B28-BE00-A9E84C601C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">_xlfn.DROP(_xlfn._TRO_ALL(Report!$B:$K),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -945,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2339"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2344"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1299,7 +1298,7 @@
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O88" sqref="O87:O88"/>
+      <selection pane="bottomLeft" activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B85" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B86" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1404,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M85">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M86">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1943,39 +1942,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="Q19" s="11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="T19" s="11">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="S19" s="11">
+      <c r="U19" s="11">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="T19" s="11">
+      <c r="V19" s="11">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="U19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
       <c r="W19" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2030,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L85" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L86" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4602,16 +4601,44 @@
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
+      <c r="B86" s="9" t="str">
+        <f ca="1"/>
+        <v>18-Mar</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1</v>
+      </c>
+      <c r="D86" s="16">
+        <v>0</v>
+      </c>
+      <c r="E86" s="16">
+        <v>0</v>
+      </c>
+      <c r="F86" s="16">
+        <v>1</v>
+      </c>
+      <c r="G86" s="16">
+        <v>0</v>
+      </c>
+      <c r="H86" s="16">
+        <v>0</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16">
+        <v>1</v>
+      </c>
+      <c r="K86" s="16">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
@@ -4836,12 +4863,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S84"/>
+  <dimension ref="D7:S85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S89" sqref="S89"/>
+      <selection pane="bottomLeft" activeCell="V95" sqref="V95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4878,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4897,7 +4924,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D84" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D85" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4940,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S84">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S85">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8542,6 +8569,54 @@
       </c>
       <c r="S84">
         <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f ca="1"/>
+        <v>18-Mar</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>1</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>1</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+      <c r="O85" s="11">
+        <v>0</v>
+      </c>
+      <c r="P85" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="11">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09143AF5-787C-4B28-BE00-A9E84C601C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E250063C-45A2-4967-BB37-E1E920AEF208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2344"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2352"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1298,7 +1298,7 @@
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O91" sqref="O91"/>
+      <selection pane="bottomLeft" activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7" spans="1:27" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" ht="143.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="121.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B86" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B87" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M86">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M87">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1942,39 +1942,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="S19" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="T19" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="U19" s="11">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="Q19" s="11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="S19" s="11">
+      <c r="V19" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="W19" s="11">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="T19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="U19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W19" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L86" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L87" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4612,19 +4612,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="16">
         <v>1</v>
       </c>
       <c r="G86" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="16">
         <v>1</v>
@@ -4637,20 +4637,44 @@
         <v>12</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
+      <c r="B87" s="9" t="str">
+        <f ca="1"/>
+        <v>19-Mar</v>
+      </c>
+      <c r="C87" s="16">
+        <v>1</v>
+      </c>
+      <c r="D87" s="16">
+        <v>1</v>
+      </c>
+      <c r="E87" s="16">
+        <v>1</v>
+      </c>
+      <c r="F87" s="16">
+        <v>1</v>
+      </c>
+      <c r="G87" s="16">
+        <v>1</v>
+      </c>
       <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="I87" s="16">
+        <v>1</v>
+      </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
+      <c r="K87" s="16">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M87">
+        <v>7</v>
+      </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
@@ -4800,7 +4824,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q24:Q60">
     <sortCondition ref="Q24:Q60"/>
   </sortState>
-  <conditionalFormatting sqref="B10:K81">
+  <conditionalFormatting sqref="B10:K86">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
@@ -4863,12 +4887,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S85"/>
+  <dimension ref="D7:S86"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V95" sqref="V95"/>
+      <selection pane="bottomLeft" activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4878,7 +4902,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="4:19" ht="131.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4948,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D85" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D86" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -4967,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S85">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S86">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8617,6 +8641,54 @@
       </c>
       <c r="S85">
         <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f ca="1"/>
+        <v>19-Mar</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11">
+        <v>0</v>
+      </c>
+      <c r="M86" s="11">
+        <v>0</v>
+      </c>
+      <c r="N86" s="11">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11">
+        <v>0</v>
+      </c>
+      <c r="P86" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E250063C-45A2-4967-BB37-E1E920AEF208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD552882-0727-49FD-8546-08B2F668D708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,14 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -871,27 +878,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -944,7 +951,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2352"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2358"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1302,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O88" sqref="O88"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1969,7 @@
       </c>
       <c r="U19" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" s="11">
         <f ca="1"/>
@@ -4660,11 +4667,15 @@
       <c r="G87" s="16">
         <v>1</v>
       </c>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16">
+        <v>1</v>
+      </c>
       <c r="I87" s="16">
         <v>1</v>
       </c>
-      <c r="J87" s="16"/>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
       <c r="K87" s="16">
         <v>1</v>
       </c>
@@ -4673,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4825,17 +4836,17 @@
     <sortCondition ref="Q24:Q60"/>
   </sortState>
   <conditionalFormatting sqref="B10:K86">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4889,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
   <dimension ref="D7:S86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="W80" sqref="W80"/>
     </sheetView>
@@ -8661,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -8670,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="11">
         <v>0</v>
@@ -8685,15 +8696,15 @@
         <v>0</v>
       </c>
       <c r="Q86" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9:Q79">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D9:Q86">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD552882-0727-49FD-8546-08B2F668D708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7F7D6-64FC-4137-A965-271433AE5155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -610,14 +610,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -878,27 +871,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="lastColumn" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -951,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2358"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2361"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1305,7 +1298,7 @@
     <sheetView topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B87" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B88" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1410,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M87">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M88">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1949,39 +1942,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S19" s="11">
+        <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="Q19" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="11">
+      <c r="T19" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="S19" s="11">
+      <c r="U19" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T19" s="11">
+      <c r="V19" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="U19" s="11">
+      <c r="W19" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="V19" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W19" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2036,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L87" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L88" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4674,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="16">
         <v>1</v>
@@ -4684,20 +4677,48 @@
         <v>12</v>
       </c>
       <c r="M87">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
+      <c r="B88" s="9" t="str">
+        <f ca="1"/>
+        <v>20-Mar</v>
+      </c>
+      <c r="C88" s="16">
+        <v>1</v>
+      </c>
+      <c r="D88" s="16">
+        <v>1</v>
+      </c>
+      <c r="E88" s="16">
+        <v>1</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16">
+        <v>0</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
@@ -4836,17 +4857,17 @@
     <sortCondition ref="Q24:Q60"/>
   </sortState>
   <conditionalFormatting sqref="B10:K86">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>MOD(ROW(XEJ10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:K77">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>MOD(ROW(XEM10)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:X18">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(O9)-ROW($O$9),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4898,12 +4919,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S86"/>
+  <dimension ref="D7:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="W80" sqref="W80"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4980,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D86" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D87" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5002,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S86">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S87">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8702,9 +8723,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D87" t="str">
+        <f ca="1"/>
+        <v>20-Mar</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0</v>
+      </c>
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1</v>
+      </c>
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <v>1</v>
+      </c>
+      <c r="M87" s="11">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+      <c r="O87" s="11">
+        <v>0</v>
+      </c>
+      <c r="P87" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D9:Q86">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(D9)-ROW($D$8),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7F7D6-64FC-4137-A965-271433AE5155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9288B-0C36-4F62-AB3A-D6F6E9F0D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2361"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2367"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1298,7 +1298,7 @@
     <sheetView topLeftCell="A9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="AA89" sqref="AA89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1954,23 +1954,23 @@
       </c>
       <c r="S19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X19" s="11">
         <f ca="1"/>
@@ -4695,19 +4695,19 @@
         <v>1</v>
       </c>
       <c r="F88" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="16">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -4922,9 +4922,9 @@
   <dimension ref="D7:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="Q87" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9288B-0C36-4F62-AB3A-D6F6E9F0D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550723EB-834A-403A-BBC2-AD39CA39D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2367"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2374"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="AA89" sqref="AA89"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B88" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B89" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M88">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M89">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1942,39 +1942,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="S19" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="T19" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="11">
+        <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="Q19" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="R19" s="11">
+      <c r="V19" s="11">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="W19" s="11">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="S19" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="T19" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="U19" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="V19" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="W19" s="11">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L88" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L89" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4721,16 +4721,44 @@
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="B89" s="9" t="str">
+        <f ca="1"/>
+        <v>21-Mar</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1</v>
+      </c>
+      <c r="D89" s="16">
+        <v>0</v>
+      </c>
+      <c r="E89" s="16">
+        <v>1</v>
+      </c>
+      <c r="F89" s="16">
+        <v>1</v>
+      </c>
+      <c r="G89" s="16">
+        <v>1</v>
+      </c>
+      <c r="H89" s="16">
+        <v>0</v>
+      </c>
+      <c r="I89" s="16">
+        <v>1</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
@@ -4919,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S87"/>
+  <dimension ref="D7:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
     </sheetView>
@@ -4980,7 +5008,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D87" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D88" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5023,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S87">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S88">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8769,6 +8797,15 @@
       </c>
       <c r="S87">
         <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f ca="1"/>
+        <v>21-Mar</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550723EB-834A-403A-BBC2-AD39CA39D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50833B6-602B-499A-B33D-3015B2C7F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2374"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2379"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,9 +1296,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="U19" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19" s="11">
         <f ca="1"/>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="16">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V53" sqref="V53"/>
+      <selection pane="bottomLeft" activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8804,8 +8804,47 @@
         <f ca="1"/>
         <v>21-Mar</v>
       </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <v>1</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+      <c r="O88" s="11">
+        <v>0</v>
+      </c>
+      <c r="P88" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>1</v>
+      </c>
       <c r="S88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50833B6-602B-499A-B33D-3015B2C7F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBF17A-676C-4395-B4E6-F1E720D4BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2379"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2382"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="N90" sqref="N90"/>
+      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B89" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B90" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M89">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M90">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -1942,39 +1942,39 @@
       </c>
       <c r="P19" s="11">
         <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="R19" s="11">
+        <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="Q19" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="S19" s="11">
+      <c r="T19" s="11">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="T19" s="11">
+      <c r="U19" s="11">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="U19" s="11">
+      <c r="V19" s="11">
         <f ca="1"/>
         <v>6</v>
       </c>
-      <c r="V19" s="11">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
       <c r="W19" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L89" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L90" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="16">
         <v>1</v>
@@ -4757,20 +4757,48 @@
         <v>12</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
+      <c r="B90" s="9" t="str">
+        <f ca="1"/>
+        <v>22-Mar</v>
+      </c>
+      <c r="C90" s="16">
+        <v>1</v>
+      </c>
+      <c r="D90" s="16">
+        <v>1</v>
+      </c>
+      <c r="E90" s="16">
+        <v>0</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
+      <c r="H90" s="16">
+        <v>0</v>
+      </c>
+      <c r="I90" s="16">
+        <v>0</v>
+      </c>
+      <c r="J90" s="16">
+        <v>1</v>
+      </c>
+      <c r="K90" s="16">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
@@ -4947,12 +4975,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S88"/>
+  <dimension ref="D7:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="U89" sqref="U89"/>
+      <selection pane="bottomLeft" activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5036,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D88" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D89" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5051,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S88">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S89">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8845,6 +8873,54 @@
       </c>
       <c r="S88">
         <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f ca="1"/>
+        <v>22-Mar</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
+      </c>
+      <c r="O89" s="11">
+        <v>0</v>
+      </c>
+      <c r="P89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBF17A-676C-4395-B4E6-F1E720D4BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D31DE-A245-43D1-A261-953D17401649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2382"/>
+                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2389"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="C90:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1950,23 +1950,23 @@
       </c>
       <c r="R19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V19" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W19" s="11">
         <f ca="1"/>
@@ -4772,19 +4772,19 @@
         <v>1</v>
       </c>
       <c r="E90" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" s="16">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -4977,10 +4977,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
   <dimension ref="D7:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V88" sqref="V88"/>
+      <selection pane="bottomLeft" activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="11">
         <v>0</v>
@@ -8917,10 +8917,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D31DE-A245-43D1-A261-953D17401649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4E89C1-DFB8-45EA-9E37-0E4A83383779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -511,6 +511,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -528,7 +537,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -593,6 +602,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -944,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$19" spid="_x0000_s2389"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2398"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1305,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="C90:K90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1400,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B90" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B91" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,11 +1413,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M90">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M91">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
-        <f t="array" aca="1" ref="O10:X19" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
+        <f t="array" aca="1" ref="O10:X20" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="P10" s="11">
@@ -1994,7 +2004,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="P20" s="15"/>
+      <c r="O20" s="22">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="P20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="str">
@@ -2029,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L90" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L91" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4801,16 +4850,44 @@
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
+      <c r="B91" s="9" t="str">
+        <f ca="1"/>
+        <v>23-Mar</v>
+      </c>
+      <c r="C91" s="16">
+        <v>1</v>
+      </c>
+      <c r="D91" s="16">
+        <v>1</v>
+      </c>
+      <c r="E91" s="16">
+        <v>1</v>
+      </c>
+      <c r="F91" s="16">
+        <v>1</v>
+      </c>
+      <c r="G91" s="16">
+        <v>1</v>
+      </c>
+      <c r="H91" s="16">
+        <v>0</v>
+      </c>
+      <c r="I91" s="16">
+        <v>1</v>
+      </c>
+      <c r="J91" s="16">
+        <v>1</v>
+      </c>
+      <c r="K91" s="16">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M91">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
@@ -4975,12 +5052,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S89"/>
+  <dimension ref="D7:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Q91" sqref="Q91"/>
+      <selection pane="bottomLeft" activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5036,7 +5113,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D89" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D90" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5079,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S89">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S90">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -8920,6 +8997,54 @@
         <v>1</v>
       </c>
       <c r="S89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D90" t="str">
+        <f ca="1"/>
+        <v>23-Mar</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>1</v>
+      </c>
+      <c r="M90" s="11">
+        <v>0</v>
+      </c>
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+      <c r="O90" s="11">
+        <v>0</v>
+      </c>
+      <c r="P90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="11">
+        <v>1</v>
+      </c>
+      <c r="S90">
         <v>3</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4E89C1-DFB8-45EA-9E37-0E4A83383779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F2245-CDE4-40E8-A7BC-62C9E23D34A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2398"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2399"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1308,7 +1308,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
+      <selection pane="bottomLeft" activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="16">
         <v>1</v>
@@ -4886,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="M91">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F2245-CDE4-40E8-A7BC-62C9E23D34A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47F80D-A6F9-4369-8FE2-89BE3A3CBE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2399"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2405"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1306,9 +1306,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="W88" sqref="W88"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B91" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B92" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1413,7 +1413,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M91">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M92">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="11">
         <f ca="1"/>
@@ -2018,31 +2018,31 @@
       </c>
       <c r="R20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L91" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L92" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4890,16 +4890,44 @@
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
+      <c r="B92" s="9" t="str">
+        <f ca="1"/>
+        <v>24-Mar</v>
+      </c>
+      <c r="C92" s="16">
+        <v>1</v>
+      </c>
+      <c r="D92" s="16">
+        <v>0</v>
+      </c>
+      <c r="E92" s="16">
+        <v>1</v>
+      </c>
+      <c r="F92" s="16">
+        <v>1</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1</v>
+      </c>
+      <c r="H92" s="16">
+        <v>1</v>
+      </c>
+      <c r="I92" s="16">
+        <v>1</v>
+      </c>
+      <c r="J92" s="16">
+        <v>1</v>
+      </c>
+      <c r="K92" s="16">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M92">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
@@ -5052,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S90"/>
+  <dimension ref="D7:S91"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
@@ -5113,7 +5141,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D90" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D91" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5156,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S90">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S91">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9046,6 +9074,15 @@
       </c>
       <c r="S90">
         <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f ca="1"/>
+        <v>24-Mar</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E47F80D-A6F9-4369-8FE2-89BE3A3CBE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2596B-F29C-40A9-A716-7D2255523267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -931,15 +931,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>26035</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>27305</xdr:rowOff>
+          <xdr:colOff>33655</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>126365</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>34925</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>116840</xdr:rowOff>
+          <xdr:colOff>42545</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>48260</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2405"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2410"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -968,8 +968,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4369435" y="12362180"/>
-              <a:ext cx="3371850" cy="3533775"/>
+              <a:off x="4377055" y="13308965"/>
+              <a:ext cx="3376930" cy="3442335"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1305,10 +1305,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
+      <selection pane="bottomLeft" activeCell="AA91" sqref="AA91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B92" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B93" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1413,7 +1413,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M92">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M93">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2010,39 +2010,39 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q20" s="11">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
       <c r="R20" s="11">
         <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="S20" s="11">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="S20" s="11">
+      <c r="T20" s="11">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="U20" s="11">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="T20" s="11">
+      <c r="V20" s="11">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="U20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="V20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L92" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L93" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4930,16 +4930,44 @@
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
+      <c r="B93" s="9" t="str">
+        <f ca="1"/>
+        <v>25-Mar</v>
+      </c>
+      <c r="C93" s="16">
+        <v>1</v>
+      </c>
+      <c r="D93" s="16">
+        <v>1</v>
+      </c>
+      <c r="E93" s="16">
+        <v>1</v>
+      </c>
+      <c r="F93" s="16">
+        <v>0</v>
+      </c>
+      <c r="G93" s="16">
+        <v>1</v>
+      </c>
+      <c r="H93" s="16">
+        <v>0</v>
+      </c>
+      <c r="I93" s="16">
+        <v>0</v>
+      </c>
+      <c r="J93" s="16">
+        <v>1</v>
+      </c>
+      <c r="K93" s="16">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
@@ -5080,12 +5108,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S91"/>
+  <dimension ref="D7:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="Z91" sqref="Z91"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5141,7 +5169,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D91" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D92" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5184,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S91">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S92">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9081,8 +9109,95 @@
         <f ca="1"/>
         <v>24-Mar</v>
       </c>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+      <c r="O91" s="11">
+        <v>0</v>
+      </c>
+      <c r="P91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>0</v>
+      </c>
       <c r="S91">
         <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f ca="1"/>
+        <v>25-Mar</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>1</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>1</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+      <c r="O92" s="11">
+        <v>0</v>
+      </c>
+      <c r="P92" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2596B-F29C-40A9-A716-7D2255523267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EEAE0-D90B-423A-9F11-E3CFB2231A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2410"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2416"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1305,10 +1305,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AA91" sqref="AA91"/>
+      <selection pane="bottomLeft" activeCell="AB90" sqref="AB90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B93" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B94" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1413,7 +1413,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M93">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M94">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2010,39 +2010,39 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="11">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="Q20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
       <c r="R20" s="11">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="S20" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="T20" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="U20" s="11">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="S20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="T20" s="11">
+      <c r="V20" s="11">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="U20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="V20" s="11">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L93" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L94" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -4944,16 +4944,16 @@
         <v>1</v>
       </c>
       <c r="F93" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="16">
         <v>1</v>
       </c>
       <c r="H93" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="16">
         <v>1</v>
@@ -4966,20 +4966,48 @@
         <v>13</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
+      <c r="B94" s="9" t="str">
+        <f ca="1"/>
+        <v>26-Mar</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1</v>
+      </c>
+      <c r="D94" s="16">
+        <v>1</v>
+      </c>
+      <c r="E94" s="16">
+        <v>1</v>
+      </c>
+      <c r="F94" s="16">
+        <v>1</v>
+      </c>
+      <c r="G94" s="16">
+        <v>1</v>
+      </c>
+      <c r="H94" s="16">
+        <v>0</v>
+      </c>
+      <c r="I94" s="16">
+        <v>0</v>
+      </c>
+      <c r="J94" s="16">
+        <v>1</v>
+      </c>
+      <c r="K94" s="16">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M94">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
@@ -5108,12 +5136,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S92"/>
+  <dimension ref="D7:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5169,7 +5197,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D92" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D93" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5212,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S92">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S93">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9197,6 +9225,54 @@
         <v>0</v>
       </c>
       <c r="S92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D93" t="str">
+        <f ca="1"/>
+        <v>26-Mar</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>1</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>1</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0</v>
+      </c>
+      <c r="O93" s="11">
+        <v>0</v>
+      </c>
+      <c r="P93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>0</v>
+      </c>
+      <c r="S93">
         <v>2</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EEAE0-D90B-423A-9F11-E3CFB2231A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829A9BA-BE8D-4678-960D-BE5808768D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2416"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2418"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1306,9 +1306,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AB90" sqref="AB90"/>
+      <selection pane="bottomLeft" activeCell="AC93" sqref="AC93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2030,11 +2030,11 @@
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" s="11">
         <f ca="1"/>
@@ -4990,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="H94" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="16">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>13</v>
       </c>
       <c r="M94">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28720"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829A9BA-BE8D-4678-960D-BE5808768D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DEB30-0AC0-4BF5-B488-01268F092295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -954,7 +954,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2418"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2424"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1306,9 +1306,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AC93" sqref="AC93"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B94" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B95" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1413,7 +1413,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M94">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M95">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2010,39 +2010,39 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" s="11">
+        <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="11">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
       <c r="R20" s="11">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="11">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="11">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="U20" s="11">
+        <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="S20" s="11">
+      <c r="V20" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T20" s="11">
+      <c r="W20" s="11">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="U20" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="V20" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="W20" s="11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L94" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L95" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -5010,16 +5010,44 @@
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
+      <c r="B95" s="9" t="str">
+        <f ca="1"/>
+        <v>27-Mar</v>
+      </c>
+      <c r="C95" s="16">
+        <v>1</v>
+      </c>
+      <c r="D95" s="16">
+        <v>1</v>
+      </c>
+      <c r="E95" s="16">
+        <v>1</v>
+      </c>
+      <c r="F95" s="16">
+        <v>1</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1</v>
+      </c>
+      <c r="H95" s="16">
+        <v>0</v>
+      </c>
+      <c r="I95" s="16">
+        <v>0</v>
+      </c>
+      <c r="J95" s="16">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M95">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
@@ -5136,7 +5164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S93"/>
+  <dimension ref="D7:S94"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
@@ -5197,7 +5225,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D93" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D94" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5240,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S93">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S94">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9274,6 +9302,15 @@
       </c>
       <c r="S93">
         <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f ca="1"/>
+        <v>27-Mar</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DEB30-0AC0-4BF5-B488-01268F092295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF303A-A63E-42A0-99D2-C4626D2BCFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -511,15 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -537,7 +528,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -602,7 +593,6 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -954,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2424"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2429"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1306,9 +1296,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2004,7 +1994,7 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="14">
         <f ca="1"/>
         <v>13</v>
       </c>
@@ -2030,15 +2020,15 @@
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
@@ -5030,13 +5020,13 @@
         <v>1</v>
       </c>
       <c r="H95" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="16">
         <v>1</v>
@@ -5046,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5167,9 +5157,9 @@
   <dimension ref="D7:S94"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomLeft" activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9309,8 +9299,47 @@
         <f ca="1"/>
         <v>27-Mar</v>
       </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>1</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>1</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+      <c r="O94" s="11">
+        <v>0</v>
+      </c>
+      <c r="P94" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="11">
+        <v>0</v>
+      </c>
       <c r="S94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF303A-A63E-42A0-99D2-C4626D2BCFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE269137-C3BA-433A-9ED9-93E6F8414FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2429"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2441"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,9 +1296,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O97" sqref="O97"/>
+      <selection pane="bottomLeft" activeCell="M96" sqref="C96:M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B95" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B96" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M95">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M96">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="11">
         <f ca="1"/>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="R20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L95" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L96" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -5040,16 +5040,44 @@
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
+      <c r="B96" s="9" t="str">
+        <f ca="1"/>
+        <v>28-Mar</v>
+      </c>
+      <c r="C96" s="16">
+        <v>1</v>
+      </c>
+      <c r="D96" s="16">
+        <v>0</v>
+      </c>
+      <c r="E96" s="16">
+        <v>1</v>
+      </c>
+      <c r="F96" s="16">
+        <v>1</v>
+      </c>
+      <c r="G96" s="16">
+        <v>1</v>
+      </c>
+      <c r="H96" s="16">
+        <v>1</v>
+      </c>
+      <c r="I96" s="16">
+        <v>1</v>
+      </c>
+      <c r="J96" s="16">
+        <v>1</v>
+      </c>
+      <c r="K96" s="16">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M96">
+        <v>8</v>
+      </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
@@ -5154,12 +5182,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S94"/>
+  <dimension ref="D7:S95"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O94" sqref="O94"/>
+      <selection pane="bottomLeft" activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5215,7 +5243,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D94" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D95" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5258,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S94">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S95">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9339,6 +9367,54 @@
         <v>0</v>
       </c>
       <c r="S94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f ca="1"/>
+        <v>28-Mar</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>1</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11">
+        <v>1</v>
+      </c>
+      <c r="M95" s="11">
+        <v>0</v>
+      </c>
+      <c r="N95" s="11">
+        <v>0</v>
+      </c>
+      <c r="O95" s="11">
+        <v>0</v>
+      </c>
+      <c r="P95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="11">
+        <v>0</v>
+      </c>
+      <c r="S95">
         <v>2</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE269137-C3BA-433A-9ED9-93E6F8414FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63B012-B282-4927-AEE5-A6DDC6D3BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2441"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2448"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A5:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M96" sqref="C96:M96"/>
+      <selection pane="bottomLeft" activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B96" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B97" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,7 +1403,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M96">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M97">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
@@ -2000,39 +2000,39 @@
       </c>
       <c r="P20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="11">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X20" s="11">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L96" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L97" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
@@ -5079,19 +5079,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="str">
+        <f ca="1"/>
+        <v>29-Mar</v>
+      </c>
+      <c r="C97" s="16">
+        <v>1</v>
+      </c>
+      <c r="D97" s="16">
+        <v>1</v>
+      </c>
+      <c r="E97" s="16">
+        <v>1</v>
+      </c>
+      <c r="F97" s="16">
+        <v>1</v>
+      </c>
+      <c r="G97" s="16">
+        <v>1</v>
+      </c>
+      <c r="H97" s="16">
+        <v>1</v>
+      </c>
+      <c r="I97" s="16">
+        <v>1</v>
+      </c>
+      <c r="J97" s="16">
+        <v>1</v>
+      </c>
+      <c r="K97" s="16">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="M97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -5103,7 +5131,7 @@
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -5182,12 +5210,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S95"/>
+  <dimension ref="D7:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="W96" sqref="W96"/>
+      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5243,7 +5271,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D95" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D96" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5286,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S95">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S96">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9415,6 +9443,54 @@
         <v>0</v>
       </c>
       <c r="S95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D96" t="str">
+        <f ca="1"/>
+        <v>29-Mar</v>
+      </c>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>1</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>1</v>
+      </c>
+      <c r="M96" s="11">
+        <v>0</v>
+      </c>
+      <c r="N96" s="11">
+        <v>0</v>
+      </c>
+      <c r="O96" s="11">
+        <v>0</v>
+      </c>
+      <c r="P96" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="11">
+        <v>0</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
     </row>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB63B012-B282-4927-AEE5-A6DDC6D3BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC417E-8AC7-40AC-9B1E-608A8AB88FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2448"/>
+                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2450"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5213,9 +5213,9 @@
   <dimension ref="D7:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
+      <selection pane="bottomLeft" activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" s="11">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyPlanningTemplate.xlsx
+++ b/DailyPlanningTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC417E-8AC7-40AC-9B1E-608A8AB88FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87C5382-E5C6-419B-BDB9-A648F03DE620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -944,7 +944,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$9:$X$20" spid="_x0000_s2450"/>
+                  <a14:cameraTool cellRange="$O$9:$X$21" spid="_x0000_s2454"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,9 +1296,9 @@
   <dimension ref="A5:AA99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O100" sqref="O100"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:B97" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="B10:B98" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="C10" s="5"/>
@@ -1403,11 +1403,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
       <c r="M10" cm="1">
-        <f t="array" ref="M10:M97">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
+        <f t="array" ref="M10:M98">_xlfn.BYROW(_xlfn.DROP(Banded,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
       <c r="O10" s="14" cm="1">
-        <f t="array" aca="1" ref="O10:X20" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
+        <f t="array" aca="1" ref="O10:X21" ca="1">_xlfn.PIVOTBY(ix,,data,_xleta.SUM,0,0)</f>
         <v>3</v>
       </c>
       <c r="P10" s="11">
@@ -2068,12 +2068,52 @@
         <v>0</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21:L97" ca="1">WEEKNUM(_date+0)</f>
+        <f t="array" aca="1" ref="L21:L98" ca="1">WEEKNUM(_date+0)</f>
         <v>3</v>
       </c>
       <c r="M21">
         <v>6</v>
       </c>
+      <c r="O21" s="14">
+        <f ca="1"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="11">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
@@ -5120,16 +5160,44 @@
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
+      <c r="B98" s="9" t="str">
+        <f ca="1"/>
+        <v>30-Mar</v>
+      </c>
+      <c r="C98" s="16">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="16">
+        <v>1</v>
+      </c>
+      <c r="F98" s="16">
+        <v>1</v>
+      </c>
+      <c r="G98" s="16">
+        <v>0</v>
+      </c>
+      <c r="H98" s="16">
+        <v>0</v>
+      </c>
+      <c r="I98" s="16">
+        <v>0</v>
+      </c>
+      <c r="J98" s="16">
+        <v>1</v>
+      </c>
+      <c r="K98" s="16">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <f ca="1"/>
+        <v>14</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
     </row>
     <row r="99" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="10"/>
@@ -5210,12 +5278,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275F8F4-F02E-491D-8929-12439DC1AD26}">
-  <dimension ref="D7:S96"/>
+  <dimension ref="D7:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="R100" sqref="R100"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5339,7 @@
     </row>
     <row r="9" spans="4:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" t="str" cm="1">
-        <f t="array" aca="1" ref="D9:D96" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
+        <f t="array" aca="1" ref="D9:D97" ca="1">TEXT(DATE(2025,1,_xlfn.SEQUENCE(1+_xlfn.DAYS(TODAY(),DATE(2025,1,1)))),"dd-mmm")</f>
         <v>01-Jan</v>
       </c>
       <c r="E9" s="11">
@@ -5314,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9:S96">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
+        <f t="array" ref="S9:S97">_xlfn.BYROW(_xlfn.DROP(_xlnm.Print_Area,,1),_xleta.SUM)</f>
         <v>0</v>
       </c>
     </row>
@@ -9492,6 +9560,54 @@
       </c>
       <c r="S96">
         <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f ca="1"/>
+        <v>30-Mar</v>
+      </c>
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
+      </c>
+      <c r="L97" s="11">
+        <v>1</v>
+      </c>
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0</v>
+      </c>
+      <c r="O97" s="11">
+        <v>0</v>
+      </c>
+      <c r="P97" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="11">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
